--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_22_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_22_19.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>481089.6332646937</v>
+        <v>572993.6190112256</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8088944.869226766</v>
+        <v>8547013.059513934</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8722880.896883905</v>
+        <v>8506890.903312845</v>
       </c>
     </row>
     <row r="11">
@@ -662,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>165.1725371760946</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -677,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>39.70122005611984</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="U2" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>187.52558716632</v>
@@ -741,13 +743,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>132.8201631493127</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -759,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265838</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>72.43289562846319</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -795,16 +797,16 @@
         <v>187.52558716632</v>
       </c>
       <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
         <v>187.52558716632</v>
-      </c>
-      <c r="W3" t="n">
-        <v>187.52558716632</v>
-      </c>
-      <c r="X3" t="n">
-        <v>149.7933161434361</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -838,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>20.00402729331221</v>
+        <v>38.11163636040603</v>
       </c>
       <c r="K4" t="n">
         <v>14.1043098940285</v>
@@ -856,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709383</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -905,16 +907,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,16 +952,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>165.1725371760945</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>187.52558716632</v>
+        <v>39.70122005611984</v>
       </c>
       <c r="X5" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -972,28 +974,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>22.34454489869799</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>117.8436240067997</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>58.90455890409149</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1038,10 +1040,10 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1066,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>52.21594625443453</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1075,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>52.21594625443443</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1133,25 +1135,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>411.8707348436268</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="H8" t="n">
-        <v>304.326804756183</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>78.16360657708299</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>39.70122005611973</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>161.6815518675532</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1215,7 +1217,7 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>64.28422739102506</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -1224,16 +1226,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.5072338470353</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H9" t="n">
-        <v>94.50081326185514</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I9" t="n">
-        <v>36.29946757904885</v>
+        <v>58.90455890409149</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1257,22 +1259,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>31.66886087721431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8205739680685</v>
+        <v>113.7456791730044</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1300,22 +1302,22 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>29.85116173898106</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.4515011109318</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.5398113612452</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>109.1541654470835</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>18.15430933923925</v>
+        <v>38.11163636040592</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>14.10430989402852</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1367,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>9.099193441180152</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1385,10 +1387,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1424,19 +1426,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>201.6622187863186</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1469,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247723</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1607,19 +1609,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>5.829022425353466</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>294.6077643873205</v>
@@ -1658,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>103.6708604288267</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1698,7 +1700,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>134.9994691657078</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
         <v>89.59687541851115</v>
@@ -1774,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1819,10 +1821,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>61.36917500887013</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1831,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>202.1599651915517</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1844,13 +1846,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1859,10 +1861,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>178.647843195297</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1895,22 +1897,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>77.9773651578025</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1932,7 +1934,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>145.0692123933836</v>
       </c>
       <c r="G18" t="n">
         <v>134.9994691657081</v>
@@ -1968,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2002,25 +2004,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>19.31343248649866</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,16 +2052,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>195.9997858605279</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2078,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>98.56193867130386</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>102.8626267108731</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2147,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2172,13 +2174,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>134.9994691657079</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S21" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T21" t="n">
         <v>190.7165703189231</v>
@@ -2239,16 +2241,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>125.3524311592335</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2257,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2302,10 +2304,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>203.7029035467942</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,16 +2368,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>229.7965692041383</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2384,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>137.9991088190085</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2473,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>150.9544634720133</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2488,10 +2490,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>187.9715160382273</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2536,13 +2538,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2552,10 +2554,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>26.77891268530576</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2567,13 +2569,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>410.9217256534534</v>
+        <v>229.7965692041367</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2606,7 +2608,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2710,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>70.53347461457273</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>127.6496787807633</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2764,13 +2766,13 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2801,16 +2803,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>80.51180339460933</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2843,22 +2845,22 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>107.9784290126196</v>
       </c>
     </row>
     <row r="30">
@@ -2883,7 +2885,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>134.9994691657079</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
         <v>89.59687541851115</v>
@@ -2962,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>106.4735778903242</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,25 +2997,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>81.46084344268542</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3038,13 +3040,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>304.919905495285</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3083,7 +3085,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>225.750889292395</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3092,7 +3094,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3126,7 +3128,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247723</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3196,10 +3198,10 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3232,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>3.545462884864218</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3247,13 +3249,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>81.46084344268475</v>
       </c>
     </row>
     <row r="35">
@@ -3275,16 +3277,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534534</v>
+        <v>308.9203564757131</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>23.79925355567413</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3363,7 +3365,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247723</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3430,10 +3432,10 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>6.052096056772291</v>
       </c>
       <c r="G37" t="n">
         <v>166.0258082590282</v>
@@ -3442,7 +3444,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>82.11246327371903</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3478,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3490,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3515,10 +3517,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>239.3447361355277</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>229.7965692041367</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3566,7 +3568,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3627,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3743,22 +3745,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>127.9327185062131</v>
       </c>
       <c r="H41" t="n">
-        <v>74.98619773129269</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3864,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3901,13 +3903,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>12.80633068795266</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>9.611905692671511</v>
       </c>
       <c r="G43" t="n">
         <v>166.0258082590282</v>
@@ -3986,16 +3988,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>308.9203564757131</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4031,7 +4033,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4040,10 +4042,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>361.3955684249542</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4186,19 +4188,19 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>155.5598945400494</v>
+        <v>115.0138334144179</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>141.7407511348962</v>
+        <v>181.8429936158254</v>
       </c>
       <c r="C2" t="n">
-        <v>141.7407511348962</v>
+        <v>181.8429936158254</v>
       </c>
       <c r="D2" t="n">
-        <v>141.7407511348962</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E2" t="n">
-        <v>141.7407511348962</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F2" t="n">
-        <v>141.7407511348962</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G2" t="n">
-        <v>141.7407511348962</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H2" t="n">
-        <v>141.7407511348962</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I2" t="n">
         <v>15.0020469733056</v>
       </c>
       <c r="J2" t="n">
-        <v>21.033711606785</v>
+        <v>21.03371160678478</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058956</v>
+        <v>80.81213159058944</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079184</v>
+        <v>191.8743094079185</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644754</v>
+        <v>347.1218190644755</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123829</v>
+        <v>509.495204112383</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985584</v>
+        <v>649.4845259985585</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020266</v>
+        <v>734.4611726020269</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652798</v>
+        <v>750.10234866528</v>
       </c>
       <c r="R2" t="n">
-        <v>710.0001061843507</v>
+        <v>750.10234866528</v>
       </c>
       <c r="S2" t="n">
-        <v>710.0001061843507</v>
+        <v>750.10234866528</v>
       </c>
       <c r="T2" t="n">
-        <v>710.0001061843507</v>
+        <v>560.6825636487952</v>
       </c>
       <c r="U2" t="n">
-        <v>520.5803211678658</v>
+        <v>560.6825636487952</v>
       </c>
       <c r="V2" t="n">
-        <v>331.1605361513811</v>
+        <v>371.2627786323103</v>
       </c>
       <c r="W2" t="n">
-        <v>331.1605361513811</v>
+        <v>371.2627786323103</v>
       </c>
       <c r="X2" t="n">
-        <v>331.1605361513811</v>
+        <v>371.2627786323103</v>
       </c>
       <c r="Y2" t="n">
-        <v>141.7407511348962</v>
+        <v>181.8429936158254</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>30.53661367296053</v>
+        <v>298.0982375934586</v>
       </c>
       <c r="C3" t="n">
-        <v>30.53661367296053</v>
+        <v>298.0982375934586</v>
       </c>
       <c r="D3" t="n">
-        <v>30.53661367296053</v>
+        <v>149.1638279322074</v>
       </c>
       <c r="E3" t="n">
-        <v>30.53661367296053</v>
+        <v>149.1638279322074</v>
       </c>
       <c r="F3" t="n">
-        <v>30.53661367296053</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G3" t="n">
-        <v>30.53661367296053</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H3" t="n">
-        <v>30.53661367296053</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I3" t="n">
-        <v>30.53661367296053</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J3" t="n">
         <v>15.0020469733056</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024196</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772648</v>
+        <v>183.554828077265</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140244</v>
+        <v>338.7690911140245</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546602</v>
+        <v>512.5000587546604</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476349</v>
+        <v>649.2101578476352</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017064</v>
+        <v>739.5989987017066</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652798</v>
+        <v>750.10234866528</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652798</v>
+        <v>676.9378076264284</v>
       </c>
       <c r="S3" t="n">
-        <v>750.1023486652798</v>
+        <v>676.9378076264284</v>
       </c>
       <c r="T3" t="n">
-        <v>750.1023486652798</v>
+        <v>676.9378076264284</v>
       </c>
       <c r="U3" t="n">
-        <v>560.6825636487949</v>
+        <v>487.5180226099435</v>
       </c>
       <c r="V3" t="n">
-        <v>371.2627786323101</v>
+        <v>487.5180226099435</v>
       </c>
       <c r="W3" t="n">
-        <v>181.8429936158253</v>
+        <v>487.5180226099435</v>
       </c>
       <c r="X3" t="n">
-        <v>30.53661367296053</v>
+        <v>487.5180226099435</v>
       </c>
       <c r="Y3" t="n">
-        <v>30.53661367296053</v>
+        <v>298.0982375934586</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>49.45491281910429</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="C4" t="n">
-        <v>49.45491281910429</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="D4" t="n">
-        <v>49.45491281910429</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="E4" t="n">
-        <v>49.45491281910429</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="F4" t="n">
-        <v>49.45491281910429</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="G4" t="n">
-        <v>49.45491281910429</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="H4" t="n">
-        <v>49.45491281910429</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="I4" t="n">
-        <v>49.45491281910429</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="J4" t="n">
         <v>29.24882464404146</v>
@@ -4495,7 +4497,7 @@
         <v>27.03967056230179</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170722</v>
+        <v>42.98993985170723</v>
       </c>
       <c r="N4" t="n">
         <v>66.41847329396343</v>
@@ -4504,34 +4506,34 @@
         <v>67.74542702828998</v>
       </c>
       <c r="P4" t="n">
-        <v>49.45491281910429</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="Q4" t="n">
-        <v>49.45491281910429</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="R4" t="n">
-        <v>49.45491281910429</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="S4" t="n">
-        <v>49.45491281910429</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="T4" t="n">
-        <v>49.45491281910429</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="U4" t="n">
-        <v>49.45491281910429</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="V4" t="n">
-        <v>49.45491281910429</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="W4" t="n">
-        <v>49.45491281910429</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="X4" t="n">
-        <v>49.45491281910429</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="Y4" t="n">
-        <v>49.45491281910429</v>
+        <v>67.74542702828998</v>
       </c>
     </row>
     <row r="5">
@@ -4541,46 +4543,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15.0020469733056</v>
+        <v>710.0001061843507</v>
       </c>
       <c r="C5" t="n">
-        <v>15.0020469733056</v>
+        <v>710.0001061843507</v>
       </c>
       <c r="D5" t="n">
-        <v>15.0020469733056</v>
+        <v>710.0001061843507</v>
       </c>
       <c r="E5" t="n">
-        <v>15.0020469733056</v>
+        <v>710.0001061843507</v>
       </c>
       <c r="F5" t="n">
-        <v>15.0020469733056</v>
+        <v>520.5803211678658</v>
       </c>
       <c r="G5" t="n">
-        <v>15.0020469733056</v>
+        <v>331.1605361513811</v>
       </c>
       <c r="H5" t="n">
-        <v>15.0020469733056</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="I5" t="n">
         <v>15.0020469733056</v>
       </c>
       <c r="J5" t="n">
-        <v>21.03371160678478</v>
+        <v>21.03371160678535</v>
       </c>
       <c r="K5" t="n">
-        <v>80.81213159058944</v>
+        <v>80.81213159058996</v>
       </c>
       <c r="L5" t="n">
-        <v>191.8743094079185</v>
+        <v>191.8743094079189</v>
       </c>
       <c r="M5" t="n">
-        <v>347.1218190644755</v>
+        <v>347.1218190644756</v>
       </c>
       <c r="N5" t="n">
-        <v>509.4952041123829</v>
+        <v>509.495204112383</v>
       </c>
       <c r="O5" t="n">
-        <v>649.4845259985583</v>
+        <v>649.4845259985584</v>
       </c>
       <c r="P5" t="n">
         <v>734.4611726020266</v>
@@ -4598,19 +4600,19 @@
         <v>750.1023486652798</v>
       </c>
       <c r="U5" t="n">
-        <v>560.6825636487949</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="V5" t="n">
-        <v>393.8416170062752</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="W5" t="n">
-        <v>204.4218319897904</v>
+        <v>710.0001061843507</v>
       </c>
       <c r="X5" t="n">
-        <v>15.0020469733056</v>
+        <v>710.0001061843507</v>
       </c>
       <c r="Y5" t="n">
-        <v>15.0020469733056</v>
+        <v>710.0001061843507</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>348.6925312598881</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="C6" t="n">
-        <v>174.2395019787611</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="D6" t="n">
-        <v>174.2395019787611</v>
+        <v>601.1679390040285</v>
       </c>
       <c r="E6" t="n">
-        <v>15.0020469733056</v>
+        <v>441.930483998573</v>
       </c>
       <c r="F6" t="n">
-        <v>15.0020469733056</v>
+        <v>295.395926025458</v>
       </c>
       <c r="G6" t="n">
-        <v>15.0020469733056</v>
+        <v>176.361962382226</v>
       </c>
       <c r="H6" t="n">
-        <v>15.0020469733056</v>
+        <v>74.50160142188287</v>
       </c>
       <c r="I6" t="n">
         <v>15.0020469733056</v>
@@ -4647,49 +4649,49 @@
         <v>15.0020469733056</v>
       </c>
       <c r="K6" t="n">
-        <v>67.13418877024216</v>
+        <v>67.13418877024219</v>
       </c>
       <c r="L6" t="n">
-        <v>183.554828077265</v>
+        <v>183.5548280772651</v>
       </c>
       <c r="M6" t="n">
-        <v>338.7690911140245</v>
+        <v>338.7690911140246</v>
       </c>
       <c r="N6" t="n">
         <v>512.5000587546604</v>
       </c>
       <c r="O6" t="n">
-        <v>649.2101578476351</v>
+        <v>649.2101578476349</v>
       </c>
       <c r="P6" t="n">
-        <v>739.5989987017065</v>
+        <v>739.5989987017064</v>
       </c>
       <c r="Q6" t="n">
-        <v>750.1023486652799</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="R6" t="n">
-        <v>750.1023486652799</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="S6" t="n">
-        <v>750.1023486652799</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="T6" t="n">
-        <v>750.1023486652799</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="U6" t="n">
-        <v>750.1023486652799</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="V6" t="n">
-        <v>750.1023486652799</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="W6" t="n">
-        <v>750.1023486652799</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="X6" t="n">
-        <v>560.6825636487952</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="Y6" t="n">
-        <v>371.2627786323104</v>
+        <v>750.1023486652798</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="C7" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="D7" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="E7" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="F7" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="G7" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="H7" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="I7" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="J7" t="n">
         <v>15.0020469733056</v>
@@ -4729,46 +4731,46 @@
         <v>15.0020469733056</v>
       </c>
       <c r="L7" t="n">
-        <v>27.03967056230179</v>
+        <v>27.03967056230176</v>
       </c>
       <c r="M7" t="n">
-        <v>42.98993985170722</v>
+        <v>42.98993985170716</v>
       </c>
       <c r="N7" t="n">
-        <v>66.41847329396343</v>
+        <v>66.41847329396334</v>
       </c>
       <c r="O7" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="P7" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="Q7" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="R7" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="S7" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="T7" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="U7" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="V7" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="W7" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="X7" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="Y7" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702828987</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1615.005796072727</v>
+        <v>710.0001061843504</v>
       </c>
       <c r="C8" t="n">
-        <v>1615.005796072727</v>
+        <v>520.5803211678657</v>
       </c>
       <c r="D8" t="n">
-        <v>1256.740097465976</v>
+        <v>520.5803211678657</v>
       </c>
       <c r="E8" t="n">
-        <v>1256.740097465976</v>
+        <v>331.1605361513809</v>
       </c>
       <c r="F8" t="n">
-        <v>845.7541926763687</v>
+        <v>331.1605361513809</v>
       </c>
       <c r="G8" t="n">
-        <v>429.7231473797759</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="H8" t="n">
-        <v>122.3223344947425</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="I8" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J8" t="n">
-        <v>152.5078184301901</v>
+        <v>21.03371160678495</v>
       </c>
       <c r="K8" t="n">
-        <v>366.8168396232717</v>
+        <v>80.81213159058944</v>
       </c>
       <c r="L8" t="n">
-        <v>669.5878927711865</v>
+        <v>191.8743094079183</v>
       </c>
       <c r="M8" t="n">
-        <v>1038.14846457873</v>
+        <v>347.1218190644753</v>
       </c>
       <c r="N8" t="n">
-        <v>1417.286540135166</v>
+        <v>509.4952041123826</v>
       </c>
       <c r="O8" t="n">
-        <v>1761.960612545596</v>
+        <v>649.4845259985582</v>
       </c>
       <c r="P8" t="n">
-        <v>2021.630958172447</v>
+        <v>734.4611726020263</v>
       </c>
       <c r="Q8" t="n">
-        <v>2168.459826904653</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R8" t="n">
-        <v>2168.459826904653</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="S8" t="n">
-        <v>2168.459826904653</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="T8" t="n">
-        <v>2168.459826904653</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="U8" t="n">
-        <v>2168.459826904653</v>
+        <v>710.0001061843504</v>
       </c>
       <c r="V8" t="n">
-        <v>2168.459826904653</v>
+        <v>710.0001061843504</v>
       </c>
       <c r="W8" t="n">
-        <v>2005.145128048538</v>
+        <v>710.0001061843504</v>
       </c>
       <c r="X8" t="n">
-        <v>2005.145128048538</v>
+        <v>710.0001061843504</v>
       </c>
       <c r="Y8" t="n">
-        <v>1615.005796072727</v>
+        <v>710.0001061843504</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>683.072262121678</v>
+        <v>635.2077232380022</v>
       </c>
       <c r="C9" t="n">
-        <v>683.072262121678</v>
+        <v>635.2077232380022</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1386991004406</v>
+        <v>635.2077232380022</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9012440949851</v>
+        <v>475.9702682325468</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3666861218701</v>
+        <v>329.4357102594318</v>
       </c>
       <c r="G9" t="n">
-        <v>175.490692336986</v>
+        <v>191.8965290818809</v>
       </c>
       <c r="H9" t="n">
-        <v>80.03532540581918</v>
+        <v>90.0361681215378</v>
       </c>
       <c r="I9" t="n">
-        <v>43.36919653809306</v>
+        <v>30.53661367296053</v>
       </c>
       <c r="J9" t="n">
-        <v>89.55356510562316</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K9" t="n">
-        <v>246.6448318504519</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L9" t="n">
-        <v>504.1959674104395</v>
+        <v>183.5548280772649</v>
       </c>
       <c r="M9" t="n">
-        <v>824.1028628789488</v>
+        <v>338.7690911140244</v>
       </c>
       <c r="N9" t="n">
-        <v>1166.88538687358</v>
+        <v>512.5000587546598</v>
       </c>
       <c r="O9" t="n">
-        <v>1458.244633128146</v>
+        <v>649.2101578476347</v>
       </c>
       <c r="P9" t="n">
-        <v>1672.753048689047</v>
+        <v>739.598998701706</v>
       </c>
       <c r="Q9" t="n">
-        <v>1766.227047333487</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R9" t="n">
-        <v>1734.238298972664</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="S9" t="n">
-        <v>1595.273638474382</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="T9" t="n">
-        <v>1400.563316948358</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="U9" t="n">
-        <v>1172.461727081622</v>
+        <v>635.2077232380022</v>
       </c>
       <c r="V9" t="n">
-        <v>937.3096188498796</v>
+        <v>635.2077232380022</v>
       </c>
       <c r="W9" t="n">
-        <v>683.072262121678</v>
+        <v>635.2077232380022</v>
       </c>
       <c r="X9" t="n">
-        <v>683.072262121678</v>
+        <v>635.2077232380022</v>
       </c>
       <c r="Y9" t="n">
-        <v>683.072262121678</v>
+        <v>635.2077232380022</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>520.2893470405991</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="C10" t="n">
-        <v>520.2893470405991</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="D10" t="n">
-        <v>520.2893470405991</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="E10" t="n">
-        <v>520.2893470405991</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="F10" t="n">
-        <v>490.1366584153657</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="G10" t="n">
-        <v>322.003829010384</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="H10" t="n">
-        <v>171.9636155141767</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="I10" t="n">
-        <v>61.70688273934482</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="J10" t="n">
-        <v>43.36919653809306</v>
+        <v>29.24882464404147</v>
       </c>
       <c r="K10" t="n">
-        <v>92.71685897981521</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="L10" t="n">
-        <v>185.7706748018941</v>
+        <v>27.03967056230175</v>
       </c>
       <c r="M10" t="n">
-        <v>287.1411594927332</v>
+        <v>42.98993985170716</v>
       </c>
       <c r="N10" t="n">
-        <v>393.9588065377461</v>
+        <v>66.41847329396334</v>
       </c>
       <c r="O10" t="n">
-        <v>472.3091036033659</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="P10" t="n">
-        <v>520.2893470405991</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="Q10" t="n">
-        <v>520.2893470405991</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="R10" t="n">
-        <v>520.2893470405991</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="S10" t="n">
-        <v>520.2893470405991</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="T10" t="n">
-        <v>520.2893470405991</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="U10" t="n">
-        <v>520.2893470405991</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="V10" t="n">
-        <v>520.2893470405991</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="W10" t="n">
-        <v>520.2893470405991</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="X10" t="n">
-        <v>520.2893470405991</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="Y10" t="n">
-        <v>520.2893470405991</v>
+        <v>67.74542702828987</v>
       </c>
     </row>
     <row r="11">
@@ -5015,31 +5017,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2345.167438673965</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C11" t="n">
-        <v>1976.204921733553</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D11" t="n">
-        <v>1617.939223126803</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E11" t="n">
-        <v>1232.150970528558</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F11" t="n">
-        <v>821.1650657389509</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G11" t="n">
-        <v>406.0926155839475</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H11" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I11" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K11" t="n">
         <v>589.2106210810553</v>
@@ -5072,19 +5074,19 @@
         <v>3325.60582160917</v>
       </c>
       <c r="U11" t="n">
-        <v>3325.60582160917</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V11" t="n">
-        <v>3325.60582160917</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W11" t="n">
-        <v>3325.60582160917</v>
+        <v>2388.243802269321</v>
       </c>
       <c r="X11" t="n">
-        <v>3121.906610713899</v>
+        <v>2014.778044008242</v>
       </c>
       <c r="Y11" t="n">
-        <v>2731.767278738087</v>
+        <v>2014.778044008242</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I12" t="n">
         <v>66.5121164321834</v>
@@ -5151,7 +5153,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V12" t="n">
         <v>1779.608347199865</v>
@@ -5160,10 +5162,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="13">
@@ -5252,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1238.038871968309</v>
+        <v>1133.32083113111</v>
       </c>
       <c r="C14" t="n">
-        <v>1238.038871968309</v>
+        <v>764.3583141906979</v>
       </c>
       <c r="D14" t="n">
-        <v>1238.038871968309</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="E14" t="n">
-        <v>1232.150970528558</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="F14" t="n">
-        <v>821.1650657389509</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="G14" t="n">
         <v>406.0926155839475</v>
@@ -5273,19 +5275,19 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
         <v>2120.555556060171</v>
@@ -5306,22 +5308,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T14" t="n">
-        <v>3325.605821609171</v>
+        <v>3220.887780771972</v>
       </c>
       <c r="U14" t="n">
-        <v>3072.075344883008</v>
+        <v>2967.357304045808</v>
       </c>
       <c r="V14" t="n">
-        <v>2741.012457539437</v>
+        <v>2636.294416702237</v>
       </c>
       <c r="W14" t="n">
-        <v>2388.243802269323</v>
+        <v>2283.525761432123</v>
       </c>
       <c r="X14" t="n">
-        <v>2014.778044008243</v>
+        <v>1910.060003171043</v>
       </c>
       <c r="Y14" t="n">
-        <v>1624.638712032431</v>
+        <v>1519.920671195231</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M15" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="16">
@@ -5410,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>213.4020639300938</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C16" t="n">
-        <v>213.4020639300938</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D16" t="n">
-        <v>213.4020639300938</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E16" t="n">
-        <v>213.4020639300938</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F16" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G16" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H16" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K16" t="n">
         <v>176.6457242372933</v>
@@ -5443,19 +5445,19 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M16" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N16" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O16" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P16" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q16" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R16" t="n">
         <v>831.0565485757129</v>
@@ -5467,19 +5469,19 @@
         <v>417.6040489720652</v>
       </c>
       <c r="U16" t="n">
-        <v>417.6040489720652</v>
+        <v>128.5011820977088</v>
       </c>
       <c r="V16" t="n">
-        <v>417.6040489720652</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="W16" t="n">
-        <v>417.6040489720652</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="X16" t="n">
-        <v>417.6040489720652</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="Y16" t="n">
-        <v>213.4020639300938</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
     <row r="17">
@@ -5489,43 +5491,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1959.379186075721</v>
+        <v>1458.811090838975</v>
       </c>
       <c r="C17" t="n">
-        <v>1590.416669135309</v>
+        <v>1458.811090838975</v>
       </c>
       <c r="D17" t="n">
-        <v>1232.150970528558</v>
+        <v>1458.811090838975</v>
       </c>
       <c r="E17" t="n">
-        <v>1232.150970528558</v>
+        <v>1073.022838240731</v>
       </c>
       <c r="F17" t="n">
-        <v>821.1650657389509</v>
+        <v>662.0369334511233</v>
       </c>
       <c r="G17" t="n">
-        <v>406.0926155839475</v>
+        <v>246.9644832961198</v>
       </c>
       <c r="H17" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I17" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O17" t="n">
         <v>2623.528026939508</v>
@@ -5543,22 +5545,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T17" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U17" t="n">
-        <v>2755.806928794325</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V17" t="n">
-        <v>2424.744041450754</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="W17" t="n">
-        <v>2345.979026139843</v>
+        <v>2609.016021139988</v>
       </c>
       <c r="X17" t="n">
-        <v>2345.979026139843</v>
+        <v>2235.550262878909</v>
       </c>
       <c r="Y17" t="n">
-        <v>2345.979026139843</v>
+        <v>1845.410930903097</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1702.096133556939</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C18" t="n">
-        <v>1527.643104275812</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D18" t="n">
-        <v>1378.708694614561</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E18" t="n">
-        <v>1219.471239609105</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F18" t="n">
-        <v>1072.93668163599</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>936.5735814686084</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
-        <v>846.0716871064759</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I18" t="n">
-        <v>827.0643955080138</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J18" t="n">
-        <v>920.7416649986312</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K18" t="n">
-        <v>1159.005863978978</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>1525.704024291644</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M18" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>2446.503393068414</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
-        <v>2857.464672486469</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>3167.964263962572</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q18" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R18" t="n">
-        <v>3325.461468201687</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S18" t="n">
-        <v>3196.023581695167</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T18" t="n">
-        <v>3003.380581373022</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2775.312734507438</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V18" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W18" t="n">
-        <v>2285.923269547494</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>2078.071769341961</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y18" t="n">
-        <v>1870.311470577007</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="19">
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>531.2215399677106</v>
+        <v>666.2025176122982</v>
       </c>
       <c r="C19" t="n">
-        <v>531.2215399677106</v>
+        <v>497.2663346843913</v>
       </c>
       <c r="D19" t="n">
-        <v>381.1049005553748</v>
+        <v>497.2663346843913</v>
       </c>
       <c r="E19" t="n">
-        <v>381.1049005553748</v>
+        <v>497.2663346843913</v>
       </c>
       <c r="F19" t="n">
-        <v>234.2149530574645</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G19" t="n">
-        <v>66.51211643218343</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H19" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I19" t="n">
         <v>66.51211643218343</v>
@@ -5698,25 +5700,25 @@
         <v>920.887005818185</v>
       </c>
       <c r="S19" t="n">
-        <v>729.2011216450114</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T19" t="n">
-        <v>531.2215399677106</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U19" t="n">
-        <v>531.2215399677106</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V19" t="n">
-        <v>531.2215399677106</v>
+        <v>666.2025176122982</v>
       </c>
       <c r="W19" t="n">
-        <v>531.2215399677106</v>
+        <v>666.2025176122982</v>
       </c>
       <c r="X19" t="n">
-        <v>531.2215399677106</v>
+        <v>666.2025176122982</v>
       </c>
       <c r="Y19" t="n">
-        <v>531.2215399677106</v>
+        <v>666.2025176122982</v>
       </c>
     </row>
     <row r="20">
@@ -5726,40 +5728,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1308.370295943747</v>
+        <v>1571.829289912211</v>
       </c>
       <c r="C20" t="n">
-        <v>939.4077790033352</v>
+        <v>1202.866772971799</v>
       </c>
       <c r="D20" t="n">
-        <v>581.1420803965848</v>
+        <v>1202.866772971799</v>
       </c>
       <c r="E20" t="n">
-        <v>581.1420803965848</v>
+        <v>817.078520373555</v>
       </c>
       <c r="F20" t="n">
-        <v>581.1420803965848</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="G20" t="n">
-        <v>166.0696302415813</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H20" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I20" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912089</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
         <v>2120.555556060171</v>
@@ -5768,34 +5770,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T20" t="n">
-        <v>3009.337405520487</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U20" t="n">
-        <v>2755.806928794324</v>
+        <v>3015.726430851098</v>
       </c>
       <c r="V20" t="n">
-        <v>2424.744041450753</v>
+        <v>2684.663543507527</v>
       </c>
       <c r="W20" t="n">
-        <v>2071.975386180638</v>
+        <v>2331.894888237412</v>
       </c>
       <c r="X20" t="n">
-        <v>1698.509627919559</v>
+        <v>1958.429129976333</v>
       </c>
       <c r="Y20" t="n">
-        <v>1308.370295943747</v>
+        <v>1958.429129976333</v>
       </c>
     </row>
     <row r="21">
@@ -5805,19 +5807,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
         <v>176.0213023927779</v>
@@ -5826,31 +5828,31 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I21" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M21" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R21" t="n">
         <v>2564.909189125856</v>
@@ -5862,7 +5864,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V21" t="n">
         <v>1779.608347199865</v>
@@ -5871,10 +5873,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2695.175226737383</v>
+        <v>2938.196848145806</v>
       </c>
       <c r="C22" t="n">
-        <v>2695.175226737383</v>
+        <v>2769.260665217899</v>
       </c>
       <c r="D22" t="n">
-        <v>2695.175226737383</v>
+        <v>2619.144025805564</v>
       </c>
       <c r="E22" t="n">
-        <v>2695.175226737383</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="F22" t="n">
-        <v>2568.556609404824</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="G22" t="n">
-        <v>2568.556609404824</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="H22" t="n">
-        <v>2568.556609404824</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="I22" t="n">
-        <v>2471.230932223169</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="J22" t="n">
-        <v>2483.053685760608</v>
+        <v>2483.05368576061</v>
       </c>
       <c r="K22" t="n">
-        <v>2581.364540028279</v>
+        <v>2581.36454002828</v>
       </c>
       <c r="L22" t="n">
-        <v>2737.074383950636</v>
+        <v>2737.074383950638</v>
       </c>
       <c r="M22" t="n">
-        <v>2904.506865249834</v>
+        <v>2904.506865249835</v>
       </c>
       <c r="N22" t="n">
-        <v>3075.815702279681</v>
+        <v>3075.815702279683</v>
       </c>
       <c r="O22" t="n">
-        <v>3213.734051497871</v>
+        <v>3213.734051497872</v>
       </c>
       <c r="P22" t="n">
-        <v>3312.685054250629</v>
+        <v>3312.685054250631</v>
       </c>
       <c r="Q22" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R22" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S22" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T22" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U22" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V22" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W22" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="X22" t="n">
-        <v>3097.616270711153</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="Y22" t="n">
-        <v>2876.823691567623</v>
+        <v>3119.845312976046</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1559.116588708439</v>
+        <v>1590.514489367197</v>
       </c>
       <c r="C23" t="n">
-        <v>1190.154071768027</v>
+        <v>1221.551972426786</v>
       </c>
       <c r="D23" t="n">
-        <v>1190.154071768027</v>
+        <v>863.2862738200351</v>
       </c>
       <c r="E23" t="n">
-        <v>1190.154071768027</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F23" t="n">
-        <v>779.1681669784198</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G23" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H23" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I23" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L23" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R23" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S23" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T23" t="n">
-        <v>3009.337405520487</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U23" t="n">
-        <v>2755.806928794324</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V23" t="n">
-        <v>2424.744041450753</v>
+        <v>3093.488074938325</v>
       </c>
       <c r="W23" t="n">
-        <v>2071.975386180638</v>
+        <v>2740.71941966821</v>
       </c>
       <c r="X23" t="n">
-        <v>1698.509627919559</v>
+        <v>2367.25366140713</v>
       </c>
       <c r="Y23" t="n">
-        <v>1559.116588708439</v>
+        <v>1977.114329431319</v>
       </c>
     </row>
     <row r="24">
@@ -6042,43 +6044,43 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C24" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D24" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E24" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F24" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G24" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I24" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J24" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K24" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L24" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N24" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O24" t="n">
         <v>2096.912393410638</v>
@@ -6099,7 +6101,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U24" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V24" t="n">
         <v>1779.608347199865</v>
@@ -6108,10 +6110,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X24" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y24" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2471.230932223169</v>
+        <v>549.3683227675136</v>
       </c>
       <c r="C25" t="n">
-        <v>2471.230932223169</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="D25" t="n">
-        <v>2471.230932223169</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="E25" t="n">
-        <v>2471.230932223169</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="F25" t="n">
-        <v>2471.230932223169</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G25" t="n">
-        <v>2471.230932223169</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H25" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I25" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J25" t="n">
-        <v>2483.053685760608</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K25" t="n">
-        <v>2581.364540028279</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L25" t="n">
-        <v>2737.074383950636</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M25" t="n">
-        <v>2904.506865249834</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N25" t="n">
-        <v>3075.815702279681</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O25" t="n">
-        <v>3213.734051497871</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P25" t="n">
-        <v>3312.685054250629</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q25" t="n">
-        <v>3325.60582160917</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R25" t="n">
-        <v>3325.60582160917</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S25" t="n">
-        <v>3133.919937435996</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T25" t="n">
-        <v>3133.919937435996</v>
+        <v>731.0167875977534</v>
       </c>
       <c r="U25" t="n">
-        <v>3133.919937435996</v>
+        <v>731.0167875977534</v>
       </c>
       <c r="V25" t="n">
-        <v>3133.919937435996</v>
+        <v>731.0167875977534</v>
       </c>
       <c r="W25" t="n">
-        <v>2844.502767399036</v>
+        <v>731.0167875977534</v>
       </c>
       <c r="X25" t="n">
-        <v>2844.502767399036</v>
+        <v>731.0167875977534</v>
       </c>
       <c r="Y25" t="n">
-        <v>2623.710188255506</v>
+        <v>731.0167875977534</v>
       </c>
     </row>
     <row r="26">
@@ -6200,31 +6202,31 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2003.254328486387</v>
+        <v>1822.632236038042</v>
       </c>
       <c r="C26" t="n">
-        <v>1976.204921733553</v>
+        <v>1453.669719097631</v>
       </c>
       <c r="D26" t="n">
-        <v>1617.939223126803</v>
+        <v>1095.40402049088</v>
       </c>
       <c r="E26" t="n">
-        <v>1232.150970528558</v>
+        <v>709.6157678926361</v>
       </c>
       <c r="F26" t="n">
-        <v>821.1650657389509</v>
+        <v>298.6298631030285</v>
       </c>
       <c r="G26" t="n">
-        <v>406.0926155839475</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H26" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I26" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K26" t="n">
         <v>589.2106210810553</v>
@@ -6233,7 +6235,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M26" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N26" t="n">
         <v>2120.555556060171</v>
@@ -6248,28 +6250,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R26" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S26" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T26" t="n">
-        <v>3119.628073993393</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U26" t="n">
-        <v>3119.628073993393</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V26" t="n">
-        <v>3119.628073993393</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W26" t="n">
-        <v>2766.859418723279</v>
+        <v>2972.837166339056</v>
       </c>
       <c r="X26" t="n">
-        <v>2393.393660462199</v>
+        <v>2599.371408077976</v>
       </c>
       <c r="Y26" t="n">
-        <v>2003.254328486387</v>
+        <v>2209.232076102164</v>
       </c>
     </row>
     <row r="27">
@@ -6279,70 +6281,70 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C27" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D27" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E27" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F27" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G27" t="n">
-        <v>176.0213023927783</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I27" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J27" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K27" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L27" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M27" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N27" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O27" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P27" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q27" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R27" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S27" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T27" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U27" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V27" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W27" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X27" t="n">
         <v>1317.519490266131</v>
@@ -6358,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>699.1203903877109</v>
+        <v>195.4511859077019</v>
       </c>
       <c r="C28" t="n">
-        <v>699.1203903877109</v>
+        <v>195.4511859077019</v>
       </c>
       <c r="D28" t="n">
-        <v>549.0037509753752</v>
+        <v>195.4511859077019</v>
       </c>
       <c r="E28" t="n">
-        <v>549.0037509753752</v>
+        <v>195.4511859077019</v>
       </c>
       <c r="F28" t="n">
-        <v>477.7578170212613</v>
+        <v>195.4511859077019</v>
       </c>
       <c r="G28" t="n">
-        <v>310.0549803959803</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H28" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I28" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J28" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K28" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L28" t="n">
         <v>332.3555681596505</v>
@@ -6412,22 +6414,22 @@
         <v>920.8870058181849</v>
       </c>
       <c r="T28" t="n">
-        <v>699.1203903877109</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U28" t="n">
-        <v>699.1203903877109</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="V28" t="n">
-        <v>699.1203903877109</v>
+        <v>377.0996507379416</v>
       </c>
       <c r="W28" t="n">
-        <v>699.1203903877109</v>
+        <v>377.0996507379416</v>
       </c>
       <c r="X28" t="n">
-        <v>699.1203903877109</v>
+        <v>377.0996507379416</v>
       </c>
       <c r="Y28" t="n">
-        <v>699.1203903877109</v>
+        <v>377.0996507379416</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1969.423143692379</v>
+        <v>1519.109083729354</v>
       </c>
       <c r="C29" t="n">
-        <v>1600.460626751967</v>
+        <v>1150.146566788942</v>
       </c>
       <c r="D29" t="n">
-        <v>1242.194928145217</v>
+        <v>791.8808681821918</v>
       </c>
       <c r="E29" t="n">
-        <v>856.4066755469726</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="F29" t="n">
-        <v>445.420770757365</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="G29" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H29" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I29" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L29" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M29" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N29" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O29" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P29" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q29" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R29" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S29" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T29" t="n">
-        <v>3119.628073993392</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U29" t="n">
-        <v>3119.628073993392</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="V29" t="n">
-        <v>3119.628073993392</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="W29" t="n">
-        <v>3119.628073993392</v>
+        <v>2388.243802269323</v>
       </c>
       <c r="X29" t="n">
-        <v>2746.162315732312</v>
+        <v>2014.778044008243</v>
       </c>
       <c r="Y29" t="n">
-        <v>2356.022983756501</v>
+        <v>1905.708923793476</v>
       </c>
     </row>
     <row r="30">
@@ -6516,37 +6518,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C30" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D30" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E30" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F30" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G30" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I30" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J30" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K30" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L30" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M30" t="n">
         <v>1212.428070438129</v>
@@ -6573,7 +6575,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U30" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V30" t="n">
         <v>1779.608347199865</v>
@@ -6582,10 +6584,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X30" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y30" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>417.6040489720652</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C31" t="n">
-        <v>417.6040489720652</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D31" t="n">
-        <v>417.6040489720652</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E31" t="n">
-        <v>417.6040489720652</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F31" t="n">
-        <v>417.6040489720652</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G31" t="n">
-        <v>310.0549803959802</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H31" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I31" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J31" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K31" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L31" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M31" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N31" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O31" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P31" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q31" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R31" t="n">
-        <v>831.0565485757129</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S31" t="n">
-        <v>639.3706644025392</v>
+        <v>838.6033255730482</v>
       </c>
       <c r="T31" t="n">
-        <v>417.6040489720652</v>
+        <v>838.6033255730482</v>
       </c>
       <c r="U31" t="n">
-        <v>417.6040489720652</v>
+        <v>838.6033255730482</v>
       </c>
       <c r="V31" t="n">
-        <v>417.6040489720652</v>
+        <v>583.9188373671614</v>
       </c>
       <c r="W31" t="n">
-        <v>417.6040489720652</v>
+        <v>294.5016673302008</v>
       </c>
       <c r="X31" t="n">
-        <v>417.6040489720652</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="Y31" t="n">
-        <v>417.6040489720652</v>
+        <v>66.51211643218343</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2196.097994299122</v>
+        <v>1594.601034732593</v>
       </c>
       <c r="C32" t="n">
-        <v>1827.13547735871</v>
+        <v>1225.638517792182</v>
       </c>
       <c r="D32" t="n">
-        <v>1468.86977875196</v>
+        <v>867.3728191854311</v>
       </c>
       <c r="E32" t="n">
-        <v>1083.081526153716</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="F32" t="n">
-        <v>672.0956213641082</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G32" t="n">
-        <v>364.0957168234162</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H32" t="n">
         <v>66.5121164321834</v>
@@ -6731,19 +6733,19 @@
         <v>3325.60582160917</v>
       </c>
       <c r="U32" t="n">
-        <v>3325.60582160917</v>
+        <v>3097.574620303721</v>
       </c>
       <c r="V32" t="n">
-        <v>3325.60582160917</v>
+        <v>3097.574620303721</v>
       </c>
       <c r="W32" t="n">
-        <v>2972.837166339056</v>
+        <v>2744.805965033606</v>
       </c>
       <c r="X32" t="n">
-        <v>2972.837166339056</v>
+        <v>2371.340206772526</v>
       </c>
       <c r="Y32" t="n">
-        <v>2582.697834363244</v>
+        <v>1981.200874796715</v>
       </c>
     </row>
     <row r="33">
@@ -6753,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C33" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D33" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E33" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F33" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G33" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I33" t="n">
         <v>66.5121164321834</v>
@@ -6780,10 +6782,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K33" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L33" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M33" t="n">
         <v>1212.428070438129</v>
@@ -6810,7 +6812,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U33" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V33" t="n">
         <v>1779.608347199865</v>
@@ -6819,10 +6821,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X33" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y33" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="34">
@@ -6832,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2785.82371634636</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="C34" t="n">
-        <v>2785.82371634636</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="D34" t="n">
-        <v>2785.82371634636</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="E34" t="n">
-        <v>2785.82371634636</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="F34" t="n">
-        <v>2638.93376884845</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="G34" t="n">
         <v>2471.230932223169</v>
@@ -6880,28 +6882,28 @@
         <v>3325.60582160917</v>
       </c>
       <c r="R34" t="n">
-        <v>3235.775364366698</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S34" t="n">
-        <v>3044.089480193524</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T34" t="n">
-        <v>3040.508204552247</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U34" t="n">
-        <v>3040.508204552247</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V34" t="n">
-        <v>2785.82371634636</v>
+        <v>3070.921333403283</v>
       </c>
       <c r="W34" t="n">
-        <v>2785.82371634636</v>
+        <v>2781.504163366323</v>
       </c>
       <c r="X34" t="n">
-        <v>2785.82371634636</v>
+        <v>2553.514612468305</v>
       </c>
       <c r="Y34" t="n">
-        <v>2785.82371634636</v>
+        <v>2471.230932223169</v>
       </c>
     </row>
     <row r="35">
@@ -6911,49 +6913,49 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2345.167438673965</v>
+        <v>1491.569348694472</v>
       </c>
       <c r="C35" t="n">
-        <v>1976.204921733553</v>
+        <v>1122.60683175406</v>
       </c>
       <c r="D35" t="n">
-        <v>1617.939223126803</v>
+        <v>764.3411331473096</v>
       </c>
       <c r="E35" t="n">
-        <v>1232.150970528558</v>
+        <v>378.5528805490654</v>
       </c>
       <c r="F35" t="n">
-        <v>821.1650657389509</v>
+        <v>378.5528805490654</v>
       </c>
       <c r="G35" t="n">
-        <v>406.0926155839475</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H35" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I35" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912079</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810543</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M35" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q35" t="n">
         <v>3266.588755052368</v>
@@ -6962,25 +6964,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S35" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T35" t="n">
-        <v>3009.337405520487</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U35" t="n">
-        <v>2755.806928794324</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V35" t="n">
-        <v>2755.806928794324</v>
+        <v>2994.542934265599</v>
       </c>
       <c r="W35" t="n">
-        <v>2755.806928794324</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="X35" t="n">
-        <v>2755.806928794324</v>
+        <v>2268.308520734405</v>
       </c>
       <c r="Y35" t="n">
-        <v>2731.767278738087</v>
+        <v>1878.169188758593</v>
       </c>
     </row>
     <row r="36">
@@ -6990,25 +6992,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I36" t="n">
         <v>66.5121164321834</v>
@@ -7047,7 +7049,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V36" t="n">
         <v>1779.608347199865</v>
@@ -7056,10 +7058,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X36" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y36" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="37">
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>610.2639694321828</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="C37" t="n">
-        <v>610.2639694321828</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="D37" t="n">
-        <v>610.2639694321828</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="E37" t="n">
-        <v>610.2639694321828</v>
+        <v>483.8710453614353</v>
       </c>
       <c r="F37" t="n">
-        <v>463.3740219342724</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G37" t="n">
-        <v>295.6711853089913</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H37" t="n">
-        <v>149.4539985268491</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I37" t="n">
         <v>66.5121164321834</v>
@@ -7117,28 +7119,28 @@
         <v>920.8870058181849</v>
       </c>
       <c r="R37" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S37" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T37" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U37" t="n">
-        <v>831.0565485757129</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="V37" t="n">
-        <v>831.0565485757129</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="W37" t="n">
-        <v>831.0565485757129</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="X37" t="n">
-        <v>831.0565485757129</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="Y37" t="n">
-        <v>610.2639694321828</v>
+        <v>631.7841389438285</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1832.276849100054</v>
+        <v>1822.632236038042</v>
       </c>
       <c r="C38" t="n">
-        <v>1463.314332159642</v>
+        <v>1453.669719097631</v>
       </c>
       <c r="D38" t="n">
-        <v>1105.048633552891</v>
+        <v>1095.40402049088</v>
       </c>
       <c r="E38" t="n">
-        <v>719.2603809546472</v>
+        <v>709.6157678926361</v>
       </c>
       <c r="F38" t="n">
-        <v>308.2744761650396</v>
+        <v>298.6298631030285</v>
       </c>
       <c r="G38" t="n">
-        <v>66.5121164321834</v>
+        <v>298.6298631030285</v>
       </c>
       <c r="H38" t="n">
         <v>66.5121164321834</v>
@@ -7175,13 +7177,13 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L38" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
         <v>2120.555556060171</v>
@@ -7190,7 +7192,7 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q38" t="n">
         <v>3266.588755052368</v>
@@ -7199,25 +7201,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S38" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T38" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U38" t="n">
-        <v>2961.784676410101</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V38" t="n">
-        <v>2961.784676410101</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W38" t="n">
-        <v>2609.016021139987</v>
+        <v>2972.837166339056</v>
       </c>
       <c r="X38" t="n">
-        <v>2609.016021139987</v>
+        <v>2599.371408077976</v>
       </c>
       <c r="Y38" t="n">
-        <v>2218.876689164175</v>
+        <v>2209.232076102164</v>
       </c>
     </row>
     <row r="39">
@@ -7254,10 +7256,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
@@ -7385,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1712.341567565137</v>
+        <v>1659.057359339774</v>
       </c>
       <c r="C41" t="n">
-        <v>1343.379050624726</v>
+        <v>1290.094842399362</v>
       </c>
       <c r="D41" t="n">
-        <v>985.1133520179753</v>
+        <v>1290.094842399362</v>
       </c>
       <c r="E41" t="n">
-        <v>599.325099419731</v>
+        <v>904.3065898011178</v>
       </c>
       <c r="F41" t="n">
-        <v>599.325099419731</v>
+        <v>493.3206850115102</v>
       </c>
       <c r="G41" t="n">
-        <v>184.2526492647275</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H41" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I41" t="n">
         <v>66.5121164321834</v>
@@ -7421,13 +7423,13 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q41" t="n">
         <v>3266.588755052368</v>
@@ -7436,25 +7438,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S41" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T41" t="n">
-        <v>3215.315153136265</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U41" t="n">
-        <v>3215.315153136265</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="V41" t="n">
-        <v>3215.315153136265</v>
+        <v>2788.565186649821</v>
       </c>
       <c r="W41" t="n">
-        <v>2862.546497866151</v>
+        <v>2435.796531379707</v>
       </c>
       <c r="X41" t="n">
-        <v>2489.080739605071</v>
+        <v>2435.796531379707</v>
       </c>
       <c r="Y41" t="n">
-        <v>2098.941407629259</v>
+        <v>2045.657199403895</v>
       </c>
     </row>
     <row r="42">
@@ -7464,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H42" t="n">
         <v>85.51940803064545</v>
@@ -7488,46 +7490,46 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K42" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M42" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N42" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O42" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q42" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R42" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S42" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T42" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U42" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V42" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W42" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X42" t="n">
         <v>1317.519490266131</v>
@@ -7549,10 +7551,10 @@
         <v>541.9536817013565</v>
       </c>
       <c r="D43" t="n">
-        <v>529.0179941377679</v>
+        <v>391.8370422890207</v>
       </c>
       <c r="E43" t="n">
-        <v>381.1049005553748</v>
+        <v>243.9239487066276</v>
       </c>
       <c r="F43" t="n">
         <v>234.2149530574644</v>
@@ -7622,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1636.597933493125</v>
+        <v>1491.569348694472</v>
       </c>
       <c r="C44" t="n">
-        <v>1267.635416552713</v>
+        <v>1122.60683175406</v>
       </c>
       <c r="D44" t="n">
-        <v>909.3697179459625</v>
+        <v>764.3411331473096</v>
       </c>
       <c r="E44" t="n">
-        <v>523.5814653477182</v>
+        <v>378.5528805490654</v>
       </c>
       <c r="F44" t="n">
-        <v>523.5814653477182</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G44" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H44" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I44" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
         <v>1573.776739001388</v>
@@ -7679,19 +7681,19 @@
         <v>3325.60582160917</v>
       </c>
       <c r="U44" t="n">
-        <v>3072.075344883006</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V44" t="n">
-        <v>2741.012457539436</v>
+        <v>2994.542934265599</v>
       </c>
       <c r="W44" t="n">
-        <v>2388.243802269321</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="X44" t="n">
-        <v>2023.197773557246</v>
+        <v>2268.308520734405</v>
       </c>
       <c r="Y44" t="n">
-        <v>2023.197773557246</v>
+        <v>1878.169188758593</v>
       </c>
     </row>
     <row r="45">
@@ -7701,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I45" t="n">
         <v>66.5121164321834</v>
@@ -7728,10 +7730,10 @@
         <v>160.1893859228006</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7758,7 +7760,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V45" t="n">
         <v>1779.608347199865</v>
@@ -7767,10 +7769,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="46">
@@ -7834,16 +7836,16 @@
         <v>3325.60582160917</v>
       </c>
       <c r="T46" t="n">
-        <v>3103.839206178696</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U46" t="n">
-        <v>2946.707999572586</v>
+        <v>3209.430232301677</v>
       </c>
       <c r="V46" t="n">
-        <v>2692.023511366699</v>
+        <v>3209.430232301677</v>
       </c>
       <c r="W46" t="n">
-        <v>2692.023511366699</v>
+        <v>2920.013062264717</v>
       </c>
       <c r="X46" t="n">
         <v>2692.023511366699</v>
@@ -22550,7 +22552,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>189.5105044445883</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -22565,7 +22567,7 @@
         <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22592,19 +22594,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.38049896054391</v>
+        <v>77.08171901666375</v>
       </c>
       <c r="S2" t="n">
         <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
-        <v>213.4438810562068</v>
+        <v>25.91829388988677</v>
       </c>
       <c r="U2" t="n">
-        <v>63.64367339871038</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V2" t="n">
-        <v>140.226671303815</v>
+        <v>140.2266713038149</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -22629,13 +22631,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>12.24904924407113</v>
       </c>
       <c r="G3" t="n">
         <v>136.1637893657753</v>
@@ -22647,7 +22649,7 @@
         <v>58.90455890409149</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>15.37922103265838</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22671,7 +22673,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.43289562846319</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>149.7702446909496</v>
@@ -22680,19 +22682,19 @@
         <v>195.4095977920012</v>
       </c>
       <c r="U3" t="n">
-        <v>38.33818124377098</v>
+        <v>38.33818124377092</v>
       </c>
       <c r="V3" t="n">
-        <v>45.27499998310532</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>64.16939599459965</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>55.97966906004135</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>18.15710861098435</v>
       </c>
     </row>
     <row r="4">
@@ -22726,7 +22728,7 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>37.06597233494195</v>
+        <v>18.95836326784812</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22744,7 +22746,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>18.10760906709383</v>
       </c>
       <c r="Q4" t="n">
         <v>68.68604055159723</v>
@@ -22793,16 +22795,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>219.3504585753915</v>
       </c>
       <c r="G5" t="n">
-        <v>413.097833230058</v>
+        <v>225.5722460637381</v>
       </c>
       <c r="H5" t="n">
-        <v>316.8938261062223</v>
+        <v>129.3682389399024</v>
       </c>
       <c r="I5" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22829,7 +22831,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>77.08171901666375</v>
+        <v>77.08171901666378</v>
       </c>
       <c r="S5" t="n">
         <v>158.7758131900531</v>
@@ -22838,16 +22840,16 @@
         <v>213.4438810562068</v>
       </c>
       <c r="U5" t="n">
-        <v>63.64367339871038</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V5" t="n">
-        <v>162.5797212940404</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>161.7153815510931</v>
+        <v>309.5397486612932</v>
       </c>
       <c r="X5" t="n">
-        <v>182.2055135121491</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -22860,31 +22862,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>144.1886387511693</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>136.1637893657753</v>
+        <v>18.32016535897563</v>
       </c>
       <c r="H6" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>58.90455890409149</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>15.37922103265838</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22908,13 +22910,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>72.43289562846319</v>
+        <v>72.4328956284632</v>
       </c>
       <c r="S6" t="n">
         <v>149.7702446909496</v>
       </c>
       <c r="T6" t="n">
-        <v>195.4095977920012</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U6" t="n">
         <v>225.8637684100909</v>
@@ -22926,10 +22928,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>18.24739803715752</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>18.15710861098441</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22954,7 +22956,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>114.7859889482797</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H7" t="n">
         <v>153.4336708318196</v>
@@ -22963,10 +22965,10 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J7" t="n">
-        <v>57.06999962825415</v>
+        <v>4.854053373819752</v>
       </c>
       <c r="K7" t="n">
-        <v>14.1043098940285</v>
+        <v>14.10430989402852</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22981,10 +22983,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>18.10760906709383</v>
+        <v>18.10760906709386</v>
       </c>
       <c r="Q7" t="n">
-        <v>68.68604055159723</v>
+        <v>68.68604055159726</v>
       </c>
       <c r="R7" t="n">
         <v>132.8223696106904</v>
@@ -23021,22 +23023,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>177.7473046046877</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>194.4047829059419</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>225.5722460637382</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -23066,28 +23068,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>77.08171901666378</v>
       </c>
       <c r="S8" t="n">
-        <v>130.8133087092504</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T8" t="n">
-        <v>208.0722578696039</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0710926941158</v>
+        <v>211.4680405089106</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>187.5594168498598</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23103,7 +23105,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>83.1608381736137</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -23145,22 +23147,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>72.4328956284632</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>112.1180892370865</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -23188,19 +23190,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>115.5698862839502</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>18.95836326784826</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23218,22 +23220,22 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>18.10760906709386</v>
       </c>
       <c r="Q10" t="n">
-        <v>22.59469128425553</v>
+        <v>68.68604055159726</v>
       </c>
       <c r="R10" t="n">
-        <v>108.0728512656386</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S10" t="n">
-        <v>197.1876907596159</v>
+        <v>206.7802557954962</v>
       </c>
       <c r="T10" t="n">
-        <v>221.3678187343026</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2350578157167</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23255,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>373.6346482223004</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23273,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23312,19 +23314,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>168.0688818921504</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23495,19 +23497,19 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>376.1013476469083</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23546,7 +23548,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>100.2471097107934</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23662,7 +23664,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.0258082590282</v>
@@ -23707,10 +23709,10 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>190.7684683149579</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -23719,7 +23721,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>16.42468816054307</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23732,13 +23734,13 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23747,10 +23749,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>115.9599211920235</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23783,22 +23785,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>271.2636035596105</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23890,25 +23892,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>126.1076155364326</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,16 +23940,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>23.54916341564135</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23966,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>196.0458257160166</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24017,13 +24019,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>148.1325452480289</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24035,7 +24037,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24127,16 +24129,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>20.06861686369774</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.0258082590282</v>
@@ -24145,7 +24147,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
@@ -24190,10 +24192,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>14.88174980530059</v>
       </c>
     </row>
     <row r="23">
@@ -24203,25 +24205,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292595</v>
@@ -24254,16 +24256,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>97.95568926599657</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24272,7 +24274,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>248.2388298370451</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24361,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>28.87751670992398</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24376,10 +24378,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>96.35242040983809</v>
@@ -24412,10 +24414,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>31.57743323794188</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
@@ -24424,13 +24426,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24440,10 +24442,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>338.4939790857018</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24455,13 +24457,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>181.1251564493168</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24494,7 +24496,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -24598,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>74.88757340835852</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>38.37612947826493</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,13 +24654,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24689,16 +24691,16 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>330.4099222588441</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24731,22 +24733,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>278.259509643434</v>
       </c>
     </row>
     <row r="30">
@@ -24850,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>59.55223036870407</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,25 +24885,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>108.3081818887565</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24926,13 +24928,13 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>106.0018201581684</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292595</v>
@@ -24971,7 +24973,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
-        <v>250.995171958902</v>
+        <v>25.24428266650699</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -24980,7 +24982,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25084,10 +25086,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
@@ -25120,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>216.003486391305</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
         <v>286.2118382056129</v>
@@ -25135,13 +25137,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>137.1238099094101</v>
       </c>
     </row>
     <row r="35">
@@ -25163,16 +25165,16 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>102.0013691777403</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25202,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>362.4386851003795</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25318,10 +25320,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>139.368951966159</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25330,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>14.23995713611906</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
         <v>189.7690253314419</v>
@@ -25366,7 +25368,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25378,7 +25380,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25403,10 +25405,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>171.5769895179258</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873205</v>
+        <v>64.8111951831838</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -25439,13 +25441,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25454,7 +25456,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25631,22 +25633,22 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>282.9890071472404</v>
       </c>
       <c r="H41" t="n">
-        <v>219.6215666560278</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,22 +25678,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25789,13 +25791,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
         <v>135.8091423302597</v>
-      </c>
-      <c r="E43" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" t="n">
-        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25874,16 +25876,16 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>97.95568926599833</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25919,7 +25921,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -25928,10 +25930,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>8.335532253514828</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26074,19 +26076,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>130.6519436655635</v>
+        <v>171.198004791195</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>424931.0936061954</v>
+        <v>424931.0936061952</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>658545.8706526515</v>
+        <v>424931.0936061951</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>839054.4922903116</v>
+        <v>839054.4922903115</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>839054.492290312</v>
+        <v>839054.4922903116</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>839054.4922903114</v>
+        <v>839054.4922903116</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>839054.4922903113</v>
+        <v>839054.4922903116</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>839054.4922903117</v>
+        <v>839054.4922903114</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>839054.4922903116</v>
+        <v>839054.4922903115</v>
       </c>
     </row>
     <row r="14">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>158307.6623238765</v>
+        <v>158307.6623238766</v>
       </c>
       <c r="C2" t="n">
         <v>158307.6623238765</v>
       </c>
       <c r="D2" t="n">
-        <v>245340.6184784386</v>
+        <v>158307.6623238766</v>
       </c>
       <c r="E2" t="n">
+        <v>312588.9285003119</v>
+      </c>
+      <c r="F2" t="n">
+        <v>312588.9285003116</v>
+      </c>
+      <c r="G2" t="n">
+        <v>312588.928500312</v>
+      </c>
+      <c r="H2" t="n">
+        <v>312588.928500312</v>
+      </c>
+      <c r="I2" t="n">
+        <v>312588.9285003118</v>
+      </c>
+      <c r="J2" t="n">
         <v>312588.9285003117</v>
       </c>
-      <c r="F2" t="n">
-        <v>312588.928500312</v>
-      </c>
-      <c r="G2" t="n">
-        <v>312588.9285003119</v>
-      </c>
-      <c r="H2" t="n">
-        <v>312588.9285003119</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
         <v>312588.9285003117</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
+        <v>312588.9285003117</v>
+      </c>
+      <c r="M2" t="n">
         <v>312588.9285003116</v>
       </c>
-      <c r="K2" t="n">
-        <v>312588.9285003119</v>
-      </c>
-      <c r="L2" t="n">
-        <v>312588.9285003119</v>
-      </c>
-      <c r="M2" t="n">
-        <v>312588.9285003119</v>
-      </c>
       <c r="N2" t="n">
+        <v>312588.9285003116</v>
+      </c>
+      <c r="O2" t="n">
+        <v>312588.9285003116</v>
+      </c>
+      <c r="P2" t="n">
         <v>312588.9285003117</v>
-      </c>
-      <c r="O2" t="n">
-        <v>312588.9285003117</v>
-      </c>
-      <c r="P2" t="n">
-        <v>312588.9285003118</v>
       </c>
     </row>
     <row r="3">
@@ -26369,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>371558.5249487659</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>276030.74576691</v>
+        <v>627134.6436336676</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,22 +26383,22 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854468</v>
+        <v>49064.94472854456</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>89743.37813127029</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>72091.35261608614</v>
+        <v>160456.4418678774</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,46 +26420,46 @@
         <v>137.8001180723341</v>
       </c>
       <c r="C4" t="n">
-        <v>137.8001180723341</v>
+        <v>137.800118072334</v>
       </c>
       <c r="D4" t="n">
-        <v>384.3219252469136</v>
+        <v>137.800118072334</v>
       </c>
       <c r="E4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="F4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="G4" t="n">
         <v>584.6469890061232</v>
       </c>
       <c r="H4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061234</v>
       </c>
       <c r="I4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="J4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="K4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="L4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="M4" t="n">
-        <v>584.646989006123</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="N4" t="n">
-        <v>584.646989006123</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="O4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="P4" t="n">
-        <v>584.646989006123</v>
+        <v>584.6469890061231</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>56985.80041161358</v>
+      </c>
+      <c r="C5" t="n">
+        <v>56985.80041161358</v>
+      </c>
+      <c r="D5" t="n">
         <v>56985.80041161357</v>
-      </c>
-      <c r="C5" t="n">
-        <v>56985.80041161357</v>
-      </c>
-      <c r="D5" t="n">
-        <v>85199.08185587224</v>
       </c>
       <c r="E5" t="n">
         <v>74306.34056139328</v>
@@ -26485,16 +26487,16 @@
         <v>74306.3405613933</v>
       </c>
       <c r="H5" t="n">
+        <v>74306.34056139331</v>
+      </c>
+      <c r="I5" t="n">
+        <v>74306.3405613933</v>
+      </c>
+      <c r="J5" t="n">
         <v>74306.34056139328</v>
       </c>
-      <c r="I5" t="n">
-        <v>74306.34056139328</v>
-      </c>
-      <c r="J5" t="n">
+      <c r="K5" t="n">
         <v>74306.3405613933</v>
-      </c>
-      <c r="K5" t="n">
-        <v>74306.34056139328</v>
       </c>
       <c r="L5" t="n">
         <v>74306.34056139328</v>
@@ -26525,43 +26527,43 @@
         <v>101184.0617941906</v>
       </c>
       <c r="D6" t="n">
-        <v>-211801.3102514464</v>
+        <v>101184.0617941907</v>
       </c>
       <c r="E6" t="n">
-        <v>-38332.80481699763</v>
+        <v>-389436.7026837551</v>
       </c>
       <c r="F6" t="n">
-        <v>237697.9409499125</v>
+        <v>237697.9409499122</v>
       </c>
       <c r="G6" t="n">
         <v>237697.9409499125</v>
       </c>
       <c r="H6" t="n">
+        <v>237697.9409499124</v>
+      </c>
+      <c r="I6" t="n">
         <v>237697.9409499125</v>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
+        <v>188632.9962213677</v>
+      </c>
+      <c r="K6" t="n">
+        <v>237697.9409499122</v>
+      </c>
+      <c r="L6" t="n">
+        <v>237697.9409499122</v>
+      </c>
+      <c r="M6" t="n">
+        <v>77241.49908203482</v>
+      </c>
+      <c r="N6" t="n">
+        <v>237697.9409499122</v>
+      </c>
+      <c r="O6" t="n">
+        <v>237697.9409499122</v>
+      </c>
+      <c r="P6" t="n">
         <v>237697.9409499123</v>
-      </c>
-      <c r="J6" t="n">
-        <v>188632.9962213675</v>
-      </c>
-      <c r="K6" t="n">
-        <v>237697.9409499125</v>
-      </c>
-      <c r="L6" t="n">
-        <v>147954.5628186422</v>
-      </c>
-      <c r="M6" t="n">
-        <v>165606.5883338263</v>
-      </c>
-      <c r="N6" t="n">
-        <v>237697.9409499123</v>
-      </c>
-      <c r="O6" t="n">
-        <v>237697.9409499123</v>
-      </c>
-      <c r="P6" t="n">
-        <v>237697.9409499124</v>
       </c>
     </row>
   </sheetData>
@@ -26738,10 +26740,10 @@
         <v>548.4699409129047</v>
       </c>
       <c r="C3" t="n">
-        <v>548.4699409129047</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="D3" t="n">
-        <v>853.7106645376841</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26753,7 +26755,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="H3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="I3" t="n">
         <v>1089.776700593298</v>
@@ -26793,28 +26795,28 @@
         <v>187.52558716632</v>
       </c>
       <c r="D4" t="n">
-        <v>542.1149567261632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="E4" t="n">
         <v>831.4014554022925</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="G4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="H4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="I4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="J4" t="n">
         <v>831.4014554022925</v>
       </c>
-      <c r="I4" t="n">
-        <v>831.4014554022925</v>
-      </c>
-      <c r="J4" t="n">
-        <v>831.4014554022928</v>
-      </c>
       <c r="K4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="L4" t="n">
         <v>831.4014554022925</v>
@@ -26963,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>305.2407236247794</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>236.0660360556142</v>
+        <v>541.3067596803937</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27015,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>354.5893695598432</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>289.2864986761293</v>
+        <v>643.8758682359727</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663202</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>354.5893695598432</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>289.2864986761293</v>
+        <v>643.8758682359727</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27261,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>354.5893695598432</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>289.2864986761293</v>
+        <v>643.8758682359727</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31279,13 +31281,13 @@
         <v>2.204904285077002</v>
       </c>
       <c r="H5" t="n">
-        <v>22.58097600954486</v>
+        <v>22.58097600954485</v>
       </c>
       <c r="I5" t="n">
-        <v>85.00457245043121</v>
+        <v>85.00457245043118</v>
       </c>
       <c r="J5" t="n">
-        <v>187.1384950655544</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K5" t="n">
         <v>280.4720934528639</v>
@@ -31297,25 +31299,25 @@
         <v>387.1618995470274</v>
       </c>
       <c r="N5" t="n">
-        <v>393.4265838470025</v>
+        <v>393.4265838470024</v>
       </c>
       <c r="O5" t="n">
         <v>371.501566862268</v>
       </c>
       <c r="P5" t="n">
-        <v>317.0679923244295</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q5" t="n">
-        <v>238.1048576151093</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R5" t="n">
-        <v>138.5038187974684</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S5" t="n">
         <v>50.24425639619223</v>
       </c>
       <c r="T5" t="n">
-        <v>9.651968507924582</v>
+        <v>9.651968507924579</v>
       </c>
       <c r="U5" t="n">
         <v>0.1763923428061601</v>
@@ -31361,7 +31363,7 @@
         <v>11.39368688575676</v>
       </c>
       <c r="I6" t="n">
-        <v>40.61782109590851</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J6" t="n">
         <v>111.4584056340083</v>
@@ -31370,16 +31372,16 @@
         <v>190.5001680621737</v>
       </c>
       <c r="L6" t="n">
-        <v>256.1509851405033</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M6" t="n">
-        <v>298.916117797533</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N6" t="n">
-        <v>306.8275379829655</v>
+        <v>306.8275379829654</v>
       </c>
       <c r="O6" t="n">
-        <v>280.6872536292674</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P6" t="n">
         <v>225.2762668628872</v>
@@ -31388,16 +31390,16 @@
         <v>150.5912184936715</v>
       </c>
       <c r="R6" t="n">
-        <v>73.24660833550077</v>
+        <v>73.24660833550075</v>
       </c>
       <c r="S6" t="n">
-        <v>21.91292641288821</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T6" t="n">
-        <v>4.75513090282037</v>
+        <v>4.755130902820369</v>
       </c>
       <c r="U6" t="n">
-        <v>0.07761367088390164</v>
+        <v>0.07761367088390163</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9890441557445822</v>
+        <v>0.9890441557445819</v>
       </c>
       <c r="H7" t="n">
-        <v>8.793501675620018</v>
+        <v>8.793501675620016</v>
       </c>
       <c r="I7" t="n">
         <v>29.74325515639162</v>
       </c>
       <c r="J7" t="n">
-        <v>69.92542181114196</v>
+        <v>69.92542181114193</v>
       </c>
       <c r="K7" t="n">
         <v>114.9089482765069</v>
@@ -31464,19 +31466,19 @@
         <v>119.6203949820538</v>
       </c>
       <c r="Q7" t="n">
-        <v>82.81896107784861</v>
+        <v>82.81896107784858</v>
       </c>
       <c r="R7" t="n">
-        <v>44.47102176647911</v>
+        <v>44.4710217664791</v>
       </c>
       <c r="S7" t="n">
         <v>17.23634224147603</v>
       </c>
       <c r="T7" t="n">
-        <v>4.225915938181395</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U7" t="n">
-        <v>0.05394786304061363</v>
+        <v>0.05394786304061362</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.432002671508275</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H8" t="n">
-        <v>35.14799735958413</v>
+        <v>22.58097600954485</v>
       </c>
       <c r="I8" t="n">
-        <v>132.3122829933229</v>
+        <v>85.00457245043118</v>
       </c>
       <c r="J8" t="n">
-        <v>291.2869367409257</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K8" t="n">
-        <v>436.5636098258711</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L8" t="n">
-        <v>541.5957615840426</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M8" t="n">
-        <v>602.6296390934779</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N8" t="n">
-        <v>612.3808166839008</v>
+        <v>393.4265838470024</v>
       </c>
       <c r="O8" t="n">
-        <v>578.2538401190903</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P8" t="n">
-        <v>493.5262741662298</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q8" t="n">
-        <v>370.6176784928395</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R8" t="n">
-        <v>215.5855378141319</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S8" t="n">
-        <v>78.20676087699491</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T8" t="n">
-        <v>15.02359169452748</v>
+        <v>9.651968507924579</v>
       </c>
       <c r="U8" t="n">
-        <v>0.274560213720662</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.836283316175396</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H9" t="n">
-        <v>17.73463097464133</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I9" t="n">
-        <v>63.22291242095115</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J9" t="n">
-        <v>173.4885040076062</v>
+        <v>111.4584056340083</v>
       </c>
       <c r="K9" t="n">
-        <v>296.5194861913577</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L9" t="n">
-        <v>398.7070419616798</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M9" t="n">
-        <v>465.2723121730378</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N9" t="n">
-        <v>477.5866858152843</v>
+        <v>306.8275379829654</v>
       </c>
       <c r="O9" t="n">
-        <v>436.8985133884505</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P9" t="n">
-        <v>350.6495746475632</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q9" t="n">
-        <v>234.3999545349506</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R9" t="n">
-        <v>114.0106430867496</v>
+        <v>73.24660833550075</v>
       </c>
       <c r="S9" t="n">
-        <v>34.10815721053859</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T9" t="n">
-        <v>7.401510384057843</v>
+        <v>4.755130902820369</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1208081129062761</v>
+        <v>0.07761367088390163</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.539478247526971</v>
+        <v>0.9890441557445819</v>
       </c>
       <c r="H10" t="n">
-        <v>13.68736114619435</v>
+        <v>8.793501675620016</v>
       </c>
       <c r="I10" t="n">
-        <v>46.29630948017475</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J10" t="n">
-        <v>108.8411121001569</v>
+        <v>69.92542181114193</v>
       </c>
       <c r="K10" t="n">
-        <v>178.8593818490426</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L10" t="n">
-        <v>228.8784296368736</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M10" t="n">
-        <v>241.3202129282506</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N10" t="n">
-        <v>235.5821576420139</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O10" t="n">
-        <v>217.5982526595396</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P10" t="n">
-        <v>186.1928964099892</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q10" t="n">
-        <v>128.9103103451903</v>
+        <v>82.81896107784858</v>
       </c>
       <c r="R10" t="n">
-        <v>69.22054011153089</v>
+        <v>44.4710217664791</v>
       </c>
       <c r="S10" t="n">
-        <v>26.82890727735639</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T10" t="n">
-        <v>6.577770693978875</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08397154077419852</v>
+        <v>0.05394786304061362</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32020,7 +32022,7 @@
         <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563574</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
         <v>99.83230779806951</v>
@@ -32245,7 +32247,7 @@
         <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095029</v>
       </c>
       <c r="O17" t="n">
         <v>738.1512123099059</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H20" t="n">
         <v>44.86703772844668</v>
@@ -32470,40 +32472,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T20" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H21" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q21" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32622,43 +32624,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L22" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P22" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q22" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U22" t="n">
         <v>0.1071911508780295</v>
@@ -32807,7 +32809,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -33026,7 +33028,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L27" t="n">
         <v>508.9565619138796</v>
@@ -33266,7 +33268,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M30" t="n">
         <v>593.9283018233475</v>
@@ -33500,7 +33502,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L33" t="n">
         <v>508.9565619138796</v>
@@ -33655,7 +33657,7 @@
         <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
-        <v>371.8329054953979</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
         <v>557.281137600381</v>
@@ -33755,7 +33757,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -33910,7 +33912,7 @@
         <v>738.1512123099059</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746405</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q38" t="n">
         <v>473.099994678169</v>
@@ -33974,7 +33976,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L39" t="n">
         <v>508.9565619138796</v>
@@ -34372,7 +34374,7 @@
         <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623184</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
         <v>769.2673490574995</v>
@@ -34445,7 +34447,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>6.09259053886808</v>
+        <v>6.092590538868052</v>
       </c>
       <c r="K5" t="n">
-        <v>60.38224240788338</v>
+        <v>60.38224240788333</v>
       </c>
       <c r="L5" t="n">
-        <v>112.1840179973021</v>
+        <v>112.184017997302</v>
       </c>
       <c r="M5" t="n">
-        <v>156.8156663197547</v>
+        <v>156.8156663197546</v>
       </c>
       <c r="N5" t="n">
-        <v>164.0135202504116</v>
+        <v>164.0135202504115</v>
       </c>
       <c r="O5" t="n">
-        <v>141.4033554405813</v>
+        <v>141.4033554405812</v>
       </c>
       <c r="P5" t="n">
-        <v>85.83499656915996</v>
+        <v>85.8349965691599</v>
       </c>
       <c r="Q5" t="n">
-        <v>15.79916774065978</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>52.65872908781472</v>
+        <v>52.65872908781469</v>
       </c>
       <c r="L6" t="n">
-        <v>117.5966053606291</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M6" t="n">
-        <v>156.7820838755147</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N6" t="n">
         <v>175.4858258996321</v>
       </c>
       <c r="O6" t="n">
-        <v>138.091009184823</v>
+        <v>138.0910091848229</v>
       </c>
       <c r="P6" t="n">
-        <v>91.301859448557</v>
+        <v>91.30185944855694</v>
       </c>
       <c r="Q6" t="n">
-        <v>10.60944440764999</v>
+        <v>10.60944440764996</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35097,16 +35099,16 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>12.1592157464608</v>
+        <v>12.15921574646077</v>
       </c>
       <c r="M7" t="n">
-        <v>16.11138312061155</v>
+        <v>16.11138312061152</v>
       </c>
       <c r="N7" t="n">
-        <v>23.66518529520829</v>
+        <v>23.66518529520826</v>
       </c>
       <c r="O7" t="n">
-        <v>1.340357307400552</v>
+        <v>1.340357307400524</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -35170,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>110.2410322142395</v>
+        <v>6.092590538868052</v>
       </c>
       <c r="K8" t="n">
-        <v>216.4737587808906</v>
+        <v>60.38224240788333</v>
       </c>
       <c r="L8" t="n">
-        <v>305.8293466140554</v>
+        <v>112.184017997302</v>
       </c>
       <c r="M8" t="n">
-        <v>372.2834058662052</v>
+        <v>156.8156663197546</v>
       </c>
       <c r="N8" t="n">
-        <v>382.9677530873099</v>
+        <v>164.0135202504115</v>
       </c>
       <c r="O8" t="n">
-        <v>348.1556286974036</v>
+        <v>141.4033554405812</v>
       </c>
       <c r="P8" t="n">
-        <v>262.2932784109602</v>
+        <v>85.8349965691599</v>
       </c>
       <c r="Q8" t="n">
-        <v>148.31198861839</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>46.6508773409395</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>158.6780472169987</v>
+        <v>52.65872908781469</v>
       </c>
       <c r="L9" t="n">
-        <v>260.1526621818056</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M9" t="n">
-        <v>323.1382782510195</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N9" t="n">
-        <v>346.2449737319509</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O9" t="n">
-        <v>294.302268944006</v>
+        <v>138.0910091848229</v>
       </c>
       <c r="P9" t="n">
-        <v>216.6751672332329</v>
+        <v>91.30185944855694</v>
       </c>
       <c r="Q9" t="n">
-        <v>94.41818044892906</v>
+        <v>10.60944440764996</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>49.84612367850724</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>93.99375335563528</v>
+        <v>12.15921574646077</v>
       </c>
       <c r="M10" t="n">
-        <v>102.3944289806455</v>
+        <v>16.11138312061152</v>
       </c>
       <c r="N10" t="n">
-        <v>107.8966131767807</v>
+        <v>23.66518529520826</v>
       </c>
       <c r="O10" t="n">
-        <v>79.14171420769682</v>
+        <v>1.340357307400524</v>
       </c>
       <c r="P10" t="n">
-        <v>48.46489236084162</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35668,7 +35670,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222526</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35893,7 +35895,7 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129119</v>
       </c>
       <c r="O17" t="n">
         <v>508.0530008882191</v>
@@ -36118,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N20" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q21" t="n">
         <v>159.2338966127272</v>
@@ -36276,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K22" t="n">
-        <v>99.30389319966704</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L22" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M22" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N22" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O22" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P22" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q22" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36455,7 +36457,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36674,7 +36676,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L27" t="n">
         <v>370.4021821340054</v>
@@ -36914,7 +36916,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M30" t="n">
         <v>451.7942679013292</v>
@@ -37148,7 +37150,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L33" t="n">
         <v>370.4021821340054</v>
@@ -37303,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687116</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
         <v>337.1912865554005</v>
@@ -37403,7 +37405,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37558,7 +37560,7 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
-        <v>398.761986219371</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
         <v>250.7943048037195</v>
@@ -37622,7 +37624,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L39" t="n">
         <v>370.4021821340054</v>
@@ -38020,7 +38022,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923311</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
         <v>538.9211158302268</v>
@@ -38093,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597693</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_22_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_22_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>572993.6190112256</v>
+        <v>515726.662165859</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8547013.059513934</v>
+        <v>8088944.869226762</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8506890.903312845</v>
+        <v>8722880.896883905</v>
       </c>
     </row>
     <row r="11">
@@ -664,19 +664,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>165.1725371760946</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>165.1725371760945</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -712,13 +712,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -743,13 +743,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>132.8201631493127</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.43289562846319</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -794,19 +794,19 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>187.52558716632</v>
+        <v>165.1725371760945</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="Y3" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -840,10 +840,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>38.11163636040603</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>14.1043098940285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>52.21594625443444</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -901,22 +901,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="F5" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>39.70122005611984</v>
+        <v>165.1725371760945</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
     </row>
     <row r="6">
@@ -977,25 +977,25 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>34.92041296071492</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>117.8436240067997</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>58.90455890409149</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1034,7 +1034,7 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1043,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
     </row>
     <row r="7">
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>52.21594625443444</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>52.21594625443443</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1135,25 +1135,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>187.5255871663199</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>187.5255871663199</v>
+        <v>98.44199958506118</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>187.5255871663199</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I8" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>39.70122005611973</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1226,16 +1226,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>58.90455890409149</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>15.37922103265839</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1262,25 +1262,25 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>88.37993586869587</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U9" t="n">
-        <v>113.7456791730044</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1314,10 +1314,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>38.11163636040592</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>14.10430989402852</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>185.62795066089</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>9.099193441180152</v>
+        <v>24.14763241892771</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1390,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1435,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1466,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247723</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,13 +1496,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
       </c>
       <c r="T12" t="n">
-        <v>190.7165703189231</v>
+        <v>190.7165703189221</v>
       </c>
       <c r="U12" t="n">
         <v>225.7871683969286</v>
@@ -1533,13 +1533,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>146.8428862394539</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.0258082590282</v>
@@ -1548,7 +1548,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1587,16 +1587,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>90.75600857766013</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1606,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>133.4571451339276</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>103.6708604288267</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1669,7 +1669,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1703,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1770,19 +1770,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>118.8376584678373</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>61.36917500887013</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1849,7 +1849,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1858,13 +1858,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534534</v>
+        <v>404.2077653926914</v>
       </c>
       <c r="H17" t="n">
-        <v>178.647843195297</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,19 +1894,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1934,16 +1934,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933836</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2004,25 +2004,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>19.31343248649866</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2055,22 +2055,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>108.7175251574343</v>
       </c>
     </row>
     <row r="20">
@@ -2086,7 +2086,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2095,13 +2095,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U20" t="n">
-        <v>102.8626267108731</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>183.1642512458438</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2177,10 +2177,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T21" t="n">
         <v>190.7165703189231</v>
@@ -2244,13 +2244,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>127.6216357996075</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2304,10 +2304,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>203.7029035467942</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2332,13 +2332,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
-        <v>229.7965692041383</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>240.7199646803063</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2475,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2529,13 +2529,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>187.9715160382273</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>72.08802744677259</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2563,16 +2563,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>229.7965692041367</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>174.2568275134125</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2608,16 +2608,16 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2715,19 +2715,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>127.6496787807633</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2769,10 +2769,10 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2781,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>37.67709528776653</v>
       </c>
     </row>
     <row r="29">
@@ -2806,10 +2806,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292595</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
-        <v>250.995171958902</v>
+        <v>240.7993282701416</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>107.9784290126196</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2955,16 +2955,16 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>81.46084344268542</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3012,13 +3012,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>132.6182532445037</v>
       </c>
     </row>
     <row r="32">
@@ -3043,10 +3043,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3082,10 +3082,10 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>91.06967859962555</v>
       </c>
       <c r="U32" t="n">
-        <v>225.750889292395</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3195,13 +3195,13 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>15.96207421581205</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3240,22 +3240,22 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>81.46084344268475</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3265,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>5.247097505315403</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>308.9203564757131</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,19 +3316,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3435,16 +3435,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>6.052096056772291</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3480,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3489,7 +3489,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>40.87152028304765</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3520,7 +3520,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>229.7965692041367</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>277.3402843603905</v>
       </c>
     </row>
     <row r="39">
@@ -3660,16 +3660,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3711,16 +3711,16 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>184.3755225607021</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3729,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>203.7029035467948</v>
       </c>
     </row>
     <row r="41">
@@ -3745,7 +3745,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3754,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>127.9327185062131</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>294.6077643873205</v>
@@ -3793,13 +3793,13 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>53.92473353638316</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3906,10 +3906,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>9.611905692671511</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>166.0258082590282</v>
@@ -3945,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>25.42907173311878</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3976,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>301.2402584038907</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>308.9203564757131</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4033,7 +4033,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4137,10 +4137,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>14.74106137621244</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4188,16 +4188,16 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>115.0138334144179</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>181.8429936158254</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="C2" t="n">
-        <v>181.8429936158254</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="D2" t="n">
-        <v>15.0020469733056</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="E2" t="n">
-        <v>15.0020469733056</v>
+        <v>583.2614020227597</v>
       </c>
       <c r="F2" t="n">
-        <v>15.0020469733056</v>
+        <v>393.841617006275</v>
       </c>
       <c r="G2" t="n">
-        <v>15.0020469733056</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="H2" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I2" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J2" t="n">
         <v>21.03371160678478</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058944</v>
+        <v>80.81213159058939</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079185</v>
+        <v>191.8743094079184</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644755</v>
+        <v>347.1218190644753</v>
       </c>
       <c r="N2" t="n">
-        <v>509.495204112383</v>
+        <v>509.4952041123826</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985585</v>
+        <v>649.4845259985582</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020269</v>
+        <v>734.4611726020263</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R2" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="S2" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="T2" t="n">
-        <v>560.6825636487952</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="U2" t="n">
-        <v>560.6825636487952</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="V2" t="n">
-        <v>371.2627786323103</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="W2" t="n">
-        <v>371.2627786323103</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="X2" t="n">
-        <v>371.2627786323103</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="Y2" t="n">
-        <v>181.8429936158254</v>
+        <v>750.1023486652795</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>298.0982375934586</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C3" t="n">
-        <v>298.0982375934586</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D3" t="n">
-        <v>149.1638279322074</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E3" t="n">
-        <v>149.1638279322074</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K3" t="n">
         <v>67.13418877024208</v>
       </c>
       <c r="L3" t="n">
-        <v>183.554828077265</v>
+        <v>183.5548280772649</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140245</v>
+        <v>338.7690911140243</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546604</v>
+        <v>512.50005875466</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476352</v>
+        <v>649.2101578476347</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017066</v>
+        <v>739.598998701706</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R3" t="n">
-        <v>676.9378076264284</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="S3" t="n">
-        <v>676.9378076264284</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="T3" t="n">
-        <v>676.9378076264284</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="U3" t="n">
-        <v>487.5180226099435</v>
+        <v>583.2614020227597</v>
       </c>
       <c r="V3" t="n">
-        <v>487.5180226099435</v>
+        <v>393.841617006275</v>
       </c>
       <c r="W3" t="n">
-        <v>487.5180226099435</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="X3" t="n">
-        <v>487.5180226099435</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="Y3" t="n">
-        <v>298.0982375934586</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>67.74542702828998</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C4" t="n">
-        <v>67.74542702828998</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D4" t="n">
-        <v>67.74542702828998</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E4" t="n">
-        <v>67.74542702828998</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F4" t="n">
-        <v>67.74542702828998</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G4" t="n">
-        <v>67.74542702828998</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H4" t="n">
-        <v>67.74542702828998</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I4" t="n">
-        <v>67.74542702828998</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J4" t="n">
-        <v>29.24882464404146</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230179</v>
+        <v>27.03967056230175</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170723</v>
+        <v>42.98993985170716</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396343</v>
+        <v>66.41847329396334</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="P4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="R4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="S4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="T4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="U4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="V4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="W4" t="n">
-        <v>67.74542702828998</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="X4" t="n">
-        <v>67.74542702828998</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="Y4" t="n">
-        <v>67.74542702828998</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>710.0001061843507</v>
+        <v>393.841617006275</v>
       </c>
       <c r="C5" t="n">
-        <v>710.0001061843507</v>
+        <v>393.841617006275</v>
       </c>
       <c r="D5" t="n">
-        <v>710.0001061843507</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="E5" t="n">
-        <v>710.0001061843507</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F5" t="n">
-        <v>520.5803211678658</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G5" t="n">
-        <v>331.1605361513811</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H5" t="n">
-        <v>141.7407511348962</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I5" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J5" t="n">
-        <v>21.03371160678535</v>
+        <v>21.03371160678489</v>
       </c>
       <c r="K5" t="n">
-        <v>80.81213159058996</v>
+        <v>80.81213159058939</v>
       </c>
       <c r="L5" t="n">
-        <v>191.8743094079189</v>
+        <v>191.8743094079184</v>
       </c>
       <c r="M5" t="n">
-        <v>347.1218190644756</v>
+        <v>347.1218190644754</v>
       </c>
       <c r="N5" t="n">
-        <v>509.495204112383</v>
+        <v>509.4952041123828</v>
       </c>
       <c r="O5" t="n">
-        <v>649.4845259985584</v>
+        <v>649.4845259985582</v>
       </c>
       <c r="P5" t="n">
-        <v>734.4611726020266</v>
+        <v>734.4611726020263</v>
       </c>
       <c r="Q5" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R5" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="S5" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="T5" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="U5" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="V5" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="W5" t="n">
-        <v>710.0001061843507</v>
+        <v>583.2614020227597</v>
       </c>
       <c r="X5" t="n">
-        <v>710.0001061843507</v>
+        <v>583.2614020227597</v>
       </c>
       <c r="Y5" t="n">
-        <v>710.0001061843507</v>
+        <v>393.841617006275</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>750.1023486652798</v>
+        <v>371.2627786323102</v>
       </c>
       <c r="C6" t="n">
-        <v>750.1023486652798</v>
+        <v>196.8097493511832</v>
       </c>
       <c r="D6" t="n">
-        <v>601.1679390040285</v>
+        <v>196.8097493511832</v>
       </c>
       <c r="E6" t="n">
-        <v>441.930483998573</v>
+        <v>161.5366049464206</v>
       </c>
       <c r="F6" t="n">
-        <v>295.395926025458</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G6" t="n">
-        <v>176.361962382226</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H6" t="n">
-        <v>74.50160142188287</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I6" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J6" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K6" t="n">
-        <v>67.13418877024219</v>
+        <v>67.13418877024213</v>
       </c>
       <c r="L6" t="n">
-        <v>183.5548280772651</v>
+        <v>183.5548280772649</v>
       </c>
       <c r="M6" t="n">
-        <v>338.7690911140246</v>
+        <v>338.7690911140244</v>
       </c>
       <c r="N6" t="n">
-        <v>512.5000587546604</v>
+        <v>512.5000587546601</v>
       </c>
       <c r="O6" t="n">
-        <v>649.2101578476349</v>
+        <v>649.2101578476348</v>
       </c>
       <c r="P6" t="n">
-        <v>739.5989987017064</v>
+        <v>739.5989987017063</v>
       </c>
       <c r="Q6" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="R6" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="S6" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="T6" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="U6" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="V6" t="n">
-        <v>750.1023486652798</v>
+        <v>560.6825636487949</v>
       </c>
       <c r="W6" t="n">
-        <v>750.1023486652798</v>
+        <v>560.6825636487949</v>
       </c>
       <c r="X6" t="n">
-        <v>750.1023486652798</v>
+        <v>560.6825636487949</v>
       </c>
       <c r="Y6" t="n">
-        <v>750.1023486652798</v>
+        <v>371.2627786323102</v>
       </c>
     </row>
     <row r="7">
@@ -4710,28 +4710,28 @@
         <v>67.74542702828987</v>
       </c>
       <c r="E7" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F7" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G7" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H7" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I7" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J7" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K7" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="L7" t="n">
-        <v>27.03967056230176</v>
+        <v>27.03967056230175</v>
       </c>
       <c r="M7" t="n">
         <v>42.98993985170716</v>
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>710.0001061843504</v>
+        <v>1646.185839666972</v>
       </c>
       <c r="C8" t="n">
-        <v>520.5803211678657</v>
+        <v>1277.22332272656</v>
       </c>
       <c r="D8" t="n">
-        <v>520.5803211678657</v>
+        <v>1277.22332272656</v>
       </c>
       <c r="E8" t="n">
-        <v>331.1605361513809</v>
+        <v>1177.786959509327</v>
       </c>
       <c r="F8" t="n">
-        <v>331.1605361513809</v>
+        <v>766.8010547197192</v>
       </c>
       <c r="G8" t="n">
-        <v>141.7407511348962</v>
+        <v>350.7700094231265</v>
       </c>
       <c r="H8" t="n">
-        <v>141.7407511348962</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I8" t="n">
-        <v>15.00204697330559</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J8" t="n">
-        <v>21.03371160678495</v>
+        <v>152.50781843019</v>
       </c>
       <c r="K8" t="n">
-        <v>80.81213159058944</v>
+        <v>366.8168396232717</v>
       </c>
       <c r="L8" t="n">
-        <v>191.8743094079183</v>
+        <v>669.5878927711866</v>
       </c>
       <c r="M8" t="n">
-        <v>347.1218190644753</v>
+        <v>1038.14846457873</v>
       </c>
       <c r="N8" t="n">
-        <v>509.4952041123826</v>
+        <v>1417.286540135166</v>
       </c>
       <c r="O8" t="n">
-        <v>649.4845259985582</v>
+        <v>1761.960612545596</v>
       </c>
       <c r="P8" t="n">
-        <v>734.4611726020263</v>
+        <v>2021.630958172447</v>
       </c>
       <c r="Q8" t="n">
-        <v>750.1023486652795</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="R8" t="n">
-        <v>750.1023486652795</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="S8" t="n">
-        <v>750.1023486652795</v>
+        <v>2036.325171642784</v>
       </c>
       <c r="T8" t="n">
-        <v>750.1023486652795</v>
+        <v>2036.325171642784</v>
       </c>
       <c r="U8" t="n">
-        <v>710.0001061843504</v>
+        <v>2036.325171642784</v>
       </c>
       <c r="V8" t="n">
-        <v>710.0001061843504</v>
+        <v>2036.325171642784</v>
       </c>
       <c r="W8" t="n">
-        <v>710.0001061843504</v>
+        <v>2036.325171642784</v>
       </c>
       <c r="X8" t="n">
-        <v>710.0001061843504</v>
+        <v>2036.325171642784</v>
       </c>
       <c r="Y8" t="n">
-        <v>710.0001061843504</v>
+        <v>1646.185839666972</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>635.2077232380022</v>
+        <v>349.1412095166636</v>
       </c>
       <c r="C9" t="n">
-        <v>635.2077232380022</v>
+        <v>349.1412095166636</v>
       </c>
       <c r="D9" t="n">
-        <v>635.2077232380022</v>
+        <v>349.1412095166636</v>
       </c>
       <c r="E9" t="n">
-        <v>475.9702682325468</v>
+        <v>189.9037545112081</v>
       </c>
       <c r="F9" t="n">
-        <v>329.4357102594318</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G9" t="n">
-        <v>191.8965290818809</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H9" t="n">
-        <v>90.0361681215378</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I9" t="n">
-        <v>30.53661367296053</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J9" t="n">
-        <v>15.00204697330559</v>
+        <v>89.55356510562316</v>
       </c>
       <c r="K9" t="n">
-        <v>67.13418877024208</v>
+        <v>246.6448318504519</v>
       </c>
       <c r="L9" t="n">
-        <v>183.5548280772649</v>
+        <v>504.1959674104395</v>
       </c>
       <c r="M9" t="n">
-        <v>338.7690911140244</v>
+        <v>824.1028628789488</v>
       </c>
       <c r="N9" t="n">
-        <v>512.5000587546598</v>
+        <v>1166.88538687358</v>
       </c>
       <c r="O9" t="n">
-        <v>649.2101578476347</v>
+        <v>1458.244633128146</v>
       </c>
       <c r="P9" t="n">
-        <v>739.598998701706</v>
+        <v>1672.753048689047</v>
       </c>
       <c r="Q9" t="n">
-        <v>750.1023486652795</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="R9" t="n">
-        <v>750.1023486652795</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="S9" t="n">
-        <v>750.1023486652795</v>
+        <v>1676.954384839854</v>
       </c>
       <c r="T9" t="n">
-        <v>750.1023486652795</v>
+        <v>1482.24406331383</v>
       </c>
       <c r="U9" t="n">
-        <v>635.2077232380022</v>
+        <v>1254.142473447095</v>
       </c>
       <c r="V9" t="n">
-        <v>635.2077232380022</v>
+        <v>1018.990365215352</v>
       </c>
       <c r="W9" t="n">
-        <v>635.2077232380022</v>
+        <v>764.7530084871503</v>
       </c>
       <c r="X9" t="n">
-        <v>635.2077232380022</v>
+        <v>556.9015082816175</v>
       </c>
       <c r="Y9" t="n">
-        <v>635.2077232380022</v>
+        <v>349.1412095166636</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>67.74542702828987</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="C10" t="n">
-        <v>67.74542702828987</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="D10" t="n">
-        <v>67.74542702828987</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="E10" t="n">
-        <v>67.74542702828987</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="F10" t="n">
-        <v>67.74542702828987</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G10" t="n">
-        <v>67.74542702828987</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H10" t="n">
-        <v>67.74542702828987</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I10" t="n">
-        <v>67.74542702828987</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J10" t="n">
-        <v>29.24882464404147</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="K10" t="n">
-        <v>15.00204697330559</v>
+        <v>92.71685897981521</v>
       </c>
       <c r="L10" t="n">
-        <v>27.03967056230175</v>
+        <v>185.7706748018941</v>
       </c>
       <c r="M10" t="n">
-        <v>42.98993985170716</v>
+        <v>287.1411594927332</v>
       </c>
       <c r="N10" t="n">
-        <v>66.41847329396334</v>
+        <v>393.9588065377461</v>
       </c>
       <c r="O10" t="n">
-        <v>67.74542702828987</v>
+        <v>472.3091036033659</v>
       </c>
       <c r="P10" t="n">
-        <v>67.74542702828987</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="Q10" t="n">
-        <v>67.74542702828987</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="R10" t="n">
-        <v>67.74542702828987</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="S10" t="n">
-        <v>67.74542702828987</v>
+        <v>332.7863665750536</v>
       </c>
       <c r="T10" t="n">
-        <v>67.74542702828987</v>
+        <v>332.7863665750536</v>
       </c>
       <c r="U10" t="n">
-        <v>67.74542702828987</v>
+        <v>332.7863665750536</v>
       </c>
       <c r="V10" t="n">
-        <v>67.74542702828987</v>
+        <v>332.7863665750536</v>
       </c>
       <c r="W10" t="n">
-        <v>67.74542702828987</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="X10" t="n">
-        <v>67.74542702828987</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="Y10" t="n">
-        <v>67.74542702828987</v>
+        <v>43.36919653809306</v>
       </c>
     </row>
     <row r="11">
@@ -5017,43 +5017,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2005.586939522201</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C11" t="n">
-        <v>1636.624422581789</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D11" t="n">
-        <v>1278.358723975039</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E11" t="n">
-        <v>892.5704713767946</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F11" t="n">
-        <v>481.5845665871869</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G11" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H11" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
         <v>2623.528026939508</v>
@@ -5065,28 +5065,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T11" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U11" t="n">
-        <v>3072.075344883006</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V11" t="n">
-        <v>2741.012457539436</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W11" t="n">
-        <v>2388.243802269321</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X11" t="n">
-        <v>2014.778044008242</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="Y11" t="n">
-        <v>2014.778044008242</v>
+        <v>2071.975386180639</v>
       </c>
     </row>
     <row r="12">
@@ -5096,37 +5096,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927777</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I12" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5138,22 +5138,22 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T12" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
         <v>1779.608347199865</v>
@@ -5162,10 +5162,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>920.8870058181849</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="C13" t="n">
-        <v>920.8870058181849</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="D13" t="n">
-        <v>772.5608581015648</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="E13" t="n">
-        <v>624.6477645191717</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="F13" t="n">
-        <v>477.7578170212613</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G13" t="n">
-        <v>310.0549803959802</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H13" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I13" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K13" t="n">
         <v>176.6457242372932</v>
       </c>
       <c r="L13" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M13" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N13" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O13" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P13" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q13" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R13" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S13" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T13" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U13" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V13" t="n">
-        <v>920.8870058181849</v>
+        <v>829.2142698811541</v>
       </c>
       <c r="W13" t="n">
-        <v>920.8870058181849</v>
+        <v>829.2142698811541</v>
       </c>
       <c r="X13" t="n">
-        <v>920.8870058181849</v>
+        <v>601.2247189831368</v>
       </c>
       <c r="Y13" t="n">
-        <v>920.8870058181849</v>
+        <v>380.4321398396066</v>
       </c>
     </row>
     <row r="14">
@@ -5254,31 +5254,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1133.32083113111</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="C14" t="n">
-        <v>764.3583141906979</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D14" t="n">
-        <v>406.0926155839475</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E14" t="n">
-        <v>406.0926155839475</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F14" t="n">
-        <v>406.0926155839475</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G14" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H14" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I14" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K14" t="n">
         <v>589.2106210810553</v>
@@ -5290,7 +5290,7 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O14" t="n">
         <v>2623.528026939508</v>
@@ -5308,22 +5308,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T14" t="n">
-        <v>3220.887780771972</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U14" t="n">
-        <v>2967.357304045808</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V14" t="n">
-        <v>2636.294416702237</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W14" t="n">
-        <v>2283.525761432123</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="X14" t="n">
-        <v>1910.060003171043</v>
+        <v>2161.568951662578</v>
       </c>
       <c r="Y14" t="n">
-        <v>1519.920671195231</v>
+        <v>1771.429619686767</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I15" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158141</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M15" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="16">
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>66.51211643218342</v>
+        <v>631.469835781224</v>
       </c>
       <c r="C16" t="n">
-        <v>66.51211643218342</v>
+        <v>631.469835781224</v>
       </c>
       <c r="D16" t="n">
-        <v>66.51211643218342</v>
+        <v>481.3531963688882</v>
       </c>
       <c r="E16" t="n">
-        <v>66.51211643218342</v>
+        <v>333.4401027864951</v>
       </c>
       <c r="F16" t="n">
-        <v>66.51211643218342</v>
+        <v>186.5501552885848</v>
       </c>
       <c r="G16" t="n">
-        <v>66.51211643218342</v>
+        <v>186.5501552885848</v>
       </c>
       <c r="H16" t="n">
         <v>66.51211643218342</v>
@@ -5436,52 +5436,52 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K16" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L16" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M16" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N16" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O16" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P16" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q16" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R16" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S16" t="n">
-        <v>639.3706644025392</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T16" t="n">
-        <v>417.6040489720652</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U16" t="n">
-        <v>128.5011820977088</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V16" t="n">
-        <v>66.51211643218342</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="W16" t="n">
-        <v>66.51211643218342</v>
+        <v>631.469835781224</v>
       </c>
       <c r="X16" t="n">
-        <v>66.51211643218342</v>
+        <v>631.469835781224</v>
       </c>
       <c r="Y16" t="n">
-        <v>66.51211643218342</v>
+        <v>631.469835781224</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1458.811090838975</v>
+        <v>1969.423143692379</v>
       </c>
       <c r="C17" t="n">
-        <v>1458.811090838975</v>
+        <v>1969.423143692379</v>
       </c>
       <c r="D17" t="n">
-        <v>1458.811090838975</v>
+        <v>1611.157445085629</v>
       </c>
       <c r="E17" t="n">
-        <v>1073.022838240731</v>
+        <v>1225.369192487385</v>
       </c>
       <c r="F17" t="n">
-        <v>662.0369334511233</v>
+        <v>814.3832876977772</v>
       </c>
       <c r="G17" t="n">
-        <v>246.9644832961198</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O17" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T17" t="n">
-        <v>3215.315153136266</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U17" t="n">
-        <v>2961.784676410103</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="V17" t="n">
-        <v>2961.784676410103</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="W17" t="n">
-        <v>2609.016021139988</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="X17" t="n">
-        <v>2235.550262878909</v>
+        <v>2746.162315732313</v>
       </c>
       <c r="Y17" t="n">
-        <v>1845.410930903097</v>
+        <v>2356.022983756501</v>
       </c>
     </row>
     <row r="18">
@@ -5570,16 +5570,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F18" t="n">
         <v>312.3844025601599</v>
@@ -5591,16 +5591,16 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5627,7 +5627,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V18" t="n">
         <v>1779.608347199865</v>
@@ -5636,10 +5636,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>666.2025176122982</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="C19" t="n">
-        <v>497.2663346843913</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="D19" t="n">
-        <v>497.2663346843913</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E19" t="n">
-        <v>497.2663346843913</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F19" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G19" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H19" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K19" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L19" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M19" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N19" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O19" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P19" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q19" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R19" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S19" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T19" t="n">
-        <v>920.887005818185</v>
+        <v>699.1203903877106</v>
       </c>
       <c r="U19" t="n">
-        <v>920.887005818185</v>
+        <v>699.1203903877106</v>
       </c>
       <c r="V19" t="n">
-        <v>666.2025176122982</v>
+        <v>699.1203903877106</v>
       </c>
       <c r="W19" t="n">
-        <v>666.2025176122982</v>
+        <v>699.1203903877106</v>
       </c>
       <c r="X19" t="n">
-        <v>666.2025176122982</v>
+        <v>471.1308394896932</v>
       </c>
       <c r="Y19" t="n">
-        <v>666.2025176122982</v>
+        <v>361.3151575124869</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1571.829289912211</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C20" t="n">
-        <v>1202.866772971799</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D20" t="n">
-        <v>1202.866772971799</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E20" t="n">
-        <v>817.078520373555</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F20" t="n">
-        <v>406.0926155839475</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G20" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H20" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O20" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T20" t="n">
-        <v>3119.628073993394</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U20" t="n">
-        <v>3015.726430851098</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V20" t="n">
-        <v>2684.663543507527</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="W20" t="n">
-        <v>2331.894888237412</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="X20" t="n">
-        <v>1958.429129976333</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="Y20" t="n">
-        <v>1958.429129976333</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="21">
@@ -5822,37 +5822,37 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M21" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
         <v>1685.951113992584</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R21" t="n">
         <v>2564.909189125856</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2938.196848145806</v>
+        <v>382.3382468580007</v>
       </c>
       <c r="C22" t="n">
-        <v>2769.260665217899</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="D22" t="n">
-        <v>2619.144025805564</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E22" t="n">
-        <v>2471.23093222317</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F22" t="n">
-        <v>2471.23093222317</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G22" t="n">
-        <v>2471.23093222317</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H22" t="n">
-        <v>2471.23093222317</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I22" t="n">
-        <v>2471.23093222317</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
-        <v>2483.05368576061</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K22" t="n">
-        <v>2581.36454002828</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L22" t="n">
-        <v>2737.074383950638</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M22" t="n">
-        <v>2904.506865249835</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N22" t="n">
-        <v>3075.815702279683</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O22" t="n">
-        <v>3213.734051497872</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P22" t="n">
-        <v>3312.685054250631</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q22" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R22" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S22" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T22" t="n">
-        <v>3325.605821609171</v>
+        <v>791.9762625862578</v>
       </c>
       <c r="U22" t="n">
-        <v>3325.605821609171</v>
+        <v>791.9762625862578</v>
       </c>
       <c r="V22" t="n">
-        <v>3325.605821609171</v>
+        <v>791.9762625862578</v>
       </c>
       <c r="W22" t="n">
-        <v>3325.605821609171</v>
+        <v>791.9762625862578</v>
       </c>
       <c r="X22" t="n">
-        <v>3325.605821609171</v>
+        <v>563.9867116882405</v>
       </c>
       <c r="Y22" t="n">
-        <v>3119.845312976046</v>
+        <v>563.9867116882405</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1590.514489367197</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C23" t="n">
-        <v>1221.551972426786</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D23" t="n">
-        <v>863.2862738200351</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E23" t="n">
-        <v>477.498021221791</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F23" t="n">
-        <v>66.51211643218343</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G23" t="n">
-        <v>66.51211643218343</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H23" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I23" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R23" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S23" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T23" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U23" t="n">
-        <v>3325.605821609171</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V23" t="n">
-        <v>3093.488074938325</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="W23" t="n">
-        <v>2740.71941966821</v>
+        <v>2718.633196935045</v>
       </c>
       <c r="X23" t="n">
-        <v>2367.25366140713</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="Y23" t="n">
-        <v>1977.114329431319</v>
+        <v>2345.167438673965</v>
       </c>
     </row>
     <row r="24">
@@ -6044,43 +6044,43 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C24" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D24" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E24" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F24" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G24" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I24" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J24" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K24" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L24" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N24" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O24" t="n">
         <v>2096.912393410638</v>
@@ -6101,7 +6101,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U24" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V24" t="n">
         <v>1779.608347199865</v>
@@ -6110,10 +6110,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X24" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y24" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="25">
@@ -6123,31 +6123,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>549.3683227675136</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C25" t="n">
-        <v>380.4321398396067</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D25" t="n">
-        <v>380.4321398396067</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E25" t="n">
-        <v>380.4321398396067</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F25" t="n">
-        <v>380.4321398396067</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G25" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H25" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I25" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J25" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K25" t="n">
         <v>176.6457242372933</v>
@@ -6156,43 +6156,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M25" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N25" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O25" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P25" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q25" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R25" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S25" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T25" t="n">
-        <v>731.0167875977534</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U25" t="n">
-        <v>731.0167875977534</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V25" t="n">
-        <v>731.0167875977534</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="W25" t="n">
-        <v>731.0167875977534</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="X25" t="n">
-        <v>731.0167875977534</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="Y25" t="n">
-        <v>731.0167875977534</v>
+        <v>848.0708164780106</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1822.632236038042</v>
+        <v>1384.829779622645</v>
       </c>
       <c r="C26" t="n">
-        <v>1453.669719097631</v>
+        <v>1015.867262682233</v>
       </c>
       <c r="D26" t="n">
-        <v>1095.40402049088</v>
+        <v>657.6015640754824</v>
       </c>
       <c r="E26" t="n">
-        <v>709.6157678926361</v>
+        <v>657.6015640754824</v>
       </c>
       <c r="F26" t="n">
-        <v>298.6298631030285</v>
+        <v>657.6015640754824</v>
       </c>
       <c r="G26" t="n">
-        <v>66.5121164321834</v>
+        <v>242.5291139204789</v>
       </c>
       <c r="H26" t="n">
         <v>66.5121164321834</v>
@@ -6256,22 +6256,22 @@
         <v>3325.60582160917</v>
       </c>
       <c r="T26" t="n">
-        <v>3325.60582160917</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U26" t="n">
-        <v>3325.60582160917</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V26" t="n">
-        <v>3325.60582160917</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W26" t="n">
-        <v>2972.837166339056</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="X26" t="n">
-        <v>2599.371408077976</v>
+        <v>2161.568951662578</v>
       </c>
       <c r="Y26" t="n">
-        <v>2209.232076102164</v>
+        <v>1771.429619686766</v>
       </c>
     </row>
     <row r="27">
@@ -6308,10 +6308,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K27" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L27" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M27" t="n">
         <v>1212.428070438129</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>195.4511859077019</v>
+        <v>701.1808689801002</v>
       </c>
       <c r="C28" t="n">
-        <v>195.4511859077019</v>
+        <v>532.2446860521933</v>
       </c>
       <c r="D28" t="n">
-        <v>195.4511859077019</v>
+        <v>382.1280466398575</v>
       </c>
       <c r="E28" t="n">
-        <v>195.4511859077019</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="F28" t="n">
-        <v>195.4511859077019</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G28" t="n">
         <v>66.5121164321834</v>
@@ -6417,19 +6417,19 @@
         <v>920.8870058181849</v>
       </c>
       <c r="U28" t="n">
-        <v>631.7841389438285</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V28" t="n">
-        <v>377.0996507379416</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W28" t="n">
-        <v>377.0996507379416</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X28" t="n">
-        <v>377.0996507379416</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y28" t="n">
-        <v>377.0996507379416</v>
+        <v>882.8293338103399</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1519.109083729354</v>
+        <v>1636.597933493125</v>
       </c>
       <c r="C29" t="n">
-        <v>1150.146566788942</v>
+        <v>1267.635416552713</v>
       </c>
       <c r="D29" t="n">
-        <v>791.8808681821918</v>
+        <v>909.3697179459625</v>
       </c>
       <c r="E29" t="n">
-        <v>406.0926155839475</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="F29" t="n">
-        <v>406.0926155839475</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G29" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H29" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I29" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L29" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M29" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N29" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O29" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P29" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q29" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R29" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S29" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T29" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U29" t="n">
-        <v>3072.075344883008</v>
+        <v>2766.105760803172</v>
       </c>
       <c r="V29" t="n">
-        <v>2741.012457539437</v>
+        <v>2766.105760803172</v>
       </c>
       <c r="W29" t="n">
-        <v>2388.243802269323</v>
+        <v>2413.337105533058</v>
       </c>
       <c r="X29" t="n">
-        <v>2014.778044008243</v>
+        <v>2413.337105533058</v>
       </c>
       <c r="Y29" t="n">
-        <v>1905.708923793476</v>
+        <v>2023.197773557246</v>
       </c>
     </row>
     <row r="30">
@@ -6533,22 +6533,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G30" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I30" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J30" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K30" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L30" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M30" t="n">
         <v>1212.428070438129</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>66.51211643218343</v>
+        <v>532.2446860521933</v>
       </c>
       <c r="C31" t="n">
-        <v>66.51211643218343</v>
+        <v>532.2446860521933</v>
       </c>
       <c r="D31" t="n">
-        <v>66.51211643218343</v>
+        <v>382.1280466398575</v>
       </c>
       <c r="E31" t="n">
-        <v>66.51211643218343</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="F31" t="n">
-        <v>66.51211643218343</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G31" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H31" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I31" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J31" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K31" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L31" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M31" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N31" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O31" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P31" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q31" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R31" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S31" t="n">
-        <v>838.6033255730482</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T31" t="n">
-        <v>838.6033255730482</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U31" t="n">
-        <v>838.6033255730482</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V31" t="n">
-        <v>583.9188373671614</v>
+        <v>666.202517612298</v>
       </c>
       <c r="W31" t="n">
-        <v>294.5016673302008</v>
+        <v>666.202517612298</v>
       </c>
       <c r="X31" t="n">
-        <v>66.51211643218343</v>
+        <v>666.202517612298</v>
       </c>
       <c r="Y31" t="n">
-        <v>66.51211643218343</v>
+        <v>532.2446860521933</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1594.601034732593</v>
+        <v>1477.112184968822</v>
       </c>
       <c r="C32" t="n">
-        <v>1225.638517792182</v>
+        <v>1108.149668028411</v>
       </c>
       <c r="D32" t="n">
-        <v>867.3728191854311</v>
+        <v>749.8839694216604</v>
       </c>
       <c r="E32" t="n">
-        <v>481.5845665871869</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="F32" t="n">
-        <v>481.5845665871869</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G32" t="n">
-        <v>66.5121164321834</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H32" t="n">
         <v>66.5121164321834</v>
@@ -6700,10 +6700,10 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L32" t="n">
         <v>1040.244834329464</v>
@@ -6730,22 +6730,22 @@
         <v>3325.60582160917</v>
       </c>
       <c r="T32" t="n">
-        <v>3325.60582160917</v>
+        <v>3233.616247266114</v>
       </c>
       <c r="U32" t="n">
-        <v>3097.574620303721</v>
+        <v>2980.08577053995</v>
       </c>
       <c r="V32" t="n">
-        <v>3097.574620303721</v>
+        <v>2980.08577053995</v>
       </c>
       <c r="W32" t="n">
-        <v>2744.805965033606</v>
+        <v>2627.317115269836</v>
       </c>
       <c r="X32" t="n">
-        <v>2371.340206772526</v>
+        <v>2253.851357008756</v>
       </c>
       <c r="Y32" t="n">
-        <v>1981.200874796715</v>
+        <v>1863.712025032944</v>
       </c>
     </row>
     <row r="33">
@@ -6782,10 +6782,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K33" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L33" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M33" t="n">
         <v>1212.428070438129</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2471.230932223169</v>
+        <v>250.3382603461635</v>
       </c>
       <c r="C34" t="n">
-        <v>2471.230932223169</v>
+        <v>250.3382603461635</v>
       </c>
       <c r="D34" t="n">
-        <v>2471.230932223169</v>
+        <v>250.3382603461635</v>
       </c>
       <c r="E34" t="n">
-        <v>2471.230932223169</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="F34" t="n">
-        <v>2471.230932223169</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G34" t="n">
-        <v>2471.230932223169</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H34" t="n">
-        <v>2471.230932223169</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I34" t="n">
-        <v>2471.230932223169</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J34" t="n">
-        <v>2483.053685760608</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K34" t="n">
-        <v>2581.364540028279</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L34" t="n">
-        <v>2737.074383950636</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M34" t="n">
-        <v>2904.506865249834</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N34" t="n">
-        <v>3075.815702279681</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O34" t="n">
-        <v>3213.734051497871</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P34" t="n">
-        <v>3312.685054250629</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q34" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R34" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S34" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T34" t="n">
-        <v>3325.60582160917</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="U34" t="n">
-        <v>3325.60582160917</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="V34" t="n">
-        <v>3070.921333403283</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="W34" t="n">
-        <v>2781.504163366323</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="X34" t="n">
-        <v>2553.514612468305</v>
+        <v>471.1308394896936</v>
       </c>
       <c r="Y34" t="n">
-        <v>2471.230932223169</v>
+        <v>250.3382603461635</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1491.569348694472</v>
+        <v>1986.901740067214</v>
       </c>
       <c r="C35" t="n">
-        <v>1122.60683175406</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D35" t="n">
-        <v>764.3411331473096</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E35" t="n">
-        <v>378.5528805490654</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F35" t="n">
-        <v>378.5528805490654</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G35" t="n">
-        <v>66.5121164321834</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H35" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I35" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L35" t="n">
         <v>1040.244834329464</v>
@@ -6964,25 +6964,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S35" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T35" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U35" t="n">
-        <v>3325.60582160917</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V35" t="n">
-        <v>2994.542934265599</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W35" t="n">
-        <v>2641.774278995485</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="X35" t="n">
-        <v>2268.308520734405</v>
+        <v>2382.341170533244</v>
       </c>
       <c r="Y35" t="n">
-        <v>1878.169188758593</v>
+        <v>1992.201838557432</v>
       </c>
     </row>
     <row r="36">
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>631.7841389438285</v>
+        <v>697.9541770656748</v>
       </c>
       <c r="C37" t="n">
-        <v>631.7841389438285</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="D37" t="n">
-        <v>631.7841389438285</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E37" t="n">
-        <v>483.8710453614353</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F37" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G37" t="n">
-        <v>310.0549803959802</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H37" t="n">
-        <v>163.837793613838</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I37" t="n">
         <v>66.5121164321834</v>
@@ -7128,19 +7128,19 @@
         <v>920.8870058181849</v>
       </c>
       <c r="U37" t="n">
-        <v>631.7841389438285</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V37" t="n">
-        <v>631.7841389438285</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W37" t="n">
-        <v>631.7841389438285</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X37" t="n">
-        <v>631.7841389438285</v>
+        <v>879.6026418959145</v>
       </c>
       <c r="Y37" t="n">
-        <v>631.7841389438285</v>
+        <v>879.6026418959145</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1822.632236038042</v>
+        <v>1590.514489367197</v>
       </c>
       <c r="C38" t="n">
-        <v>1453.669719097631</v>
+        <v>1221.551972426786</v>
       </c>
       <c r="D38" t="n">
-        <v>1095.40402049088</v>
+        <v>863.2862738200351</v>
       </c>
       <c r="E38" t="n">
-        <v>709.6157678926361</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F38" t="n">
-        <v>298.6298631030285</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G38" t="n">
-        <v>298.6298631030285</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H38" t="n">
         <v>66.5121164321834</v>
@@ -7174,10 +7174,10 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L38" t="n">
         <v>1040.244834329464</v>
@@ -7201,25 +7201,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S38" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T38" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U38" t="n">
-        <v>3325.60582160917</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V38" t="n">
-        <v>3325.60582160917</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W38" t="n">
-        <v>2972.837166339056</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="X38" t="n">
-        <v>2599.371408077976</v>
+        <v>2257.256030805451</v>
       </c>
       <c r="Y38" t="n">
-        <v>2209.232076102164</v>
+        <v>1977.114329431319</v>
       </c>
     </row>
     <row r="39">
@@ -7256,10 +7256,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2471.230932223169</v>
+        <v>533.4780323548191</v>
       </c>
       <c r="C40" t="n">
-        <v>2471.230932223169</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="D40" t="n">
-        <v>2471.230932223169</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E40" t="n">
-        <v>2471.230932223169</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F40" t="n">
-        <v>2471.230932223169</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G40" t="n">
-        <v>2471.230932223169</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H40" t="n">
-        <v>2471.230932223169</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I40" t="n">
-        <v>2471.230932223169</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J40" t="n">
-        <v>2483.053685760608</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K40" t="n">
-        <v>2581.364540028279</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L40" t="n">
-        <v>2737.074383950636</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M40" t="n">
-        <v>2904.506865249834</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N40" t="n">
-        <v>3075.815702279681</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O40" t="n">
-        <v>3213.734051497871</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P40" t="n">
-        <v>3312.685054250629</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q40" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R40" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S40" t="n">
-        <v>3133.919937435996</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T40" t="n">
-        <v>2912.153322005523</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U40" t="n">
-        <v>2725.915420429056</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V40" t="n">
-        <v>2471.230932223169</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W40" t="n">
-        <v>2471.230932223169</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X40" t="n">
-        <v>2471.230932223169</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y40" t="n">
-        <v>2471.230932223169</v>
+        <v>715.1264971850588</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1659.057359339774</v>
+        <v>1888.09808975843</v>
       </c>
       <c r="C41" t="n">
-        <v>1290.094842399362</v>
+        <v>1519.135572818019</v>
       </c>
       <c r="D41" t="n">
-        <v>1290.094842399362</v>
+        <v>1160.869874211268</v>
       </c>
       <c r="E41" t="n">
-        <v>904.3065898011178</v>
+        <v>775.0816216130238</v>
       </c>
       <c r="F41" t="n">
-        <v>493.3206850115102</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G41" t="n">
         <v>364.0957168234162</v>
@@ -7411,25 +7411,25 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K41" t="n">
         <v>589.2106210810553</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q41" t="n">
         <v>3266.588755052368</v>
@@ -7441,22 +7441,22 @@
         <v>3325.60582160917</v>
       </c>
       <c r="T41" t="n">
-        <v>3119.628073993392</v>
+        <v>3271.136393794642</v>
       </c>
       <c r="U41" t="n">
-        <v>3119.628073993392</v>
+        <v>3017.605917068478</v>
       </c>
       <c r="V41" t="n">
-        <v>2788.565186649821</v>
+        <v>3017.605917068478</v>
       </c>
       <c r="W41" t="n">
-        <v>2435.796531379707</v>
+        <v>2664.837261798364</v>
       </c>
       <c r="X41" t="n">
-        <v>2435.796531379707</v>
+        <v>2664.837261798364</v>
       </c>
       <c r="Y41" t="n">
-        <v>2045.657199403895</v>
+        <v>2274.697929822552</v>
       </c>
     </row>
     <row r="42">
@@ -7466,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927784</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H42" t="n">
         <v>85.51940803064545</v>
@@ -7490,46 +7490,46 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K42" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M42" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N42" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O42" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q42" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R42" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S42" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T42" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U42" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V42" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W42" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X42" t="n">
         <v>1317.519490266131</v>
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>541.9536817013565</v>
+        <v>384.3315924698002</v>
       </c>
       <c r="C43" t="n">
-        <v>541.9536817013565</v>
+        <v>384.3315924698002</v>
       </c>
       <c r="D43" t="n">
-        <v>391.8370422890207</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="E43" t="n">
-        <v>243.9239487066276</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="F43" t="n">
         <v>234.2149530574644</v>
@@ -7593,28 +7593,28 @@
         <v>920.8870058181849</v>
       </c>
       <c r="R43" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S43" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T43" t="n">
-        <v>831.0565485757129</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="U43" t="n">
-        <v>541.9536817013565</v>
+        <v>410.0175235133545</v>
       </c>
       <c r="V43" t="n">
-        <v>541.9536817013565</v>
+        <v>384.3315924698002</v>
       </c>
       <c r="W43" t="n">
-        <v>541.9536817013565</v>
+        <v>384.3315924698002</v>
       </c>
       <c r="X43" t="n">
-        <v>541.9536817013565</v>
+        <v>384.3315924698002</v>
       </c>
       <c r="Y43" t="n">
-        <v>541.9536817013565</v>
+        <v>384.3315924698002</v>
       </c>
     </row>
     <row r="44">
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1491.569348694472</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="C44" t="n">
-        <v>1122.60683175406</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D44" t="n">
-        <v>764.3411331473096</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E44" t="n">
-        <v>378.5528805490654</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F44" t="n">
-        <v>66.5121164321834</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G44" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H44" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I44" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J44" t="n">
         <v>255.3912473912088</v>
@@ -7669,7 +7669,7 @@
         <v>3018.302393296685</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R44" t="n">
         <v>3325.60582160917</v>
@@ -7681,19 +7681,19 @@
         <v>3325.60582160917</v>
       </c>
       <c r="U44" t="n">
-        <v>3325.60582160917</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V44" t="n">
-        <v>2994.542934265599</v>
+        <v>2741.012457539435</v>
       </c>
       <c r="W44" t="n">
-        <v>2641.774278995485</v>
+        <v>2388.243802269321</v>
       </c>
       <c r="X44" t="n">
-        <v>2268.308520734405</v>
+        <v>2014.778044008241</v>
       </c>
       <c r="Y44" t="n">
-        <v>1878.169188758593</v>
+        <v>1624.638712032429</v>
       </c>
     </row>
     <row r="45">
@@ -7724,13 +7724,13 @@
         <v>85.51940803064576</v>
       </c>
       <c r="I45" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J45" t="n">
         <v>160.1893859228006</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L45" t="n">
         <v>765.151745215813</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2471.230932223169</v>
+        <v>250.3382603461635</v>
       </c>
       <c r="C46" t="n">
-        <v>2471.230932223169</v>
+        <v>81.40207741825657</v>
       </c>
       <c r="D46" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="E46" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F46" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G46" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H46" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I46" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J46" t="n">
-        <v>2483.053685760608</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K46" t="n">
-        <v>2581.364540028279</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L46" t="n">
-        <v>2737.074383950636</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M46" t="n">
-        <v>2904.506865249834</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N46" t="n">
-        <v>3075.815702279681</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O46" t="n">
-        <v>3213.734051497871</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P46" t="n">
-        <v>3312.685054250629</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q46" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R46" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S46" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T46" t="n">
-        <v>3325.60582160917</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="U46" t="n">
-        <v>3209.430232301677</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="V46" t="n">
-        <v>3209.430232301677</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="W46" t="n">
-        <v>2920.013062264717</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="X46" t="n">
-        <v>2692.023511366699</v>
+        <v>471.1308394896936</v>
       </c>
       <c r="Y46" t="n">
-        <v>2471.230932223169</v>
+        <v>250.3382603461635</v>
       </c>
     </row>
   </sheetData>
@@ -22552,19 +22552,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>189.5105044445883</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>216.7578328961673</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>219.3504585753916</v>
       </c>
       <c r="G2" t="n">
-        <v>413.097833230058</v>
+        <v>225.5722460637382</v>
       </c>
       <c r="H2" t="n">
-        <v>316.8938261062223</v>
+        <v>129.3682389399025</v>
       </c>
       <c r="I2" t="n">
         <v>125.4713171199747</v>
@@ -22594,19 +22594,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666375</v>
+        <v>77.08171901666378</v>
       </c>
       <c r="S2" t="n">
         <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
-        <v>25.91829388988677</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
         <v>251.1692605650303</v>
       </c>
       <c r="V2" t="n">
-        <v>140.2266713038149</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -22615,7 +22615,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>198.7123514897336</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22631,13 +22631,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>12.24904924407113</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.1637893657753</v>
@@ -22649,7 +22649,7 @@
         <v>58.90455890409149</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265838</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22673,28 +22673,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>72.4328956284632</v>
       </c>
       <c r="S3" t="n">
         <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920012</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U3" t="n">
-        <v>38.33818124377092</v>
+        <v>60.6912312339964</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>45.2749999831054</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>64.16939599459974</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>18.24739803715761</v>
       </c>
       <c r="Y3" t="n">
-        <v>18.15710861098435</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22728,10 +22728,10 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>18.95836326784812</v>
+        <v>57.06999962825418</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>14.10430989402852</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22746,10 +22746,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709383</v>
+        <v>18.10760906709386</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.68604055159723</v>
+        <v>68.68604055159726</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
@@ -22767,7 +22767,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>234.3070520821566</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22789,22 +22789,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>167.1574544543631</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>194.4047829059419</v>
       </c>
       <c r="F5" t="n">
-        <v>219.3504585753915</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>225.5722460637381</v>
+        <v>413.097833230058</v>
       </c>
       <c r="H5" t="n">
-        <v>129.3682389399024</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22846,13 +22846,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>309.5397486612932</v>
+        <v>184.0684315413185</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>198.7123514897337</v>
       </c>
     </row>
     <row r="6">
@@ -22865,25 +22865,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>122.724667494686</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>18.32016535897563</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>58.90455890409149</v>
       </c>
       <c r="J6" t="n">
         <v>15.37922103265839</v>
@@ -22922,7 +22922,7 @@
         <v>225.8637684100909</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>45.2749999831054</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -22931,7 +22931,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>18.15710861098449</v>
       </c>
     </row>
     <row r="7">
@@ -22950,7 +22950,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>94.21801639213473</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -22965,7 +22965,7 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J7" t="n">
-        <v>4.854053373819752</v>
+        <v>57.06999962825418</v>
       </c>
       <c r="K7" t="n">
         <v>14.10430989402852</v>
@@ -23023,25 +23023,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>177.7473046046877</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>194.4047829059419</v>
+        <v>283.4883704872006</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>225.5722460637382</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>316.8938261062223</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>78.16360657708299</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23068,16 +23068,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>77.08171901666378</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>213.4438810562068</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U8" t="n">
-        <v>211.4680405089106</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23089,7 +23089,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23114,13 +23114,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>36.29946757904885</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23147,28 +23147,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>72.4328956284632</v>
+        <v>31.66886087721431</v>
       </c>
       <c r="S9" t="n">
-        <v>149.7702446909496</v>
+        <v>49.19507802460336</v>
       </c>
       <c r="T9" t="n">
-        <v>195.4095977920013</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>112.1180892370865</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -23193,16 +23193,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.0019352027142</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H10" t="n">
-        <v>153.4336708318196</v>
+        <v>148.5398113612452</v>
       </c>
       <c r="I10" t="n">
-        <v>125.7072197708667</v>
+        <v>109.1541654470835</v>
       </c>
       <c r="J10" t="n">
-        <v>18.95836326784826</v>
+        <v>18.15430933923925</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23220,28 +23220,28 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>18.10760906709386</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>68.68604055159726</v>
+        <v>22.59469128425553</v>
       </c>
       <c r="R10" t="n">
-        <v>132.8223696106904</v>
+        <v>108.0728512656386</v>
       </c>
       <c r="S10" t="n">
-        <v>206.7802557954962</v>
+        <v>11.55974009872591</v>
       </c>
       <c r="T10" t="n">
-        <v>223.7196734901001</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2650814934503</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>373.6346482223004</v>
+        <v>358.5862092445529</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23278,7 +23278,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,10 +23308,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23323,7 +23323,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23390,7 +23390,7 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>1.051603248924948e-12</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -23421,13 +23421,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>1.772586778758495</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
@@ -23475,16 +23475,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>161.3816347461679</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23494,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>249.2766965295529</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23548,7 +23548,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>100.2471097107934</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23557,7 +23557,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23594,7 +23594,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>25.91735644648347</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>190.7684683149579</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23737,7 +23737,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23746,13 +23746,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>6.713960260762065</v>
       </c>
       <c r="H17" t="n">
-        <v>115.9599211920235</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,19 +23782,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23892,25 +23892,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>126.1076155364326</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>109.8671281946605</v>
       </c>
     </row>
     <row r="20">
@@ -23974,7 +23974,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23983,10 +23983,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>148.1325452480289</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>186.5668494326252</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24132,13 +24132,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.0258082590282</v>
@@ -24147,7 +24147,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>91.92731347656172</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
@@ -24192,10 +24192,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>14.88174980530059</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24220,13 +24220,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>97.95568926599657</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>108.5210040371067</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24363,25 +24363,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
         <v>96.35242040983809</v>
@@ -24417,13 +24417,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>31.57743323794188</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>180.0496158770554</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24451,16 +24451,16 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>181.1251564493168</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873205</v>
+        <v>120.3509368739079</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292595</v>
@@ -24496,16 +24496,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24603,19 +24603,19 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>38.37612947826493</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
@@ -24657,10 +24657,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24669,7 +24669,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>180.9075580643283</v>
       </c>
     </row>
     <row r="29">
@@ -24694,10 +24694,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>10.19584368876033</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>278.259509643434</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24843,16 +24843,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
@@ -24888,7 +24888,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>108.3081818887565</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
@@ -24900,13 +24900,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>85.96640010759108</v>
       </c>
     </row>
     <row r="32">
@@ -24931,10 +24931,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292595</v>
@@ -24970,10 +24970,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>112.8482915399946</v>
       </c>
       <c r="U32" t="n">
-        <v>25.24428266650699</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -25083,13 +25083,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>130.4718884307571</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
@@ -25128,22 +25128,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>137.1238099094101</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25153,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>377.4867441581652</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>102.0013691777403</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,19 +25204,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25323,16 +25323,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>139.368951966159</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25368,7 +25368,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25377,7 +25377,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>184.8381351059895</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25408,7 +25408,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>64.8111951831838</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -25441,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>108.8976542956631</v>
       </c>
     </row>
     <row r="39">
@@ -25548,16 +25548,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25599,16 +25599,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>101.8363156449107</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -25617,7 +25617,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>14.88174980530002</v>
       </c>
     </row>
     <row r="41">
@@ -25633,7 +25633,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25642,7 +25642,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>282.9890071472404</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25681,13 +25681,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>149.993236603237</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25794,10 +25794,10 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>135.8091423302597</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25833,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>226.7085715907092</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -25864,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>81.49358325958985</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>97.95568926599833</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25921,7 +25921,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26025,10 +26025,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>133.8744116419999</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26076,16 +26076,16 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>171.198004791195</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>424931.0936061953</v>
+        <v>424931.0936061949</v>
       </c>
     </row>
     <row r="3">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>424931.0936061951</v>
+        <v>658545.8706526516</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>839054.4922903115</v>
+        <v>839054.4922903114</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>839054.4922903116</v>
+        <v>839054.4922903117</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>839054.4922903116</v>
+        <v>839054.4922903115</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>839054.4922903114</v>
+        <v>839054.4922903115</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>839054.4922903115</v>
+        <v>839054.4922903116</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>839054.4922903115</v>
+        <v>839054.4922903114</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>839054.4922903115</v>
+        <v>839054.4922903114</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>839054.4922903116</v>
+        <v>839054.4922903115</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>839054.4922903115</v>
+        <v>839054.4922903116</v>
       </c>
     </row>
   </sheetData>
@@ -26313,43 +26313,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>158307.6623238766</v>
+        <v>158307.6623238765</v>
       </c>
       <c r="C2" t="n">
         <v>158307.6623238765</v>
       </c>
       <c r="D2" t="n">
-        <v>158307.6623238766</v>
+        <v>245340.6184784386</v>
       </c>
       <c r="E2" t="n">
+        <v>312588.9285003117</v>
+      </c>
+      <c r="F2" t="n">
+        <v>312588.9285003118</v>
+      </c>
+      <c r="G2" t="n">
+        <v>312588.9285003118</v>
+      </c>
+      <c r="H2" t="n">
         <v>312588.9285003119</v>
       </c>
-      <c r="F2" t="n">
+      <c r="I2" t="n">
         <v>312588.9285003116</v>
       </c>
-      <c r="G2" t="n">
-        <v>312588.928500312</v>
-      </c>
-      <c r="H2" t="n">
-        <v>312588.928500312</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>312588.9285003118</v>
       </c>
-      <c r="J2" t="n">
-        <v>312588.9285003117</v>
-      </c>
       <c r="K2" t="n">
-        <v>312588.9285003117</v>
+        <v>312588.9285003118</v>
       </c>
       <c r="L2" t="n">
         <v>312588.9285003117</v>
       </c>
       <c r="M2" t="n">
-        <v>312588.9285003116</v>
+        <v>312588.9285003118</v>
       </c>
       <c r="N2" t="n">
-        <v>312588.9285003116</v>
+        <v>312588.9285003118</v>
       </c>
       <c r="O2" t="n">
         <v>312588.9285003116</v>
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>371558.5249487661</v>
       </c>
       <c r="E3" t="n">
-        <v>627134.6436336676</v>
+        <v>276030.7457669098</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,10 +26383,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
         <v>49064.94472854456</v>
@@ -26395,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>89743.37813127032</v>
       </c>
       <c r="M3" t="n">
-        <v>160456.4418678774</v>
+        <v>72091.35261608617</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>137.8001180723341</v>
+        <v>137.800118072334</v>
       </c>
       <c r="C4" t="n">
         <v>137.800118072334</v>
       </c>
       <c r="D4" t="n">
-        <v>137.800118072334</v>
+        <v>384.3219252469136</v>
       </c>
       <c r="E4" t="n">
-        <v>584.6469890061231</v>
+        <v>584.646989006123</v>
       </c>
       <c r="F4" t="n">
-        <v>584.6469890061231</v>
+        <v>584.646989006123</v>
       </c>
       <c r="G4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.646989006123</v>
       </c>
       <c r="H4" t="n">
-        <v>584.6469890061234</v>
+        <v>584.646989006123</v>
       </c>
       <c r="I4" t="n">
         <v>584.6469890061231</v>
@@ -26444,16 +26444,16 @@
         <v>584.6469890061231</v>
       </c>
       <c r="K4" t="n">
-        <v>584.6469890061231</v>
+        <v>584.6469890061232</v>
       </c>
       <c r="L4" t="n">
-        <v>584.6469890061231</v>
+        <v>584.6469890061232</v>
       </c>
       <c r="M4" t="n">
-        <v>584.6469890061231</v>
+        <v>584.6469890061232</v>
       </c>
       <c r="N4" t="n">
-        <v>584.6469890061231</v>
+        <v>584.6469890061232</v>
       </c>
       <c r="O4" t="n">
         <v>584.6469890061231</v>
@@ -26469,16 +26469,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161358</v>
+        <v>56985.80041161357</v>
       </c>
       <c r="C5" t="n">
-        <v>56985.80041161358</v>
+        <v>56985.80041161357</v>
       </c>
       <c r="D5" t="n">
-        <v>56985.80041161357</v>
+        <v>85199.08185587224</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
         <v>74306.3405613933</v>
@@ -26487,7 +26487,7 @@
         <v>74306.3405613933</v>
       </c>
       <c r="H5" t="n">
-        <v>74306.34056139331</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="I5" t="n">
         <v>74306.3405613933</v>
@@ -26496,7 +26496,7 @@
         <v>74306.34056139328</v>
       </c>
       <c r="K5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="L5" t="n">
         <v>74306.34056139328</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-490172.8407266547</v>
+        <v>-502366.9027456894</v>
       </c>
       <c r="C6" t="n">
-        <v>101184.0617941906</v>
+        <v>88989.99977515594</v>
       </c>
       <c r="D6" t="n">
-        <v>101184.0617941907</v>
+        <v>-219414.6903676096</v>
       </c>
       <c r="E6" t="n">
-        <v>-389436.7026837551</v>
+        <v>-42406.80019516715</v>
       </c>
       <c r="F6" t="n">
-        <v>237697.9409499122</v>
+        <v>233623.9455717427</v>
       </c>
       <c r="G6" t="n">
-        <v>237697.9409499125</v>
+        <v>233623.9455717427</v>
       </c>
       <c r="H6" t="n">
-        <v>237697.9409499124</v>
+        <v>233623.9455717428</v>
       </c>
       <c r="I6" t="n">
-        <v>237697.9409499125</v>
+        <v>233623.9455717424</v>
       </c>
       <c r="J6" t="n">
-        <v>188632.9962213677</v>
+        <v>184559.0008431982</v>
       </c>
       <c r="K6" t="n">
-        <v>237697.9409499122</v>
+        <v>233623.9455717427</v>
       </c>
       <c r="L6" t="n">
-        <v>237697.9409499122</v>
+        <v>143880.5674404723</v>
       </c>
       <c r="M6" t="n">
-        <v>77241.49908203482</v>
+        <v>161532.5929556566</v>
       </c>
       <c r="N6" t="n">
-        <v>237697.9409499122</v>
+        <v>233623.9455717427</v>
       </c>
       <c r="O6" t="n">
-        <v>237697.9409499122</v>
+        <v>233623.9455717426</v>
       </c>
       <c r="P6" t="n">
-        <v>237697.9409499123</v>
+        <v>233623.9455717427</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129047</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
         <v>548.4699409129046</v>
       </c>
       <c r="D3" t="n">
-        <v>548.4699409129046</v>
+        <v>853.7106645376841</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26755,7 +26755,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="H3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="I3" t="n">
         <v>1089.776700593298</v>
@@ -26789,34 +26789,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="D4" t="n">
-        <v>187.5255871663199</v>
+        <v>542.1149567261632</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="I4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="J4" t="n">
         <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="L4" t="n">
         <v>831.4014554022925</v>
@@ -26831,7 +26831,7 @@
         <v>831.4014554022925</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
     </row>
   </sheetData>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129047</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>305.2407236247795</v>
       </c>
       <c r="E3" t="n">
-        <v>541.3067596803937</v>
+        <v>236.0660360556139</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,10 +26977,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>354.5893695598434</v>
       </c>
       <c r="E4" t="n">
-        <v>643.8758682359727</v>
+        <v>289.2864986761294</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27041,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>354.5893695598434</v>
       </c>
       <c r="M4" t="n">
-        <v>643.8758682359727</v>
+        <v>289.2864986761294</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>354.5893695598434</v>
       </c>
       <c r="M4" t="n">
-        <v>643.8758682359727</v>
+        <v>289.2864986761294</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31044,13 +31044,13 @@
         <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954486</v>
+        <v>22.58097600954485</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043121</v>
+        <v>85.00457245043118</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655544</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K2" t="n">
         <v>280.4720934528639</v>
@@ -31062,25 +31062,25 @@
         <v>387.1618995470274</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470025</v>
+        <v>393.4265838470024</v>
       </c>
       <c r="O2" t="n">
         <v>371.501566862268</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244295</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151093</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974684</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S2" t="n">
         <v>50.24425639619223</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924582</v>
+        <v>9.651968507924579</v>
       </c>
       <c r="U2" t="n">
         <v>0.1763923428061601</v>
@@ -31126,7 +31126,7 @@
         <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590851</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J3" t="n">
         <v>111.4584056340083</v>
@@ -31135,16 +31135,16 @@
         <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405033</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M3" t="n">
-        <v>298.916117797533</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829655</v>
+        <v>306.8275379829654</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292674</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P3" t="n">
         <v>225.2762668628872</v>
@@ -31153,16 +31153,16 @@
         <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550077</v>
+        <v>73.24660833550075</v>
       </c>
       <c r="S3" t="n">
-        <v>21.91292641288821</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T3" t="n">
-        <v>4.75513090282037</v>
+        <v>4.755130902820369</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390164</v>
+        <v>0.07761367088390163</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445822</v>
+        <v>0.9890441557445819</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620018</v>
+        <v>8.793501675620016</v>
       </c>
       <c r="I4" t="n">
         <v>29.74325515639162</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114196</v>
+        <v>69.92542181114193</v>
       </c>
       <c r="K4" t="n">
         <v>114.9089482765069</v>
@@ -31229,19 +31229,19 @@
         <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784861</v>
+        <v>82.81896107784858</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647911</v>
+        <v>44.4710217664791</v>
       </c>
       <c r="S4" t="n">
         <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181395</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061363</v>
+        <v>0.05394786304061362</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2.204904285077002</v>
+        <v>3.432002671508275</v>
       </c>
       <c r="H8" t="n">
-        <v>22.58097600954485</v>
+        <v>35.14799735958413</v>
       </c>
       <c r="I8" t="n">
-        <v>85.00457245043118</v>
+        <v>132.3122829933229</v>
       </c>
       <c r="J8" t="n">
-        <v>187.1384950655543</v>
+        <v>291.2869367409257</v>
       </c>
       <c r="K8" t="n">
-        <v>280.4720934528639</v>
+        <v>436.5636098258711</v>
       </c>
       <c r="L8" t="n">
-        <v>347.9504329672893</v>
+        <v>541.5957615840426</v>
       </c>
       <c r="M8" t="n">
-        <v>387.1618995470274</v>
+        <v>602.6296390934779</v>
       </c>
       <c r="N8" t="n">
-        <v>393.4265838470024</v>
+        <v>612.3808166839008</v>
       </c>
       <c r="O8" t="n">
-        <v>371.501566862268</v>
+        <v>578.2538401190903</v>
       </c>
       <c r="P8" t="n">
-        <v>317.0679923244294</v>
+        <v>493.5262741662298</v>
       </c>
       <c r="Q8" t="n">
-        <v>238.1048576151092</v>
+        <v>370.6176784928395</v>
       </c>
       <c r="R8" t="n">
-        <v>138.5038187974683</v>
+        <v>215.5855378141319</v>
       </c>
       <c r="S8" t="n">
-        <v>50.24425639619223</v>
+        <v>78.20676087699491</v>
       </c>
       <c r="T8" t="n">
-        <v>9.651968507924579</v>
+        <v>15.02359169452748</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.274560213720662</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.179727797435304</v>
+        <v>1.836283316175396</v>
       </c>
       <c r="H9" t="n">
-        <v>11.39368688575676</v>
+        <v>17.73463097464133</v>
       </c>
       <c r="I9" t="n">
-        <v>40.6178210959085</v>
+        <v>63.22291242095115</v>
       </c>
       <c r="J9" t="n">
-        <v>111.4584056340083</v>
+        <v>173.4885040076062</v>
       </c>
       <c r="K9" t="n">
-        <v>190.5001680621737</v>
+        <v>296.5194861913577</v>
       </c>
       <c r="L9" t="n">
-        <v>256.1509851405032</v>
+        <v>398.7070419616798</v>
       </c>
       <c r="M9" t="n">
-        <v>298.9161177975329</v>
+        <v>465.2723121730378</v>
       </c>
       <c r="N9" t="n">
-        <v>306.8275379829654</v>
+        <v>477.5866858152843</v>
       </c>
       <c r="O9" t="n">
-        <v>280.6872536292673</v>
+        <v>436.8985133884505</v>
       </c>
       <c r="P9" t="n">
-        <v>225.2762668628872</v>
+        <v>350.6495746475632</v>
       </c>
       <c r="Q9" t="n">
-        <v>150.5912184936715</v>
+        <v>234.3999545349506</v>
       </c>
       <c r="R9" t="n">
-        <v>73.24660833550075</v>
+        <v>114.0106430867496</v>
       </c>
       <c r="S9" t="n">
-        <v>21.9129264128882</v>
+        <v>34.10815721053859</v>
       </c>
       <c r="T9" t="n">
-        <v>4.755130902820369</v>
+        <v>7.401510384057843</v>
       </c>
       <c r="U9" t="n">
-        <v>0.07761367088390163</v>
+        <v>0.1208081129062761</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9890441557445819</v>
+        <v>1.539478247526971</v>
       </c>
       <c r="H10" t="n">
-        <v>8.793501675620016</v>
+        <v>13.68736114619435</v>
       </c>
       <c r="I10" t="n">
-        <v>29.74325515639162</v>
+        <v>46.29630948017475</v>
       </c>
       <c r="J10" t="n">
-        <v>69.92542181114193</v>
+        <v>108.8411121001569</v>
       </c>
       <c r="K10" t="n">
-        <v>114.9089482765069</v>
+        <v>178.8593818490426</v>
       </c>
       <c r="L10" t="n">
-        <v>147.0438920276991</v>
+        <v>228.8784296368736</v>
       </c>
       <c r="M10" t="n">
-        <v>155.0371670682166</v>
+        <v>241.3202129282506</v>
       </c>
       <c r="N10" t="n">
-        <v>151.3507297604415</v>
+        <v>235.5821576420139</v>
       </c>
       <c r="O10" t="n">
-        <v>139.7968957592433</v>
+        <v>217.5982526595396</v>
       </c>
       <c r="P10" t="n">
-        <v>119.6203949820538</v>
+        <v>186.1928964099892</v>
       </c>
       <c r="Q10" t="n">
-        <v>82.81896107784858</v>
+        <v>128.9103103451903</v>
       </c>
       <c r="R10" t="n">
-        <v>44.4710217664791</v>
+        <v>69.22054011153089</v>
       </c>
       <c r="S10" t="n">
-        <v>17.23634224147603</v>
+        <v>26.82890727735639</v>
       </c>
       <c r="T10" t="n">
-        <v>4.225915938181394</v>
+        <v>6.577770693978875</v>
       </c>
       <c r="U10" t="n">
-        <v>0.05394786304061362</v>
+        <v>0.08397154077419852</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31837,40 +31837,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31925,16 +31925,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31943,16 +31943,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32074,40 +32074,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32162,16 +32162,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32180,16 +32180,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095029</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32311,40 +32311,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002933</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32399,16 +32399,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32417,16 +32417,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R20" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T20" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H21" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353161</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R21" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q22" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33028,7 +33028,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
         <v>508.9565619138796</v>
@@ -33268,7 +33268,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
         <v>593.9283018233475</v>
@@ -33280,7 +33280,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q30" t="n">
         <v>299.2156706987487</v>
@@ -33502,7 +33502,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
         <v>508.9565619138796</v>
@@ -33517,7 +33517,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q33" t="n">
         <v>299.2156706987487</v>
@@ -33754,10 +33754,10 @@
         <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -33976,7 +33976,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
         <v>508.9565619138796</v>
@@ -33991,7 +33991,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q39" t="n">
         <v>299.2156706987487</v>
@@ -34222,7 +34222,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O42" t="n">
         <v>557.708647897025</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.09259053886808</v>
+        <v>6.092590538868052</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788338</v>
+        <v>60.38224240788333</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973021</v>
+        <v>112.184017997302</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197547</v>
+        <v>156.8156663197546</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504116</v>
+        <v>164.0135202504115</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405813</v>
+        <v>141.4033554405812</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656915996</v>
+        <v>85.8349965691599</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065978</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781472</v>
+        <v>52.65872908781469</v>
       </c>
       <c r="L3" t="n">
-        <v>117.5966053606291</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755147</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N3" t="n">
         <v>175.4858258996321</v>
       </c>
       <c r="O3" t="n">
-        <v>138.091009184823</v>
+        <v>138.0910091848229</v>
       </c>
       <c r="P3" t="n">
-        <v>91.301859448557</v>
+        <v>91.30185944855694</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764999</v>
+        <v>10.60944440764996</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,16 +34862,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.1592157464608</v>
+        <v>12.15921574646077</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061155</v>
+        <v>16.11138312061152</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520829</v>
+        <v>23.66518529520826</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400552</v>
+        <v>1.340357307400524</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>6.092590538868052</v>
+        <v>110.2410322142395</v>
       </c>
       <c r="K8" t="n">
-        <v>60.38224240788333</v>
+        <v>216.4737587808906</v>
       </c>
       <c r="L8" t="n">
-        <v>112.184017997302</v>
+        <v>305.8293466140554</v>
       </c>
       <c r="M8" t="n">
-        <v>156.8156663197546</v>
+        <v>372.2834058662052</v>
       </c>
       <c r="N8" t="n">
-        <v>164.0135202504115</v>
+        <v>382.9677530873099</v>
       </c>
       <c r="O8" t="n">
-        <v>141.4033554405812</v>
+        <v>348.1556286974036</v>
       </c>
       <c r="P8" t="n">
-        <v>85.8349965691599</v>
+        <v>262.2932784109602</v>
       </c>
       <c r="Q8" t="n">
-        <v>15.79916774065975</v>
+        <v>148.31198861839</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>46.6508773409395</v>
       </c>
       <c r="K9" t="n">
-        <v>52.65872908781469</v>
+        <v>158.6780472169987</v>
       </c>
       <c r="L9" t="n">
-        <v>117.596605360629</v>
+        <v>260.1526621818056</v>
       </c>
       <c r="M9" t="n">
-        <v>156.7820838755146</v>
+        <v>323.1382782510195</v>
       </c>
       <c r="N9" t="n">
-        <v>175.4858258996321</v>
+        <v>346.2449737319509</v>
       </c>
       <c r="O9" t="n">
-        <v>138.0910091848229</v>
+        <v>294.302268944006</v>
       </c>
       <c r="P9" t="n">
-        <v>91.30185944855694</v>
+        <v>216.6751672332329</v>
       </c>
       <c r="Q9" t="n">
-        <v>10.60944440764996</v>
+        <v>94.41818044892906</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>49.84612367850724</v>
       </c>
       <c r="L10" t="n">
-        <v>12.15921574646077</v>
+        <v>93.99375335563528</v>
       </c>
       <c r="M10" t="n">
-        <v>16.11138312061152</v>
+        <v>102.3944289806455</v>
       </c>
       <c r="N10" t="n">
-        <v>23.66518529520826</v>
+        <v>107.8966131767807</v>
       </c>
       <c r="O10" t="n">
-        <v>1.340357307400524</v>
+        <v>79.14171420769682</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>48.46489236084162</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K13" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L13" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M13" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N13" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O13" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P13" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q13" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K16" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L16" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M16" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N16" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O16" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P16" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q16" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129119</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859631</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K19" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L19" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M19" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N19" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O19" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P19" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q19" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882193</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P20" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609571</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K22" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L22" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M22" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N22" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O22" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P22" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q22" t="n">
-        <v>13.05128016014223</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36676,7 +36676,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
         <v>370.4021821340054</v>
@@ -36916,7 +36916,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
         <v>451.7942679013292</v>
@@ -36928,7 +36928,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q30" t="n">
         <v>159.2338966127272</v>
@@ -37150,7 +37150,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
         <v>370.4021821340054</v>
@@ -37165,7 +37165,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q33" t="n">
         <v>159.2338966127272</v>
@@ -37402,10 +37402,10 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37624,7 +37624,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
         <v>370.4021821340054</v>
@@ -37639,7 +37639,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q39" t="n">
         <v>159.2338966127272</v>
@@ -37870,7 +37870,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O42" t="n">
         <v>415.1124034525806</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_22_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_22_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>515726.662165859</v>
+        <v>565488.6672442006</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8088944.869226762</v>
+        <v>8547013.059513932</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8722880.896883905</v>
+        <v>8506890.903312847</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>165.1725371760947</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -667,16 +667,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>165.1725371760945</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -721,10 +721,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>15.37922103265835</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -785,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>72.43289562846316</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="U3" t="n">
-        <v>165.1725371760945</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="V3" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="X3" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>77.36042051497326</v>
       </c>
     </row>
     <row r="4">
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>52.21594625443466</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>52.21594625443444</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -901,16 +901,16 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>165.1725371760947</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>165.1725371760945</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663201</v>
       </c>
     </row>
     <row r="6">
@@ -974,19 +974,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>34.92041296071492</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>72.43289562846316</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1034,16 +1034,16 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>187.5255871663199</v>
+        <v>153.8125666657658</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>52.21594625443444</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>52.21594625443465</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1135,22 +1135,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="E8" t="n">
-        <v>98.44199958506118</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>411.8707348436268</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>304.326804756183</v>
+        <v>88.09081815943097</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>77.08171901666375</v>
       </c>
       <c r="S8" t="n">
-        <v>130.8133087092504</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1214,16 +1214,16 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1262,25 +1262,25 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>88.37993586869587</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8205739680685</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>179.9896253540991</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>185.62795066089</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>52.21594625443453</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>24.14763241892771</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1390,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1435,10 +1435,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>322.2053052889386</v>
       </c>
     </row>
     <row r="12">
@@ -1466,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,13 +1496,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T12" t="n">
-        <v>190.7165703189221</v>
+        <v>190.7165703189239</v>
       </c>
       <c r="U12" t="n">
         <v>225.7871683969286</v>
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>18.56488642963218</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1581,22 +1581,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>90.75600857766013</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>133.4571451339276</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>166.1465464887772</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1660,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1669,7 +1669,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1703,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851184</v>
       </c>
       <c r="I15" t="n">
-        <v>18.8172186824763</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T15" t="n">
         <v>190.7165703189231</v>
@@ -1770,19 +1770,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>20.95866062611014</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>118.8376584678373</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1821,10 +1821,10 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>85.95014028179303</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1858,13 +1858,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>404.2077653926914</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,19 +1894,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1940,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2010,13 +2010,13 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>127.6752559270064</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2055,22 +2055,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>108.7175251574343</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2089,7 +2089,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2101,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,19 +2134,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>148.2863188203554</v>
       </c>
       <c r="X20" t="n">
-        <v>183.1642512458438</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2177,10 +2177,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2256,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>127.6216357996075</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2304,10 +2304,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>169.8236031041668</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2317,13 +2317,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>5.732180395783987</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2332,13 +2332,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2377,16 +2377,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>240.7199646803063</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2478,19 +2478,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>127.6752559270064</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2532,13 +2532,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>72.08802744677259</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2563,16 +2563,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>354.0325935748016</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>174.2568275134125</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2724,13 +2724,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2781,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>37.67709528776653</v>
+        <v>94.57983363107959</v>
       </c>
     </row>
     <row r="29">
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>201.6086852141636</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2803,7 +2803,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>410.9217256534534</v>
@@ -2812,7 +2812,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>240.7993282701416</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2857,7 +2857,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2921,7 +2921,7 @@
         <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414548</v>
       </c>
       <c r="T30" t="n">
         <v>190.7165703189231</v>
@@ -2952,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>150.4026958753531</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2961,7 +2961,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.0258082590282</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3009,7 +3009,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3018,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>132.6182532445037</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3028,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,16 +3079,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>91.06967859962555</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3097,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>213.0175435007612</v>
       </c>
     </row>
     <row r="33">
@@ -3195,13 +3195,13 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>15.96207421581205</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>47.38664856090042</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3240,22 +3240,22 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>5.247097505315403</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3280,13 +3280,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3322,16 +3322,16 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>307.9106482020894</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3426,19 +3426,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>11.31173967923165</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3486,10 +3486,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>40.87152028304765</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3514,7 +3514,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>236.741056040672</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
@@ -3565,13 +3565,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>277.3402843603905</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>13.62519315636324</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -3672,10 +3672,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3726,10 +3726,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>203.7029035467948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3757,7 +3757,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>33.78298043858015</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3793,19 +3793,19 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>53.92473353638316</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3903,13 +3903,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>125.0663096025708</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.0258082590282</v>
@@ -3948,16 +3948,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>25.42907173311878</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3976,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>301.2402584038907</v>
+        <v>252.3474771205406</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -3991,13 +3991,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4036,7 +4036,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4137,10 +4137,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>14.74106137621244</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4188,22 +4188,22 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>20.95866062610969</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>750.1023486652795</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="C2" t="n">
-        <v>750.1023486652795</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="D2" t="n">
-        <v>750.1023486652795</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="E2" t="n">
-        <v>583.2614020227597</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="F2" t="n">
-        <v>393.841617006275</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="G2" t="n">
-        <v>204.4218319897903</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="H2" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678478</v>
+        <v>21.03371160678523</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058939</v>
+        <v>80.8121315905899</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079184</v>
+        <v>191.874309407919</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644753</v>
+        <v>347.1218190644761</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123826</v>
+        <v>509.4952041123835</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985582</v>
+        <v>649.4845259985591</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020263</v>
+        <v>734.4611726020275</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="R2" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="S2" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="T2" t="n">
-        <v>750.1023486652795</v>
+        <v>560.6825636487957</v>
       </c>
       <c r="U2" t="n">
-        <v>750.1023486652795</v>
+        <v>560.6825636487957</v>
       </c>
       <c r="V2" t="n">
-        <v>750.1023486652795</v>
+        <v>560.6825636487957</v>
       </c>
       <c r="W2" t="n">
-        <v>750.1023486652795</v>
+        <v>371.2627786323106</v>
       </c>
       <c r="X2" t="n">
-        <v>750.1023486652795</v>
+        <v>181.8429936158256</v>
       </c>
       <c r="Y2" t="n">
-        <v>750.1023486652795</v>
+        <v>181.8429936158256</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15.00204697330559</v>
+        <v>30.53661367296052</v>
       </c>
       <c r="C3" t="n">
-        <v>15.00204697330559</v>
+        <v>30.53661367296052</v>
       </c>
       <c r="D3" t="n">
-        <v>15.00204697330559</v>
+        <v>30.53661367296052</v>
       </c>
       <c r="E3" t="n">
-        <v>15.00204697330559</v>
+        <v>30.53661367296052</v>
       </c>
       <c r="F3" t="n">
-        <v>15.00204697330559</v>
+        <v>30.53661367296052</v>
       </c>
       <c r="G3" t="n">
-        <v>15.00204697330559</v>
+        <v>30.53661367296052</v>
       </c>
       <c r="H3" t="n">
-        <v>15.00204697330559</v>
+        <v>30.53661367296052</v>
       </c>
       <c r="I3" t="n">
-        <v>15.00204697330559</v>
+        <v>30.53661367296052</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024208</v>
+        <v>67.13418877024222</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772649</v>
+        <v>183.5548280772651</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140243</v>
+        <v>338.7690911140247</v>
       </c>
       <c r="N3" t="n">
-        <v>512.50005875466</v>
+        <v>512.5000587546606</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476347</v>
+        <v>649.2101578476354</v>
       </c>
       <c r="P3" t="n">
-        <v>739.598998701706</v>
+        <v>739.5989987017068</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652795</v>
+        <v>676.9378076264292</v>
       </c>
       <c r="S3" t="n">
-        <v>750.1023486652795</v>
+        <v>676.9378076264292</v>
       </c>
       <c r="T3" t="n">
-        <v>750.1023486652795</v>
+        <v>487.5180226099441</v>
       </c>
       <c r="U3" t="n">
-        <v>583.2614020227597</v>
+        <v>298.098237593459</v>
       </c>
       <c r="V3" t="n">
-        <v>393.841617006275</v>
+        <v>298.098237593459</v>
       </c>
       <c r="W3" t="n">
-        <v>204.4218319897903</v>
+        <v>108.6784525769739</v>
       </c>
       <c r="X3" t="n">
-        <v>15.00204697330559</v>
+        <v>108.6784525769739</v>
       </c>
       <c r="Y3" t="n">
-        <v>15.00204697330559</v>
+        <v>30.53661367296052</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="C4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="D4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="E4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="F4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="G4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="H4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="I4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="K4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230175</v>
+        <v>27.03967056230184</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170716</v>
+        <v>42.98993985170731</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396334</v>
+        <v>66.41847329396354</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702829012</v>
       </c>
       <c r="P4" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702829012</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702829012</v>
       </c>
       <c r="R4" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="S4" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="T4" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="U4" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="V4" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="W4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="X4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="Y4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330562</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>393.841617006275</v>
+        <v>371.2627786323105</v>
       </c>
       <c r="C5" t="n">
-        <v>393.841617006275</v>
+        <v>371.2627786323105</v>
       </c>
       <c r="D5" t="n">
-        <v>204.4218319897903</v>
+        <v>371.2627786323105</v>
       </c>
       <c r="E5" t="n">
-        <v>15.00204697330559</v>
+        <v>371.2627786323105</v>
       </c>
       <c r="F5" t="n">
-        <v>15.00204697330559</v>
+        <v>204.4218319897906</v>
       </c>
       <c r="G5" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="H5" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="I5" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="J5" t="n">
         <v>21.03371160678489</v>
       </c>
       <c r="K5" t="n">
-        <v>80.81213159058939</v>
+        <v>80.81213159058956</v>
       </c>
       <c r="L5" t="n">
-        <v>191.8743094079184</v>
+        <v>191.8743094079187</v>
       </c>
       <c r="M5" t="n">
-        <v>347.1218190644754</v>
+        <v>347.1218190644757</v>
       </c>
       <c r="N5" t="n">
-        <v>509.4952041123828</v>
+        <v>509.4952041123832</v>
       </c>
       <c r="O5" t="n">
-        <v>649.4845259985582</v>
+        <v>649.4845259985589</v>
       </c>
       <c r="P5" t="n">
-        <v>734.4611726020263</v>
+        <v>734.4611726020272</v>
       </c>
       <c r="Q5" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="R5" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="S5" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="T5" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="U5" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="V5" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="W5" t="n">
-        <v>583.2614020227597</v>
+        <v>560.6825636487955</v>
       </c>
       <c r="X5" t="n">
-        <v>583.2614020227597</v>
+        <v>560.6825636487955</v>
       </c>
       <c r="Y5" t="n">
-        <v>393.841617006275</v>
+        <v>371.2627786323105</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>371.2627786323102</v>
+        <v>163.9364566345569</v>
       </c>
       <c r="C6" t="n">
-        <v>196.8097493511832</v>
+        <v>163.9364566345569</v>
       </c>
       <c r="D6" t="n">
-        <v>196.8097493511832</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="E6" t="n">
-        <v>161.5366049464206</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="F6" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="G6" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="H6" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="I6" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="J6" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="K6" t="n">
-        <v>67.13418877024213</v>
+        <v>67.13418877024219</v>
       </c>
       <c r="L6" t="n">
-        <v>183.5548280772649</v>
+        <v>183.5548280772652</v>
       </c>
       <c r="M6" t="n">
-        <v>338.7690911140244</v>
+        <v>338.7690911140247</v>
       </c>
       <c r="N6" t="n">
-        <v>512.5000587546601</v>
+        <v>512.5000587546606</v>
       </c>
       <c r="O6" t="n">
-        <v>649.2101578476348</v>
+        <v>649.2101578476354</v>
       </c>
       <c r="P6" t="n">
-        <v>739.5989987017063</v>
+        <v>739.5989987017069</v>
       </c>
       <c r="Q6" t="n">
-        <v>750.1023486652797</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="R6" t="n">
-        <v>750.1023486652797</v>
+        <v>676.9378076264288</v>
       </c>
       <c r="S6" t="n">
-        <v>750.1023486652797</v>
+        <v>676.9378076264288</v>
       </c>
       <c r="T6" t="n">
-        <v>750.1023486652797</v>
+        <v>676.9378076264288</v>
       </c>
       <c r="U6" t="n">
-        <v>750.1023486652797</v>
+        <v>676.9378076264288</v>
       </c>
       <c r="V6" t="n">
-        <v>560.6825636487949</v>
+        <v>521.5715786711098</v>
       </c>
       <c r="W6" t="n">
-        <v>560.6825636487949</v>
+        <v>332.1517936546249</v>
       </c>
       <c r="X6" t="n">
-        <v>560.6825636487949</v>
+        <v>332.1517936546249</v>
       </c>
       <c r="Y6" t="n">
-        <v>371.2627786323102</v>
+        <v>332.1517936546249</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="C7" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="D7" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="E7" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="F7" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="G7" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="H7" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="I7" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="J7" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="K7" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="L7" t="n">
-        <v>27.03967056230175</v>
+        <v>27.03967056230183</v>
       </c>
       <c r="M7" t="n">
-        <v>42.98993985170716</v>
+        <v>42.98993985170729</v>
       </c>
       <c r="N7" t="n">
-        <v>66.41847329396334</v>
+        <v>66.41847329396353</v>
       </c>
       <c r="O7" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="P7" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="Q7" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="R7" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="S7" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="T7" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="U7" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="V7" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="W7" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="X7" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="Y7" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330561</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1646.185839666972</v>
+        <v>482.8222414097412</v>
       </c>
       <c r="C8" t="n">
-        <v>1277.22332272656</v>
+        <v>482.8222414097412</v>
       </c>
       <c r="D8" t="n">
-        <v>1277.22332272656</v>
+        <v>293.4024563932562</v>
       </c>
       <c r="E8" t="n">
-        <v>1177.786959509327</v>
+        <v>103.9826713767712</v>
       </c>
       <c r="F8" t="n">
-        <v>766.8010547197192</v>
+        <v>103.9826713767712</v>
       </c>
       <c r="G8" t="n">
-        <v>350.7700094231265</v>
+        <v>103.9826713767712</v>
       </c>
       <c r="H8" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="I8" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="J8" t="n">
-        <v>152.50781843019</v>
+        <v>21.03371160678504</v>
       </c>
       <c r="K8" t="n">
-        <v>366.8168396232717</v>
+        <v>80.81213159059007</v>
       </c>
       <c r="L8" t="n">
-        <v>669.5878927711866</v>
+        <v>191.8743094079194</v>
       </c>
       <c r="M8" t="n">
-        <v>1038.14846457873</v>
+        <v>347.1218190644765</v>
       </c>
       <c r="N8" t="n">
-        <v>1417.286540135166</v>
+        <v>509.495204112384</v>
       </c>
       <c r="O8" t="n">
-        <v>1761.960612545596</v>
+        <v>649.4845259985593</v>
       </c>
       <c r="P8" t="n">
-        <v>2021.630958172447</v>
+        <v>734.4611726020273</v>
       </c>
       <c r="Q8" t="n">
-        <v>2168.459826904653</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="R8" t="n">
-        <v>2168.459826904653</v>
+        <v>672.2420264262262</v>
       </c>
       <c r="S8" t="n">
-        <v>2036.325171642784</v>
+        <v>672.2420264262262</v>
       </c>
       <c r="T8" t="n">
-        <v>2036.325171642784</v>
+        <v>672.2420264262262</v>
       </c>
       <c r="U8" t="n">
-        <v>2036.325171642784</v>
+        <v>672.2420264262262</v>
       </c>
       <c r="V8" t="n">
-        <v>2036.325171642784</v>
+        <v>482.8222414097412</v>
       </c>
       <c r="W8" t="n">
-        <v>2036.325171642784</v>
+        <v>482.8222414097412</v>
       </c>
       <c r="X8" t="n">
-        <v>2036.325171642784</v>
+        <v>482.8222414097412</v>
       </c>
       <c r="Y8" t="n">
-        <v>1646.185839666972</v>
+        <v>482.8222414097412</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>349.1412095166636</v>
+        <v>189.4550762544326</v>
       </c>
       <c r="C9" t="n">
-        <v>349.1412095166636</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="D9" t="n">
-        <v>349.1412095166636</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="E9" t="n">
-        <v>189.9037545112081</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="F9" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="G9" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="H9" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="I9" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="J9" t="n">
-        <v>89.55356510562316</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="K9" t="n">
-        <v>246.6448318504519</v>
+        <v>67.13418877024219</v>
       </c>
       <c r="L9" t="n">
-        <v>504.1959674104395</v>
+        <v>183.554828077265</v>
       </c>
       <c r="M9" t="n">
-        <v>824.1028628789488</v>
+        <v>338.7690911140245</v>
       </c>
       <c r="N9" t="n">
-        <v>1166.88538687358</v>
+        <v>512.5000587546604</v>
       </c>
       <c r="O9" t="n">
-        <v>1458.244633128146</v>
+        <v>649.2101578476351</v>
       </c>
       <c r="P9" t="n">
-        <v>1672.753048689047</v>
+        <v>739.5989987017065</v>
       </c>
       <c r="Q9" t="n">
-        <v>1766.227047333487</v>
+        <v>750.1023486652799</v>
       </c>
       <c r="R9" t="n">
-        <v>1766.227047333487</v>
+        <v>750.1023486652799</v>
       </c>
       <c r="S9" t="n">
-        <v>1676.954384839854</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="T9" t="n">
-        <v>1482.24406331383</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="U9" t="n">
-        <v>1254.142473447095</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="V9" t="n">
-        <v>1018.990365215352</v>
+        <v>560.6825636487955</v>
       </c>
       <c r="W9" t="n">
-        <v>764.7530084871503</v>
+        <v>371.2627786323105</v>
       </c>
       <c r="X9" t="n">
-        <v>556.9015082816175</v>
+        <v>189.4550762544326</v>
       </c>
       <c r="Y9" t="n">
-        <v>349.1412095166636</v>
+        <v>189.4550762544326</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="C10" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="D10" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="E10" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="F10" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="G10" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="H10" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="I10" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="J10" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="K10" t="n">
-        <v>92.71685897981521</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="L10" t="n">
-        <v>185.7706748018941</v>
+        <v>27.0396705623018</v>
       </c>
       <c r="M10" t="n">
-        <v>287.1411594927332</v>
+        <v>42.98993985170723</v>
       </c>
       <c r="N10" t="n">
-        <v>393.9588065377461</v>
+        <v>66.41847329396344</v>
       </c>
       <c r="O10" t="n">
-        <v>472.3091036033659</v>
+        <v>67.74542702829</v>
       </c>
       <c r="P10" t="n">
-        <v>520.2893470405991</v>
+        <v>67.74542702829</v>
       </c>
       <c r="Q10" t="n">
-        <v>520.2893470405991</v>
+        <v>67.74542702829</v>
       </c>
       <c r="R10" t="n">
-        <v>520.2893470405991</v>
+        <v>67.74542702829</v>
       </c>
       <c r="S10" t="n">
-        <v>332.7863665750536</v>
+        <v>67.74542702829</v>
       </c>
       <c r="T10" t="n">
-        <v>332.7863665750536</v>
+        <v>67.74542702829</v>
       </c>
       <c r="U10" t="n">
-        <v>332.7863665750536</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="V10" t="n">
-        <v>332.7863665750536</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="W10" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="X10" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="Y10" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330561</v>
       </c>
     </row>
     <row r="11">
@@ -5017,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2047.583838282732</v>
+        <v>1689.318139675982</v>
       </c>
       <c r="C11" t="n">
-        <v>1678.62132134232</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D11" t="n">
         <v>1320.35562273557</v>
@@ -5038,13 +5038,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912096</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329465</v>
@@ -5053,7 +5053,7 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
         <v>2623.528026939508</v>
@@ -5062,31 +5062,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R11" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T11" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U11" t="n">
-        <v>2755.806928794324</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="V11" t="n">
-        <v>2424.744041450753</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="W11" t="n">
-        <v>2071.975386180639</v>
+        <v>2388.243802269323</v>
       </c>
       <c r="X11" t="n">
-        <v>2071.975386180639</v>
+        <v>2014.778044008243</v>
       </c>
       <c r="Y11" t="n">
-        <v>2071.975386180639</v>
+        <v>1689.318139675982</v>
       </c>
     </row>
     <row r="12">
@@ -5111,43 +5111,43 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L12" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T12" t="n">
         <v>2242.828302297192</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>380.4321398396066</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C13" t="n">
-        <v>380.4321398396066</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D13" t="n">
-        <v>380.4321398396066</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E13" t="n">
-        <v>380.4321398396066</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F13" t="n">
-        <v>380.4321398396066</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G13" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J13" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962291</v>
       </c>
       <c r="K13" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L13" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M13" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588485</v>
       </c>
       <c r="N13" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886961</v>
       </c>
       <c r="O13" t="n">
-        <v>809.0152357068853</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P13" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q13" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R13" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="S13" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="T13" t="n">
-        <v>920.8870058181845</v>
+        <v>699.1203903877115</v>
       </c>
       <c r="U13" t="n">
-        <v>920.8870058181845</v>
+        <v>699.1203903877115</v>
       </c>
       <c r="V13" t="n">
-        <v>829.2142698811541</v>
+        <v>699.1203903877115</v>
       </c>
       <c r="W13" t="n">
-        <v>829.2142698811541</v>
+        <v>699.1203903877115</v>
       </c>
       <c r="X13" t="n">
-        <v>601.2247189831368</v>
+        <v>699.1203903877115</v>
       </c>
       <c r="Y13" t="n">
-        <v>380.4321398396066</v>
+        <v>699.1203903877115</v>
       </c>
     </row>
     <row r="14">
@@ -5254,13 +5254,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1636.624422581789</v>
+        <v>1418.660964416653</v>
       </c>
       <c r="C14" t="n">
-        <v>1636.624422581789</v>
+        <v>1250.836169983545</v>
       </c>
       <c r="D14" t="n">
-        <v>1278.358723975039</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="E14" t="n">
         <v>892.5704713767946</v>
@@ -5269,37 +5269,37 @@
         <v>481.5845665871869</v>
       </c>
       <c r="G14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912087</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R14" t="n">
         <v>3325.605821609171</v>
@@ -5308,22 +5308,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T14" t="n">
-        <v>3119.628073993393</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U14" t="n">
-        <v>2866.097597267229</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V14" t="n">
-        <v>2535.034709923658</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="W14" t="n">
-        <v>2535.034709923658</v>
+        <v>2182.266054653545</v>
       </c>
       <c r="X14" t="n">
-        <v>2161.568951662578</v>
+        <v>1808.800296392465</v>
       </c>
       <c r="Y14" t="n">
-        <v>1771.429619686767</v>
+        <v>1418.660964416653</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811093</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999823</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387292</v>
+        <v>618.156415538731</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332755</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601605</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927768</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064433</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L15" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M15" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>631.469835781224</v>
+        <v>87.68248070098156</v>
       </c>
       <c r="C16" t="n">
-        <v>631.469835781224</v>
+        <v>87.68248070098156</v>
       </c>
       <c r="D16" t="n">
-        <v>481.3531963688882</v>
+        <v>87.68248070098156</v>
       </c>
       <c r="E16" t="n">
-        <v>333.4401027864951</v>
+        <v>87.68248070098156</v>
       </c>
       <c r="F16" t="n">
-        <v>186.5501552885848</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G16" t="n">
-        <v>186.5501552885848</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J16" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962291</v>
       </c>
       <c r="K16" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L16" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M16" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588485</v>
       </c>
       <c r="N16" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886961</v>
       </c>
       <c r="O16" t="n">
-        <v>809.0152357068853</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P16" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q16" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R16" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="S16" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="T16" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="U16" t="n">
-        <v>920.8870058181845</v>
+        <v>631.784138943829</v>
       </c>
       <c r="V16" t="n">
-        <v>920.8870058181845</v>
+        <v>377.0996507379422</v>
       </c>
       <c r="W16" t="n">
-        <v>631.469835781224</v>
+        <v>87.68248070098156</v>
       </c>
       <c r="X16" t="n">
-        <v>631.469835781224</v>
+        <v>87.68248070098156</v>
       </c>
       <c r="Y16" t="n">
-        <v>631.469835781224</v>
+        <v>87.68248070098156</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1969.423143692379</v>
+        <v>1221.551972426786</v>
       </c>
       <c r="C17" t="n">
-        <v>1969.423143692379</v>
+        <v>1221.551972426786</v>
       </c>
       <c r="D17" t="n">
-        <v>1611.157445085629</v>
+        <v>863.2862738200351</v>
       </c>
       <c r="E17" t="n">
-        <v>1225.369192487385</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F17" t="n">
-        <v>814.3832876977772</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G17" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H17" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J17" t="n">
         <v>255.3912473912096</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R17" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T17" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U17" t="n">
-        <v>3119.628073993393</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V17" t="n">
-        <v>3119.628073993393</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W17" t="n">
-        <v>3119.628073993393</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X17" t="n">
-        <v>2746.162315732313</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y17" t="n">
-        <v>2356.022983756501</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="18">
@@ -5591,16 +5591,16 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>361.3151575124869</v>
+        <v>342.366968906868</v>
       </c>
       <c r="C19" t="n">
-        <v>361.3151575124869</v>
+        <v>342.366968906868</v>
       </c>
       <c r="D19" t="n">
-        <v>361.3151575124869</v>
+        <v>342.366968906868</v>
       </c>
       <c r="E19" t="n">
-        <v>213.4020639300938</v>
+        <v>342.366968906868</v>
       </c>
       <c r="F19" t="n">
-        <v>66.51211643218342</v>
+        <v>195.4770214089576</v>
       </c>
       <c r="G19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J19" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K19" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L19" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M19" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N19" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O19" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P19" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q19" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R19" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S19" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T19" t="n">
-        <v>699.1203903877106</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U19" t="n">
-        <v>699.1203903877106</v>
+        <v>631.7841389438286</v>
       </c>
       <c r="V19" t="n">
-        <v>699.1203903877106</v>
+        <v>631.7841389438286</v>
       </c>
       <c r="W19" t="n">
-        <v>699.1203903877106</v>
+        <v>342.366968906868</v>
       </c>
       <c r="X19" t="n">
-        <v>471.1308394896932</v>
+        <v>342.366968906868</v>
       </c>
       <c r="Y19" t="n">
-        <v>361.3151575124869</v>
+        <v>342.366968906868</v>
       </c>
     </row>
     <row r="20">
@@ -5728,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2047.583838282732</v>
+        <v>1661.795585684488</v>
       </c>
       <c r="C20" t="n">
-        <v>1678.62132134232</v>
+        <v>1292.833068744076</v>
       </c>
       <c r="D20" t="n">
-        <v>1320.35562273557</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E20" t="n">
         <v>934.5673701373257</v>
@@ -5749,31 +5749,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J20" t="n">
         <v>255.3912473912096</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N20" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R20" t="n">
         <v>3325.605821609171</v>
@@ -5782,22 +5782,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T20" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U20" t="n">
-        <v>3009.337405520488</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V20" t="n">
-        <v>3009.337405520488</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="W20" t="n">
-        <v>3009.337405520488</v>
+        <v>2812.000515985501</v>
       </c>
       <c r="X20" t="n">
-        <v>2824.323010322666</v>
+        <v>2438.534757724422</v>
       </c>
       <c r="Y20" t="n">
-        <v>2434.183678346854</v>
+        <v>2048.39542574861</v>
       </c>
     </row>
     <row r="21">
@@ -5807,19 +5807,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G21" t="n">
         <v>176.021302392778</v>
@@ -5828,22 +5828,22 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J21" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O21" t="n">
         <v>2096.912393410638</v>
@@ -5864,7 +5864,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V21" t="n">
         <v>1779.608347199865</v>
@@ -5873,10 +5873,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>382.3382468580007</v>
+        <v>528.555433640143</v>
       </c>
       <c r="C22" t="n">
-        <v>213.4020639300938</v>
+        <v>359.619250712236</v>
       </c>
       <c r="D22" t="n">
-        <v>213.4020639300938</v>
+        <v>359.619250712236</v>
       </c>
       <c r="E22" t="n">
-        <v>213.4020639300938</v>
+        <v>359.619250712236</v>
       </c>
       <c r="F22" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="G22" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H22" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J22" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K22" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L22" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M22" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N22" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O22" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P22" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q22" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R22" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S22" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T22" t="n">
-        <v>791.9762625862578</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U22" t="n">
-        <v>791.9762625862578</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V22" t="n">
-        <v>791.9762625862578</v>
+        <v>920.887005818185</v>
       </c>
       <c r="W22" t="n">
-        <v>791.9762625862578</v>
+        <v>920.887005818185</v>
       </c>
       <c r="X22" t="n">
-        <v>563.9867116882405</v>
+        <v>749.3480127836731</v>
       </c>
       <c r="Y22" t="n">
-        <v>563.9867116882405</v>
+        <v>528.555433640143</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2345.167438673965</v>
+        <v>1238.038871968309</v>
       </c>
       <c r="C23" t="n">
-        <v>1976.204921733553</v>
+        <v>869.0763550278978</v>
       </c>
       <c r="D23" t="n">
-        <v>1617.939223126803</v>
+        <v>863.2862738200351</v>
       </c>
       <c r="E23" t="n">
-        <v>1232.150970528558</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F23" t="n">
-        <v>821.1650657389509</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G23" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H23" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I23" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O23" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R23" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S23" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T23" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U23" t="n">
-        <v>2961.784676410102</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="V23" t="n">
-        <v>2961.784676410102</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="W23" t="n">
-        <v>2718.633196935045</v>
+        <v>2388.243802269323</v>
       </c>
       <c r="X23" t="n">
-        <v>2345.167438673965</v>
+        <v>2014.778044008243</v>
       </c>
       <c r="Y23" t="n">
-        <v>2345.167438673965</v>
+        <v>1624.638712032431</v>
       </c>
     </row>
     <row r="24">
@@ -6044,37 +6044,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C24" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D24" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E24" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F24" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G24" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I24" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J24" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K24" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L24" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
@@ -6101,7 +6101,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U24" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V24" t="n">
         <v>1779.608347199865</v>
@@ -6110,10 +6110,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X24" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y24" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="25">
@@ -6123,31 +6123,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>848.0708164780106</v>
+        <v>342.366968906868</v>
       </c>
       <c r="C25" t="n">
-        <v>679.1346335501037</v>
+        <v>342.366968906868</v>
       </c>
       <c r="D25" t="n">
-        <v>529.0179941377679</v>
+        <v>342.366968906868</v>
       </c>
       <c r="E25" t="n">
-        <v>381.1049005553748</v>
+        <v>342.366968906868</v>
       </c>
       <c r="F25" t="n">
-        <v>234.2149530574645</v>
+        <v>195.4770214089576</v>
       </c>
       <c r="G25" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H25" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I25" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J25" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K25" t="n">
         <v>176.6457242372933</v>
@@ -6156,43 +6156,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M25" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N25" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O25" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P25" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q25" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R25" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S25" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T25" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U25" t="n">
-        <v>920.8870058181849</v>
+        <v>631.7841389438286</v>
       </c>
       <c r="V25" t="n">
-        <v>848.0708164780106</v>
+        <v>631.7841389438286</v>
       </c>
       <c r="W25" t="n">
-        <v>848.0708164780106</v>
+        <v>342.366968906868</v>
       </c>
       <c r="X25" t="n">
-        <v>848.0708164780106</v>
+        <v>342.366968906868</v>
       </c>
       <c r="Y25" t="n">
-        <v>848.0708164780106</v>
+        <v>342.366968906868</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1384.829779622645</v>
+        <v>1977.407367302544</v>
       </c>
       <c r="C26" t="n">
-        <v>1015.867262682233</v>
+        <v>1608.444850362132</v>
       </c>
       <c r="D26" t="n">
-        <v>657.6015640754824</v>
+        <v>1250.179151755382</v>
       </c>
       <c r="E26" t="n">
-        <v>657.6015640754824</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F26" t="n">
-        <v>657.6015640754824</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G26" t="n">
-        <v>242.5291139204789</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H26" t="n">
         <v>66.5121164321834</v>
@@ -6226,10 +6226,10 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L26" t="n">
         <v>1040.244834329464</v>
@@ -6256,22 +6256,22 @@
         <v>3325.60582160917</v>
       </c>
       <c r="T26" t="n">
-        <v>3119.628073993392</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U26" t="n">
-        <v>2866.097597267229</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V26" t="n">
-        <v>2535.034709923658</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W26" t="n">
-        <v>2535.034709923658</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="X26" t="n">
-        <v>2161.568951662578</v>
+        <v>2367.546699278356</v>
       </c>
       <c r="Y26" t="n">
-        <v>1771.429619686766</v>
+        <v>1977.407367302544</v>
       </c>
     </row>
     <row r="27">
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>701.1808689801002</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="C28" t="n">
-        <v>532.2446860521933</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D28" t="n">
-        <v>382.1280466398575</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E28" t="n">
-        <v>234.2149530574644</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F28" t="n">
-        <v>234.2149530574644</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G28" t="n">
-        <v>66.5121164321834</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H28" t="n">
         <v>66.5121164321834</v>
@@ -6429,7 +6429,7 @@
         <v>920.8870058181849</v>
       </c>
       <c r="Y28" t="n">
-        <v>882.8293338103399</v>
+        <v>825.3518203322459</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1636.597933493125</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C29" t="n">
-        <v>1267.635416552713</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D29" t="n">
-        <v>909.3697179459625</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E29" t="n">
-        <v>523.5814653477182</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F29" t="n">
-        <v>523.5814653477182</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G29" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H29" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I29" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L29" t="n">
         <v>1040.244834329464</v>
@@ -6490,25 +6490,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S29" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T29" t="n">
-        <v>3009.337405520487</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U29" t="n">
-        <v>2766.105760803172</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V29" t="n">
-        <v>2766.105760803172</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W29" t="n">
-        <v>2413.337105533058</v>
+        <v>2972.837166339056</v>
       </c>
       <c r="X29" t="n">
-        <v>2413.337105533058</v>
+        <v>2599.371408077976</v>
       </c>
       <c r="Y29" t="n">
-        <v>2023.197773557246</v>
+        <v>2209.232076102164</v>
       </c>
     </row>
     <row r="30">
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>532.2446860521933</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="C31" t="n">
-        <v>532.2446860521933</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D31" t="n">
-        <v>382.1280466398575</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E31" t="n">
-        <v>234.2149530574644</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F31" t="n">
         <v>234.2149530574644</v>
@@ -6645,28 +6645,28 @@
         <v>920.8870058181849</v>
       </c>
       <c r="R31" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S31" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="T31" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="U31" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="V31" t="n">
-        <v>666.202517612298</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="W31" t="n">
-        <v>666.202517612298</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="X31" t="n">
-        <v>666.202517612298</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="Y31" t="n">
-        <v>532.2446860521933</v>
+        <v>831.0565485757129</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1477.112184968822</v>
+        <v>1689.318139675982</v>
       </c>
       <c r="C32" t="n">
-        <v>1108.149668028411</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D32" t="n">
-        <v>749.8839694216604</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E32" t="n">
-        <v>364.0957168234162</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F32" t="n">
-        <v>364.0957168234162</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G32" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H32" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I32" t="n">
         <v>66.5121164321834</v>
@@ -6703,13 +6703,13 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L32" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M32" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N32" t="n">
         <v>2120.555556060171</v>
@@ -6727,25 +6727,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S32" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T32" t="n">
-        <v>3233.616247266114</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U32" t="n">
-        <v>2980.08577053995</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V32" t="n">
-        <v>2980.08577053995</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W32" t="n">
-        <v>2627.317115269836</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="X32" t="n">
-        <v>2253.851357008756</v>
+        <v>1904.487375535336</v>
       </c>
       <c r="Y32" t="n">
-        <v>1863.712025032944</v>
+        <v>1689.318139675982</v>
       </c>
     </row>
     <row r="33">
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>250.3382603461635</v>
+        <v>114.3774180088505</v>
       </c>
       <c r="C34" t="n">
-        <v>250.3382603461635</v>
+        <v>114.3774180088505</v>
       </c>
       <c r="D34" t="n">
-        <v>250.3382603461635</v>
+        <v>114.3774180088505</v>
       </c>
       <c r="E34" t="n">
-        <v>234.2149530574644</v>
+        <v>114.3774180088505</v>
       </c>
       <c r="F34" t="n">
-        <v>234.2149530574644</v>
+        <v>114.3774180088505</v>
       </c>
       <c r="G34" t="n">
         <v>66.5121164321834</v>
@@ -6888,22 +6888,22 @@
         <v>920.8870058181849</v>
       </c>
       <c r="T34" t="n">
-        <v>699.1203903877109</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U34" t="n">
-        <v>699.1203903877109</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="V34" t="n">
-        <v>699.1203903877109</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="W34" t="n">
-        <v>699.1203903877109</v>
+        <v>342.3669689068678</v>
       </c>
       <c r="X34" t="n">
-        <v>471.1308394896936</v>
+        <v>114.3774180088505</v>
       </c>
       <c r="Y34" t="n">
-        <v>250.3382603461635</v>
+        <v>114.3774180088505</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1986.901740067214</v>
+        <v>1590.514489367197</v>
       </c>
       <c r="C35" t="n">
-        <v>1617.939223126803</v>
+        <v>1221.551972426786</v>
       </c>
       <c r="D35" t="n">
-        <v>1617.939223126803</v>
+        <v>863.2862738200351</v>
       </c>
       <c r="E35" t="n">
-        <v>1232.150970528558</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F35" t="n">
-        <v>821.1650657389509</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G35" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H35" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I35" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T35" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U35" t="n">
-        <v>2755.806928794324</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V35" t="n">
-        <v>2755.806928794324</v>
+        <v>2678.274518176918</v>
       </c>
       <c r="W35" t="n">
-        <v>2755.806928794324</v>
+        <v>2678.274518176918</v>
       </c>
       <c r="X35" t="n">
-        <v>2382.341170533244</v>
+        <v>2367.25366140713</v>
       </c>
       <c r="Y35" t="n">
-        <v>1992.201838557432</v>
+        <v>1977.114329431319</v>
       </c>
     </row>
     <row r="36">
@@ -7007,16 +7007,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I36" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K36" t="n">
         <v>398.4535849031479</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>697.9541770656748</v>
+        <v>228.0547555205107</v>
       </c>
       <c r="C37" t="n">
-        <v>529.0179941377679</v>
+        <v>228.0547555205107</v>
       </c>
       <c r="D37" t="n">
-        <v>529.0179941377679</v>
+        <v>77.938116108175</v>
       </c>
       <c r="E37" t="n">
-        <v>381.1049005553748</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F37" t="n">
-        <v>234.2149530574644</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G37" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H37" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I37" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J37" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K37" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L37" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M37" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N37" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O37" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P37" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q37" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R37" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S37" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T37" t="n">
-        <v>920.8870058181849</v>
+        <v>699.120390387711</v>
       </c>
       <c r="U37" t="n">
-        <v>920.8870058181849</v>
+        <v>699.120390387711</v>
       </c>
       <c r="V37" t="n">
-        <v>920.8870058181849</v>
+        <v>699.120390387711</v>
       </c>
       <c r="W37" t="n">
-        <v>920.8870058181849</v>
+        <v>409.7032203507504</v>
       </c>
       <c r="X37" t="n">
-        <v>879.6026418959145</v>
+        <v>409.7032203507504</v>
       </c>
       <c r="Y37" t="n">
-        <v>879.6026418959145</v>
+        <v>409.7032203507504</v>
       </c>
     </row>
     <row r="38">
@@ -7150,31 +7150,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1590.514489367197</v>
+        <v>1418.660964416652</v>
       </c>
       <c r="C38" t="n">
-        <v>1221.551972426786</v>
+        <v>1049.698447476241</v>
       </c>
       <c r="D38" t="n">
-        <v>863.2862738200351</v>
+        <v>691.4327488694903</v>
       </c>
       <c r="E38" t="n">
-        <v>477.498021221791</v>
+        <v>305.6444962712461</v>
       </c>
       <c r="F38" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G38" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H38" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I38" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K38" t="n">
         <v>589.2106210810553</v>
@@ -7198,28 +7198,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T38" t="n">
-        <v>3215.315153136265</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U38" t="n">
-        <v>2961.784676410101</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V38" t="n">
-        <v>2630.721789066531</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W38" t="n">
-        <v>2630.721789066531</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X38" t="n">
-        <v>2257.256030805451</v>
+        <v>1808.800296392464</v>
       </c>
       <c r="Y38" t="n">
-        <v>1977.114329431319</v>
+        <v>1418.660964416652</v>
       </c>
     </row>
     <row r="39">
@@ -7229,37 +7229,37 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I39" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
@@ -7286,7 +7286,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V39" t="n">
         <v>1779.608347199865</v>
@@ -7295,10 +7295,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="40">
@@ -7308,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>533.4780323548191</v>
+        <v>692.8974549201675</v>
       </c>
       <c r="C40" t="n">
-        <v>364.5418494269122</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D40" t="n">
-        <v>214.4252100145765</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E40" t="n">
-        <v>66.5121164321834</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F40" t="n">
-        <v>66.5121164321834</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G40" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H40" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I40" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J40" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K40" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L40" t="n">
         <v>332.3555681596505</v>
@@ -7374,10 +7374,10 @@
         <v>920.8870058181849</v>
       </c>
       <c r="X40" t="n">
-        <v>920.8870058181849</v>
+        <v>692.8974549201675</v>
       </c>
       <c r="Y40" t="n">
-        <v>715.1264971850588</v>
+        <v>692.8974549201675</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1888.09808975843</v>
+        <v>1624.63871203243</v>
       </c>
       <c r="C41" t="n">
-        <v>1519.135572818019</v>
+        <v>1255.676195092018</v>
       </c>
       <c r="D41" t="n">
-        <v>1160.869874211268</v>
+        <v>897.4104964852677</v>
       </c>
       <c r="E41" t="n">
-        <v>775.0816216130238</v>
+        <v>511.6222438870234</v>
       </c>
       <c r="F41" t="n">
-        <v>364.0957168234162</v>
+        <v>100.6363390974159</v>
       </c>
       <c r="G41" t="n">
-        <v>364.0957168234162</v>
+        <v>100.6363390974159</v>
       </c>
       <c r="H41" t="n">
         <v>66.5121164321834</v>
@@ -7414,13 +7414,13 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
         <v>2120.555556060171</v>
@@ -7441,22 +7441,22 @@
         <v>3325.60582160917</v>
       </c>
       <c r="T41" t="n">
-        <v>3271.136393794642</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U41" t="n">
-        <v>3017.605917068478</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V41" t="n">
-        <v>3017.605917068478</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W41" t="n">
-        <v>2664.837261798364</v>
+        <v>2388.243802269321</v>
       </c>
       <c r="X41" t="n">
-        <v>2664.837261798364</v>
+        <v>2014.778044008242</v>
       </c>
       <c r="Y41" t="n">
-        <v>2274.697929822552</v>
+        <v>1624.63871203243</v>
       </c>
     </row>
     <row r="42">
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>384.3315924698002</v>
+        <v>507.4345062145372</v>
       </c>
       <c r="C43" t="n">
-        <v>384.3315924698002</v>
+        <v>507.4345062145372</v>
       </c>
       <c r="D43" t="n">
-        <v>234.2149530574644</v>
+        <v>507.4345062145372</v>
       </c>
       <c r="E43" t="n">
-        <v>234.2149530574644</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F43" t="n">
         <v>234.2149530574644</v>
@@ -7596,25 +7596,25 @@
         <v>920.8870058181849</v>
       </c>
       <c r="S43" t="n">
-        <v>920.8870058181849</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="T43" t="n">
-        <v>699.1203903877109</v>
+        <v>507.4345062145372</v>
       </c>
       <c r="U43" t="n">
-        <v>410.0175235133545</v>
+        <v>507.4345062145372</v>
       </c>
       <c r="V43" t="n">
-        <v>384.3315924698002</v>
+        <v>507.4345062145372</v>
       </c>
       <c r="W43" t="n">
-        <v>384.3315924698002</v>
+        <v>507.4345062145372</v>
       </c>
       <c r="X43" t="n">
-        <v>384.3315924698002</v>
+        <v>507.4345062145372</v>
       </c>
       <c r="Y43" t="n">
-        <v>384.3315924698002</v>
+        <v>507.4345062145372</v>
       </c>
     </row>
     <row r="44">
@@ -7624,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1320.35562273557</v>
+        <v>1590.514489367197</v>
       </c>
       <c r="C44" t="n">
-        <v>1320.35562273557</v>
+        <v>1221.551972426786</v>
       </c>
       <c r="D44" t="n">
-        <v>1320.35562273557</v>
+        <v>863.2862738200351</v>
       </c>
       <c r="E44" t="n">
-        <v>934.5673701373257</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F44" t="n">
-        <v>523.5814653477182</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G44" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H44" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M44" t="n">
         <v>1573.776739001388</v>
@@ -7663,37 +7663,37 @@
         <v>2120.55555606017</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T44" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U44" t="n">
-        <v>3072.075344883006</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V44" t="n">
-        <v>2741.012457539435</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="W44" t="n">
-        <v>2388.243802269321</v>
+        <v>2609.016021139988</v>
       </c>
       <c r="X44" t="n">
-        <v>2014.778044008241</v>
+        <v>2235.550262878909</v>
       </c>
       <c r="Y44" t="n">
-        <v>1624.638712032429</v>
+        <v>1845.410930903097</v>
       </c>
     </row>
     <row r="45">
@@ -7703,37 +7703,37 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D45" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7760,7 +7760,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V45" t="n">
         <v>1779.608347199865</v>
@@ -7769,10 +7769,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>250.3382603461635</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C46" t="n">
-        <v>81.40207741825657</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D46" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E46" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F46" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G46" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H46" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J46" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K46" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L46" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M46" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N46" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O46" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P46" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q46" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R46" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S46" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T46" t="n">
-        <v>699.1203903877109</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U46" t="n">
-        <v>699.1203903877109</v>
+        <v>631.7841389438286</v>
       </c>
       <c r="V46" t="n">
-        <v>699.1203903877109</v>
+        <v>377.0996507379417</v>
       </c>
       <c r="W46" t="n">
-        <v>699.1203903877109</v>
+        <v>87.6824807009811</v>
       </c>
       <c r="X46" t="n">
-        <v>471.1308394896936</v>
+        <v>87.6824807009811</v>
       </c>
       <c r="Y46" t="n">
-        <v>250.3382603461635</v>
+        <v>66.51211643218343</v>
       </c>
     </row>
   </sheetData>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>217.5613044873858</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22555,16 +22555,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>216.7578328961673</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>219.3504585753916</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>225.5722460637382</v>
+        <v>413.097833230058</v>
       </c>
       <c r="H2" t="n">
-        <v>129.3682389399025</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
         <v>125.4713171199747</v>
@@ -22594,13 +22594,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666378</v>
+        <v>77.08171901666373</v>
       </c>
       <c r="S2" t="n">
         <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
-        <v>213.4438810562068</v>
+        <v>25.91829388988657</v>
       </c>
       <c r="U2" t="n">
         <v>251.1692605650303</v>
@@ -22609,10 +22609,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>161.7153815510928</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>182.2055135121488</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22646,10 +22646,10 @@
         <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409149</v>
+        <v>58.90455890409147</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265839</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22673,28 +22673,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.4328956284632</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920013</v>
+        <v>7.884010625681015</v>
       </c>
       <c r="U3" t="n">
-        <v>60.6912312339964</v>
+        <v>38.33818124377072</v>
       </c>
       <c r="V3" t="n">
-        <v>45.2749999831054</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>64.16939599459974</v>
+        <v>64.1693959945994</v>
       </c>
       <c r="X3" t="n">
-        <v>18.24739803715761</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>128.3222752623311</v>
       </c>
     </row>
     <row r="4">
@@ -22728,10 +22728,10 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825418</v>
+        <v>57.06999962825414</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402852</v>
+        <v>14.10430989402848</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22746,13 +22746,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709386</v>
+        <v>18.10760906709382</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.68604055159726</v>
+        <v>68.68604055159722</v>
       </c>
       <c r="R4" t="n">
-        <v>132.8223696106904</v>
+        <v>80.60642335625572</v>
       </c>
       <c r="S4" t="n">
         <v>206.7802557954962</v>
@@ -22767,7 +22767,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>234.3070520821566</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22789,16 +22789,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>167.1574544543631</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>194.4047829059419</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>241.7035085656167</v>
       </c>
       <c r="G5" t="n">
-        <v>413.097833230058</v>
+        <v>225.5722460637379</v>
       </c>
       <c r="H5" t="n">
         <v>316.8938261062223</v>
@@ -22831,7 +22831,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>77.08171901666378</v>
+        <v>77.08171901666373</v>
       </c>
       <c r="S5" t="n">
         <v>158.7758131900531</v>
@@ -22846,13 +22846,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>184.0684315413185</v>
+        <v>161.7153815510929</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>198.7123514897337</v>
+        <v>198.7123514897335</v>
       </c>
     </row>
     <row r="6">
@@ -22862,19 +22862,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>122.724667494686</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>136.1637893657753</v>
@@ -22883,10 +22883,10 @@
         <v>100.8417573507397</v>
       </c>
       <c r="I6" t="n">
-        <v>58.90455890409149</v>
+        <v>58.90455890409147</v>
       </c>
       <c r="J6" t="n">
-        <v>15.37922103265839</v>
+        <v>15.37922103265835</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22910,28 +22910,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>72.4328956284632</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>149.7702446909496</v>
       </c>
       <c r="T6" t="n">
-        <v>195.4095977920013</v>
+        <v>195.4095977920012</v>
       </c>
       <c r="U6" t="n">
         <v>225.8637684100909</v>
       </c>
       <c r="V6" t="n">
-        <v>45.2749999831054</v>
+        <v>78.98802048365945</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>64.16939599459948</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>18.15710861098449</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22950,7 +22950,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>94.21801639213473</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -22965,10 +22965,10 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J7" t="n">
-        <v>57.06999962825418</v>
+        <v>57.06999962825414</v>
       </c>
       <c r="K7" t="n">
-        <v>14.10430989402852</v>
+        <v>14.10430989402848</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22983,10 +22983,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>18.10760906709386</v>
+        <v>18.10760906709382</v>
       </c>
       <c r="Q7" t="n">
-        <v>68.68604055159726</v>
+        <v>68.68604055159722</v>
       </c>
       <c r="R7" t="n">
         <v>132.8223696106904</v>
@@ -23007,7 +23007,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>173.4937091346025</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -23023,25 +23023,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>167.1574544543628</v>
       </c>
       <c r="E8" t="n">
-        <v>283.4883704872006</v>
+        <v>194.4047829059417</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>413.097833230058</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>228.8030079467913</v>
       </c>
       <c r="I8" t="n">
-        <v>78.16360657708299</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23071,16 +23071,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T8" t="n">
-        <v>208.0722578696039</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0710926941158</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>140.2266713038148</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -23089,7 +23089,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23102,28 +23102,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.5072338470353</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H9" t="n">
-        <v>94.50081326185514</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I9" t="n">
-        <v>36.29946757904885</v>
+        <v>58.90455890409149</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>15.37922103265838</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23147,28 +23147,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>31.66886087721431</v>
+        <v>72.43289562846319</v>
       </c>
       <c r="S9" t="n">
-        <v>49.19507802460336</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>195.4095977920012</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>45.27499998310515</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>64.16939599459948</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>25.78335984937837</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23193,19 +23193,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.4515011109318</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H10" t="n">
-        <v>148.5398113612452</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I10" t="n">
-        <v>109.1541654470835</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J10" t="n">
-        <v>18.15430933923925</v>
+        <v>57.06999962825415</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>14.1043098940285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23220,28 +23220,28 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>18.10760906709383</v>
       </c>
       <c r="Q10" t="n">
-        <v>22.59469128425553</v>
+        <v>68.68604055159723</v>
       </c>
       <c r="R10" t="n">
-        <v>108.0728512656386</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S10" t="n">
-        <v>11.55974009872591</v>
+        <v>206.7802557954962</v>
       </c>
       <c r="T10" t="n">
-        <v>221.3678187343026</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2350578157167</v>
+        <v>234.0491352390158</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23257,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>358.5862092445529</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23308,10 +23308,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23323,10 +23323,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>64.03263336711501</v>
       </c>
     </row>
     <row r="12">
@@ -23390,7 +23390,7 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>1.051603248924948e-12</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>161.2670937523051</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>161.3816347461679</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23494,16 +23494,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>249.2766965295529</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>199.1263452822303</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23515,7 +23515,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23557,7 +23557,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23594,7 +23594,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.147526518252562e-12</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>124.4623873968211</v>
       </c>
       <c r="G16" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>25.91735644648347</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
@@ -23709,10 +23709,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>296.7837013816875</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -23746,13 +23746,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>6.713960260762065</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,19 +23782,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23898,19 +23898,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>38.35055233202181</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>109.8671281946605</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23977,7 +23977,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -24022,19 +24022,19 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>200.9546498970576</v>
       </c>
       <c r="X20" t="n">
-        <v>186.5668494326252</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>91.92731347656172</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
@@ -24192,10 +24192,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>55.88605228487037</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24205,13 +24205,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>348.950861224899</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24220,13 +24220,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
         <v>203.9179701396201</v>
@@ -24265,16 +24265,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>108.5210040371067</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24366,19 +24366,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>38.35055233202181</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
@@ -24420,13 +24420,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>180.0496158770554</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24451,16 +24451,16 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>27.8977764974602</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>120.3509368739079</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292595</v>
@@ -24496,7 +24496,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24612,13 +24612,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>96.35242040983809</v>
@@ -24669,7 +24669,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>180.9075580643283</v>
+        <v>124.0048197210152</v>
       </c>
     </row>
     <row r="29">
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>181.125156449317</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24691,7 +24691,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -24700,7 +24700,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,13 +24730,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
-        <v>10.19584368876033</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24745,7 +24745,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24840,7 +24840,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>16.84412522327472</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24849,7 +24849,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
@@ -24897,7 +24897,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -24906,7 +24906,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>85.96640010759108</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24916,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,16 +24967,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>112.8482915399946</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -24985,7 +24985,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>173.2203951552924</v>
       </c>
     </row>
     <row r="33">
@@ -25083,13 +25083,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>130.4718884307571</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>118.6391596981278</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
@@ -25128,22 +25128,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25153,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>377.4867441581652</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25168,13 +25168,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25210,16 +25210,16 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>61.82045247637961</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25314,19 +25314,19 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>135.1222229673375</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
@@ -25365,7 +25365,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.2118382056129</v>
@@ -25374,10 +25374,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>184.8381351059895</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25402,7 +25402,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>170.1349897010394</v>
       </c>
       <c r="G38" t="n">
         <v>410.9217256534534</v>
@@ -25441,10 +25441,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -25453,13 +25453,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>108.8976542956631</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>153.6216279422646</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25560,10 +25560,10 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>144.7550149143208</v>
@@ -25614,10 +25614,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>14.88174980530002</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25645,7 +25645,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>260.8247839487403</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -25681,19 +25681,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>149.993236603237</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25791,13 +25791,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>21.36765304399836</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25836,16 +25836,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>226.7085715907092</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -25864,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>81.49358325958985</v>
+        <v>130.38636454294</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25879,13 +25879,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>203.9179701396201</v>
@@ -25924,7 +25924,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26025,10 +26025,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>133.8744116419999</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26076,22 +26076,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>197.6259927259851</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>424931.0936061949</v>
+        <v>424931.0936061955</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>424931.0936061952</v>
+        <v>424931.0936061953</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>658545.8706526516</v>
+        <v>424931.0936061952</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>839054.4922903114</v>
+        <v>839054.4922903115</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>839054.4922903117</v>
+        <v>839054.4922903116</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>839054.4922903115</v>
+        <v>839054.4922903116</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>839054.4922903115</v>
+        <v>839054.4922903116</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>839054.4922903116</v>
+        <v>839054.4922903114</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>839054.4922903114</v>
+        <v>839054.4922903116</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>839054.4922903114</v>
+        <v>839054.4922903116</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>839054.4922903116</v>
+        <v>839054.4922903115</v>
       </c>
     </row>
   </sheetData>
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>158307.6623238766</v>
+      </c>
+      <c r="C2" t="n">
+        <v>158307.6623238766</v>
+      </c>
+      <c r="D2" t="n">
         <v>158307.6623238765</v>
       </c>
-      <c r="C2" t="n">
-        <v>158307.6623238765</v>
-      </c>
-      <c r="D2" t="n">
-        <v>245340.6184784386</v>
-      </c>
       <c r="E2" t="n">
-        <v>312588.9285003117</v>
+        <v>312588.9285003119</v>
       </c>
       <c r="F2" t="n">
-        <v>312588.9285003118</v>
+        <v>312588.928500312</v>
       </c>
       <c r="G2" t="n">
         <v>312588.9285003118</v>
@@ -26334,10 +26334,10 @@
         <v>312588.9285003119</v>
       </c>
       <c r="I2" t="n">
-        <v>312588.9285003116</v>
+        <v>312588.9285003117</v>
       </c>
       <c r="J2" t="n">
-        <v>312588.9285003118</v>
+        <v>312588.9285003117</v>
       </c>
       <c r="K2" t="n">
         <v>312588.9285003118</v>
@@ -26346,16 +26346,16 @@
         <v>312588.9285003117</v>
       </c>
       <c r="M2" t="n">
-        <v>312588.9285003118</v>
+        <v>312588.9285003117</v>
       </c>
       <c r="N2" t="n">
-        <v>312588.9285003118</v>
+        <v>312588.9285003117</v>
       </c>
       <c r="O2" t="n">
-        <v>312588.9285003116</v>
+        <v>312588.9285003117</v>
       </c>
       <c r="P2" t="n">
-        <v>312588.9285003117</v>
+        <v>312588.9285003119</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208454</v>
+        <v>591356.9025208456</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>371558.5249487661</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>276030.7457669098</v>
+        <v>627134.6436336678</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,19 +26386,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854456</v>
+        <v>49064.94472854459</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>89743.37813127032</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>72091.35261608617</v>
+        <v>160456.4418678775</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>137.800118072334</v>
+        <v>137.8001180723342</v>
       </c>
       <c r="C4" t="n">
-        <v>137.800118072334</v>
+        <v>137.8001180723342</v>
       </c>
       <c r="D4" t="n">
-        <v>384.3219252469136</v>
+        <v>137.8001180723341</v>
       </c>
       <c r="E4" t="n">
-        <v>584.646989006123</v>
+        <v>584.6469890061234</v>
       </c>
       <c r="F4" t="n">
-        <v>584.646989006123</v>
+        <v>584.6469890061232</v>
       </c>
       <c r="G4" t="n">
-        <v>584.646989006123</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="H4" t="n">
-        <v>584.646989006123</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="I4" t="n">
         <v>584.6469890061231</v>
@@ -26444,19 +26444,19 @@
         <v>584.6469890061231</v>
       </c>
       <c r="K4" t="n">
+        <v>584.6469890061231</v>
+      </c>
+      <c r="L4" t="n">
+        <v>584.6469890061231</v>
+      </c>
+      <c r="M4" t="n">
+        <v>584.6469890061231</v>
+      </c>
+      <c r="N4" t="n">
+        <v>584.6469890061231</v>
+      </c>
+      <c r="O4" t="n">
         <v>584.6469890061232</v>
-      </c>
-      <c r="L4" t="n">
-        <v>584.6469890061232</v>
-      </c>
-      <c r="M4" t="n">
-        <v>584.6469890061232</v>
-      </c>
-      <c r="N4" t="n">
-        <v>584.6469890061232</v>
-      </c>
-      <c r="O4" t="n">
-        <v>584.6469890061231</v>
       </c>
       <c r="P4" t="n">
         <v>584.6469890061231</v>
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161357</v>
+        <v>56985.80041161359</v>
       </c>
       <c r="C5" t="n">
-        <v>56985.80041161357</v>
+        <v>56985.80041161359</v>
       </c>
       <c r="D5" t="n">
-        <v>85199.08185587224</v>
+        <v>56985.80041161359</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139331</v>
       </c>
       <c r="F5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139331</v>
       </c>
       <c r="G5" t="n">
         <v>74306.3405613933</v>
@@ -26502,16 +26502,16 @@
         <v>74306.34056139328</v>
       </c>
       <c r="M5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="N5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="O5" t="n">
         <v>74306.34056139328</v>
       </c>
       <c r="P5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-502366.9027456894</v>
+        <v>-491392.2469285584</v>
       </c>
       <c r="C6" t="n">
-        <v>88989.99977515594</v>
+        <v>99964.65559228722</v>
       </c>
       <c r="D6" t="n">
-        <v>-219414.6903676096</v>
+        <v>99964.65559228716</v>
       </c>
       <c r="E6" t="n">
-        <v>-42406.80019516715</v>
+        <v>-389844.1022215723</v>
       </c>
       <c r="F6" t="n">
-        <v>233623.9455717427</v>
+        <v>237290.5414120956</v>
       </c>
       <c r="G6" t="n">
-        <v>233623.9455717427</v>
+        <v>237290.5414120956</v>
       </c>
       <c r="H6" t="n">
-        <v>233623.9455717428</v>
+        <v>237290.5414120955</v>
       </c>
       <c r="I6" t="n">
-        <v>233623.9455717424</v>
+        <v>237290.5414120953</v>
       </c>
       <c r="J6" t="n">
-        <v>184559.0008431982</v>
+        <v>188225.5966835507</v>
       </c>
       <c r="K6" t="n">
-        <v>233623.9455717427</v>
+        <v>237290.5414120954</v>
       </c>
       <c r="L6" t="n">
-        <v>143880.5674404723</v>
+        <v>237290.5414120953</v>
       </c>
       <c r="M6" t="n">
-        <v>161532.5929556566</v>
+        <v>76834.0995442179</v>
       </c>
       <c r="N6" t="n">
-        <v>233623.9455717427</v>
+        <v>237290.5414120953</v>
       </c>
       <c r="O6" t="n">
-        <v>233623.9455717426</v>
+        <v>237290.5414120953</v>
       </c>
       <c r="P6" t="n">
-        <v>233623.9455717427</v>
+        <v>237290.5414120955</v>
       </c>
     </row>
   </sheetData>
@@ -26737,19 +26737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.4699409129048</v>
       </c>
       <c r="C3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.4699409129048</v>
       </c>
       <c r="D3" t="n">
-        <v>853.7106645376841</v>
+        <v>548.4699409129047</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="G3" t="n">
         <v>1089.776700593298</v>
@@ -26789,28 +26789,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="C4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="D4" t="n">
-        <v>542.1149567261632</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="I4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="J4" t="n">
         <v>831.4014554022925</v>
@@ -26822,16 +26822,16 @@
         <v>831.4014554022925</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="O4" t="n">
         <v>831.4014554022925</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
     </row>
   </sheetData>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.4699409129048</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>305.2407236247795</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>236.0660360556139</v>
+        <v>541.3067596803938</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>354.5893695598434</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>289.2864986761294</v>
+        <v>643.8758682359728</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663197</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>354.5893695598434</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>289.2864986761294</v>
+        <v>643.8758682359731</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>354.5893695598434</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>289.2864986761294</v>
+        <v>643.8758682359728</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31044,46 +31044,46 @@
         <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954485</v>
+        <v>22.58097600954486</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043118</v>
+        <v>85.00457245043123</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655543</v>
+        <v>187.1384950655544</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528639</v>
+        <v>280.472093452864</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672893</v>
+        <v>347.9504329672894</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470274</v>
+        <v>387.1618995470275</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470024</v>
+        <v>393.4265838470026</v>
       </c>
       <c r="O2" t="n">
-        <v>371.501566862268</v>
+        <v>371.5015668622681</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244294</v>
+        <v>317.0679923244296</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151092</v>
+        <v>238.1048576151093</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974683</v>
+        <v>138.5038187974684</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619223</v>
+        <v>50.24425639619225</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924579</v>
+        <v>9.651968507924584</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.1763923428061602</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,13 +31120,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435304</v>
+        <v>1.179727797435305</v>
       </c>
       <c r="H3" t="n">
         <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.6178210959085</v>
+        <v>40.61782109590852</v>
       </c>
       <c r="J3" t="n">
         <v>111.4584056340083</v>
@@ -31135,34 +31135,34 @@
         <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405032</v>
+        <v>256.1509851405033</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975329</v>
+        <v>298.9161177975331</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829654</v>
+        <v>306.8275379829655</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292673</v>
+        <v>280.6872536292674</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628872</v>
+        <v>225.2762668628873</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936715</v>
+        <v>150.591218493672</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550075</v>
+        <v>73.2466083355008</v>
       </c>
       <c r="S3" t="n">
-        <v>21.9129264128882</v>
+        <v>21.91292641288821</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820369</v>
+        <v>4.755130902820371</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390163</v>
+        <v>0.07761367088390166</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445819</v>
+        <v>0.9890441557445823</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620016</v>
+        <v>8.793501675620019</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639162</v>
+        <v>29.74325515639163</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114193</v>
+        <v>69.92542181114197</v>
       </c>
       <c r="K4" t="n">
         <v>114.9089482765069</v>
@@ -31223,25 +31223,25 @@
         <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592433</v>
+        <v>139.7968957592434</v>
       </c>
       <c r="P4" t="n">
         <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784858</v>
+        <v>82.81896107784863</v>
       </c>
       <c r="R4" t="n">
-        <v>44.4710217664791</v>
+        <v>44.47102176647912</v>
       </c>
       <c r="S4" t="n">
         <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181394</v>
+        <v>4.225915938181396</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061362</v>
+        <v>0.05394786304061364</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31281,46 +31281,46 @@
         <v>2.204904285077002</v>
       </c>
       <c r="H5" t="n">
-        <v>22.58097600954485</v>
+        <v>22.58097600954486</v>
       </c>
       <c r="I5" t="n">
-        <v>85.00457245043118</v>
+        <v>85.00457245043123</v>
       </c>
       <c r="J5" t="n">
-        <v>187.1384950655543</v>
+        <v>187.1384950655544</v>
       </c>
       <c r="K5" t="n">
-        <v>280.4720934528639</v>
+        <v>280.472093452864</v>
       </c>
       <c r="L5" t="n">
-        <v>347.9504329672893</v>
+        <v>347.9504329672894</v>
       </c>
       <c r="M5" t="n">
-        <v>387.1618995470274</v>
+        <v>387.1618995470275</v>
       </c>
       <c r="N5" t="n">
-        <v>393.4265838470024</v>
+        <v>393.4265838470026</v>
       </c>
       <c r="O5" t="n">
-        <v>371.501566862268</v>
+        <v>371.5015668622681</v>
       </c>
       <c r="P5" t="n">
-        <v>317.0679923244294</v>
+        <v>317.0679923244296</v>
       </c>
       <c r="Q5" t="n">
-        <v>238.1048576151092</v>
+        <v>238.1048576151093</v>
       </c>
       <c r="R5" t="n">
-        <v>138.5038187974683</v>
+        <v>138.5038187974684</v>
       </c>
       <c r="S5" t="n">
-        <v>50.24425639619223</v>
+        <v>50.24425639619225</v>
       </c>
       <c r="T5" t="n">
-        <v>9.651968507924579</v>
+        <v>9.651968507924584</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.1763923428061602</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,13 +31357,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.179727797435304</v>
+        <v>1.179727797435305</v>
       </c>
       <c r="H6" t="n">
         <v>11.39368688575676</v>
       </c>
       <c r="I6" t="n">
-        <v>40.6178210959085</v>
+        <v>40.61782109590852</v>
       </c>
       <c r="J6" t="n">
         <v>111.4584056340083</v>
@@ -31372,34 +31372,34 @@
         <v>190.5001680621737</v>
       </c>
       <c r="L6" t="n">
-        <v>256.1509851405032</v>
+        <v>256.1509851405033</v>
       </c>
       <c r="M6" t="n">
-        <v>298.9161177975329</v>
+        <v>298.9161177975331</v>
       </c>
       <c r="N6" t="n">
-        <v>306.8275379829654</v>
+        <v>306.8275379829655</v>
       </c>
       <c r="O6" t="n">
-        <v>280.6872536292673</v>
+        <v>280.6872536292674</v>
       </c>
       <c r="P6" t="n">
-        <v>225.2762668628872</v>
+        <v>225.2762668628873</v>
       </c>
       <c r="Q6" t="n">
         <v>150.5912184936715</v>
       </c>
       <c r="R6" t="n">
-        <v>73.24660833550075</v>
+        <v>73.2466083355008</v>
       </c>
       <c r="S6" t="n">
-        <v>21.9129264128882</v>
+        <v>21.91292641288821</v>
       </c>
       <c r="T6" t="n">
-        <v>4.755130902820369</v>
+        <v>4.755130902820371</v>
       </c>
       <c r="U6" t="n">
-        <v>0.07761367088390163</v>
+        <v>0.07761367088390166</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9890441557445819</v>
+        <v>0.9890441557445823</v>
       </c>
       <c r="H7" t="n">
-        <v>8.793501675620016</v>
+        <v>8.793501675620019</v>
       </c>
       <c r="I7" t="n">
-        <v>29.74325515639162</v>
+        <v>29.74325515639163</v>
       </c>
       <c r="J7" t="n">
-        <v>69.92542181114193</v>
+        <v>69.92542181114197</v>
       </c>
       <c r="K7" t="n">
         <v>114.9089482765069</v>
@@ -31460,25 +31460,25 @@
         <v>151.3507297604415</v>
       </c>
       <c r="O7" t="n">
-        <v>139.7968957592433</v>
+        <v>139.7968957592434</v>
       </c>
       <c r="P7" t="n">
         <v>119.6203949820538</v>
       </c>
       <c r="Q7" t="n">
-        <v>82.81896107784858</v>
+        <v>82.81896107784863</v>
       </c>
       <c r="R7" t="n">
-        <v>44.4710217664791</v>
+        <v>44.47102176647912</v>
       </c>
       <c r="S7" t="n">
         <v>17.23634224147603</v>
       </c>
       <c r="T7" t="n">
-        <v>4.225915938181394</v>
+        <v>4.225915938181396</v>
       </c>
       <c r="U7" t="n">
-        <v>0.05394786304061362</v>
+        <v>0.05394786304061364</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.432002671508275</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H8" t="n">
-        <v>35.14799735958413</v>
+        <v>22.58097600954486</v>
       </c>
       <c r="I8" t="n">
-        <v>132.3122829933229</v>
+        <v>85.00457245043121</v>
       </c>
       <c r="J8" t="n">
-        <v>291.2869367409257</v>
+        <v>187.1384950655544</v>
       </c>
       <c r="K8" t="n">
-        <v>436.5636098258711</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L8" t="n">
-        <v>541.5957615840426</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M8" t="n">
-        <v>602.6296390934779</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N8" t="n">
-        <v>612.3808166839008</v>
+        <v>393.4265838470025</v>
       </c>
       <c r="O8" t="n">
-        <v>578.2538401190903</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P8" t="n">
-        <v>493.5262741662298</v>
+        <v>317.0679923244295</v>
       </c>
       <c r="Q8" t="n">
-        <v>370.6176784928395</v>
+        <v>238.1048576151093</v>
       </c>
       <c r="R8" t="n">
-        <v>215.5855378141319</v>
+        <v>138.5038187974684</v>
       </c>
       <c r="S8" t="n">
-        <v>78.20676087699491</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T8" t="n">
-        <v>15.02359169452748</v>
+        <v>9.651968507924582</v>
       </c>
       <c r="U8" t="n">
-        <v>0.274560213720662</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.836283316175396</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H9" t="n">
-        <v>17.73463097464133</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I9" t="n">
-        <v>63.22291242095115</v>
+        <v>40.61782109590851</v>
       </c>
       <c r="J9" t="n">
-        <v>173.4885040076062</v>
+        <v>111.4584056340083</v>
       </c>
       <c r="K9" t="n">
-        <v>296.5194861913577</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L9" t="n">
-        <v>398.7070419616798</v>
+        <v>256.1509851405033</v>
       </c>
       <c r="M9" t="n">
-        <v>465.2723121730378</v>
+        <v>298.916117797533</v>
       </c>
       <c r="N9" t="n">
-        <v>477.5866858152843</v>
+        <v>306.8275379829655</v>
       </c>
       <c r="O9" t="n">
-        <v>436.8985133884505</v>
+        <v>280.6872536292674</v>
       </c>
       <c r="P9" t="n">
-        <v>350.6495746475632</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q9" t="n">
-        <v>234.3999545349506</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R9" t="n">
-        <v>114.0106430867496</v>
+        <v>73.24660833550077</v>
       </c>
       <c r="S9" t="n">
-        <v>34.10815721053859</v>
+        <v>21.91292641288821</v>
       </c>
       <c r="T9" t="n">
-        <v>7.401510384057843</v>
+        <v>4.75513090282037</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1208081129062761</v>
+        <v>0.07761367088390164</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.539478247526971</v>
+        <v>0.9890441557445822</v>
       </c>
       <c r="H10" t="n">
-        <v>13.68736114619435</v>
+        <v>8.793501675620018</v>
       </c>
       <c r="I10" t="n">
-        <v>46.29630948017475</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J10" t="n">
-        <v>108.8411121001569</v>
+        <v>69.92542181114196</v>
       </c>
       <c r="K10" t="n">
-        <v>178.8593818490426</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L10" t="n">
-        <v>228.8784296368736</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M10" t="n">
-        <v>241.3202129282506</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N10" t="n">
-        <v>235.5821576420139</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O10" t="n">
-        <v>217.5982526595396</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P10" t="n">
-        <v>186.1928964099892</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q10" t="n">
-        <v>128.9103103451903</v>
+        <v>82.81896107784861</v>
       </c>
       <c r="R10" t="n">
-        <v>69.22054011153089</v>
+        <v>44.47102176647911</v>
       </c>
       <c r="S10" t="n">
-        <v>26.82890727735639</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T10" t="n">
-        <v>6.577770693978875</v>
+        <v>4.225915938181395</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08397154077419852</v>
+        <v>0.05394786304061363</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T11" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752255</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563564</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T14" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752255</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P16" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I17" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32311,40 +32311,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002933</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32399,16 +32399,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32417,16 +32417,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32548,40 +32548,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353161</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32621,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32636,16 +32636,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32654,16 +32654,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33280,7 +33280,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
         <v>299.2156706987487</v>
@@ -33517,7 +33517,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
         <v>299.2156706987487</v>
@@ -33754,7 +33754,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
         <v>299.2156706987487</v>
@@ -33991,7 +33991,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
         <v>299.2156706987487</v>
@@ -34222,13 +34222,13 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O42" t="n">
         <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q42" t="n">
         <v>299.2156706987487</v>
@@ -34468,7 +34468,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868052</v>
+        <v>6.092590538868137</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788333</v>
+        <v>60.38224240788344</v>
       </c>
       <c r="L2" t="n">
-        <v>112.184017997302</v>
+        <v>112.1840179973021</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197546</v>
+        <v>156.8156663197548</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504115</v>
+        <v>164.0135202504117</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405812</v>
+        <v>141.4033554405814</v>
       </c>
       <c r="P2" t="n">
-        <v>85.8349965691599</v>
+        <v>85.83499656916001</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065975</v>
+        <v>15.79916774065984</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781469</v>
+        <v>52.65872908781475</v>
       </c>
       <c r="L3" t="n">
-        <v>117.596605360629</v>
+        <v>117.5966053606292</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755146</v>
+        <v>156.7820838755148</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996321</v>
+        <v>175.4858258996322</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848229</v>
+        <v>138.091009184823</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855694</v>
+        <v>91.30185944855702</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764996</v>
+        <v>10.60944440765052</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,16 +34862,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646077</v>
+        <v>12.15921574646083</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061152</v>
+        <v>16.11138312061158</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520826</v>
+        <v>23.66518529520832</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400524</v>
+        <v>1.340357307400581</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>6.092590538868052</v>
+        <v>6.092590538868137</v>
       </c>
       <c r="K5" t="n">
-        <v>60.38224240788333</v>
+        <v>60.38224240788344</v>
       </c>
       <c r="L5" t="n">
-        <v>112.184017997302</v>
+        <v>112.1840179973021</v>
       </c>
       <c r="M5" t="n">
-        <v>156.8156663197546</v>
+        <v>156.8156663197548</v>
       </c>
       <c r="N5" t="n">
-        <v>164.0135202504115</v>
+        <v>164.0135202504117</v>
       </c>
       <c r="O5" t="n">
-        <v>141.4033554405812</v>
+        <v>141.4033554405814</v>
       </c>
       <c r="P5" t="n">
-        <v>85.8349965691599</v>
+        <v>85.83499656916001</v>
       </c>
       <c r="Q5" t="n">
-        <v>15.79916774065975</v>
+        <v>15.79916774065984</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>52.65872908781469</v>
+        <v>52.65872908781475</v>
       </c>
       <c r="L6" t="n">
-        <v>117.596605360629</v>
+        <v>117.5966053606292</v>
       </c>
       <c r="M6" t="n">
-        <v>156.7820838755146</v>
+        <v>156.7820838755148</v>
       </c>
       <c r="N6" t="n">
-        <v>175.4858258996321</v>
+        <v>175.4858258996322</v>
       </c>
       <c r="O6" t="n">
-        <v>138.0910091848229</v>
+        <v>138.091009184823</v>
       </c>
       <c r="P6" t="n">
-        <v>91.30185944855694</v>
+        <v>91.30185944855702</v>
       </c>
       <c r="Q6" t="n">
-        <v>10.60944440764996</v>
+        <v>10.60944440765002</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35099,16 +35099,16 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>12.15921574646077</v>
+        <v>12.15921574646083</v>
       </c>
       <c r="M7" t="n">
-        <v>16.11138312061152</v>
+        <v>16.11138312061158</v>
       </c>
       <c r="N7" t="n">
-        <v>23.66518529520826</v>
+        <v>23.66518529520832</v>
       </c>
       <c r="O7" t="n">
-        <v>1.340357307400524</v>
+        <v>1.340357307400581</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>110.2410322142395</v>
+        <v>6.09259053886808</v>
       </c>
       <c r="K8" t="n">
-        <v>216.4737587808906</v>
+        <v>60.38224240788338</v>
       </c>
       <c r="L8" t="n">
-        <v>305.8293466140554</v>
+        <v>112.1840179973021</v>
       </c>
       <c r="M8" t="n">
-        <v>372.2834058662052</v>
+        <v>156.8156663197547</v>
       </c>
       <c r="N8" t="n">
-        <v>382.9677530873099</v>
+        <v>164.0135202504116</v>
       </c>
       <c r="O8" t="n">
-        <v>348.1556286974036</v>
+        <v>141.4033554405813</v>
       </c>
       <c r="P8" t="n">
-        <v>262.2932784109602</v>
+        <v>85.83499656915996</v>
       </c>
       <c r="Q8" t="n">
-        <v>148.31198861839</v>
+        <v>15.79916774065978</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>46.6508773409395</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>158.6780472169987</v>
+        <v>52.65872908781472</v>
       </c>
       <c r="L9" t="n">
-        <v>260.1526621818056</v>
+        <v>117.5966053606291</v>
       </c>
       <c r="M9" t="n">
-        <v>323.1382782510195</v>
+        <v>156.7820838755147</v>
       </c>
       <c r="N9" t="n">
-        <v>346.2449737319509</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O9" t="n">
-        <v>294.302268944006</v>
+        <v>138.091009184823</v>
       </c>
       <c r="P9" t="n">
-        <v>216.6751672332329</v>
+        <v>91.301859448557</v>
       </c>
       <c r="Q9" t="n">
-        <v>94.41818044892906</v>
+        <v>10.60944440764999</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>49.84612367850724</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>93.99375335563528</v>
+        <v>12.1592157464608</v>
       </c>
       <c r="M10" t="n">
-        <v>102.3944289806455</v>
+        <v>16.11138312061155</v>
       </c>
       <c r="N10" t="n">
-        <v>107.8966131767807</v>
+        <v>23.66518529520829</v>
       </c>
       <c r="O10" t="n">
-        <v>79.14171420769682</v>
+        <v>1.340357307400552</v>
       </c>
       <c r="P10" t="n">
-        <v>48.46489236084162</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193716</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K13" t="n">
-        <v>99.30389319966699</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L13" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M13" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N13" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O13" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P13" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q13" t="n">
-        <v>13.05128016014217</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193716</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222434</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K16" t="n">
-        <v>99.30389319966699</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L16" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M16" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N16" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O16" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P16" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q16" t="n">
-        <v>13.05128016014217</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859631</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K19" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L19" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M19" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N19" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O19" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P19" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q19" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609571</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K22" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L22" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M22" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N22" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O22" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P22" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q22" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36928,7 +36928,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
         <v>159.2338966127272</v>
@@ -37165,7 +37165,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
         <v>159.2338966127272</v>
@@ -37402,7 +37402,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
         <v>159.2338966127272</v>
@@ -37639,7 +37639,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
         <v>159.2338966127272</v>
@@ -37870,13 +37870,13 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O42" t="n">
         <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q42" t="n">
         <v>159.2338966127272</v>
@@ -38116,7 +38116,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
